--- a/data/excel/Kotlin.xlsx
+++ b/data/excel/Kotlin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91846\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASHMI\DroidBiz\v3\DroidBizNextjs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B763F1E-AF11-4AFB-A766-0E04A952517E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C5B10D-0A10-4936-A204-B4E62CB2C17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>title</t>
-  </si>
-  <si>
-    <t>titleTag</t>
   </si>
   <si>
     <t>descriptionTag</t>
@@ -3441,24 +3438,12 @@
 This comprehensive example demonstrates how Kotlin booleans work in real-world scenarios, showing their versatility in conditional logic, collections, and application state management. Understanding these Kotlin boolean concepts will help you write more effective and maintainable Kotlin code for your projects.
 </t>
   </si>
-  <si>
-    <t>section</t>
-  </si>
-  <si>
-    <t>Getting Started</t>
-  </si>
-  <si>
-    <t>Basic Concepts</t>
-  </si>
-  <si>
-    <t>Advanced Topics</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3479,13 +3464,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3515,7 +3493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3533,7 +3511,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3752,21 +3729,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:X997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.44140625" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3779,21 +3755,17 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -3809,17 +3781,15 @@
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -3828,27 +3798,21 @@
       <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -3857,27 +3821,21 @@
       <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -3886,27 +3844,21 @@
       <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -3915,27 +3867,21 @@
       <c r="E5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -3944,27 +3890,21 @@
       <c r="E6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -3973,27 +3913,21 @@
       <c r="E7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -4002,27 +3936,21 @@
       <c r="E8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -4031,27 +3959,21 @@
       <c r="E9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -4060,27 +3982,21 @@
       <c r="E10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -4089,4154 +4005,3162 @@
       <c r="E11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
+      <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-    </row>
-    <row r="48" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-    </row>
-    <row r="49" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-    </row>
-    <row r="50" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-    </row>
-    <row r="51" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-    </row>
-    <row r="52" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-    </row>
-    <row r="53" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-    </row>
-    <row r="54" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-    </row>
-    <row r="55" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-    </row>
-    <row r="57" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-    </row>
-    <row r="58" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-    </row>
-    <row r="59" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-    </row>
-    <row r="60" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-    </row>
-    <row r="61" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-    </row>
-    <row r="62" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-    </row>
-    <row r="63" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-    </row>
-    <row r="64" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-    </row>
-    <row r="65" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-    </row>
-    <row r="66" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-    </row>
-    <row r="67" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-    </row>
-    <row r="68" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-    </row>
-    <row r="69" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-    </row>
-    <row r="70" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-    </row>
-    <row r="71" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-    </row>
-    <row r="72" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-    </row>
-    <row r="73" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-    </row>
-    <row r="74" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-    </row>
-    <row r="75" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-    </row>
-    <row r="76" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-    </row>
-    <row r="77" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-    </row>
-    <row r="78" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-    </row>
-    <row r="79" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-    </row>
-    <row r="80" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-    </row>
-    <row r="81" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-    </row>
-    <row r="82" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-    </row>
-    <row r="83" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-    </row>
-    <row r="84" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-    </row>
-    <row r="85" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-    </row>
-    <row r="86" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-    </row>
-    <row r="87" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-    </row>
-    <row r="88" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-    </row>
-    <row r="89" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-    </row>
-    <row r="90" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-    </row>
-    <row r="91" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-    </row>
-    <row r="92" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-    </row>
-    <row r="93" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-    </row>
-    <row r="94" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-    </row>
-    <row r="95" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-    </row>
-    <row r="96" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-    </row>
-    <row r="97" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-    </row>
-    <row r="98" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-    </row>
-    <row r="99" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-    </row>
-    <row r="100" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-    </row>
-    <row r="101" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-    </row>
-    <row r="102" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-    </row>
-    <row r="103" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-    </row>
-    <row r="104" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-    </row>
-    <row r="105" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-    </row>
-    <row r="106" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-    </row>
-    <row r="107" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-    </row>
-    <row r="108" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-    </row>
-    <row r="109" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-    </row>
-    <row r="110" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-    </row>
-    <row r="111" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-    </row>
-    <row r="112" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
-    </row>
-    <row r="113" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-    </row>
-    <row r="114" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
-    </row>
-    <row r="115" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
-    </row>
-    <row r="116" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B116" s="6"/>
-      <c r="C116" s="6"/>
-    </row>
-    <row r="117" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B117" s="6"/>
-      <c r="C117" s="6"/>
-    </row>
-    <row r="118" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B118" s="6"/>
-      <c r="C118" s="6"/>
-    </row>
-    <row r="119" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-    </row>
-    <row r="120" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-    </row>
-    <row r="121" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B121" s="6"/>
-      <c r="C121" s="6"/>
-    </row>
-    <row r="122" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
-    </row>
-    <row r="123" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
-    </row>
-    <row r="124" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B124" s="6"/>
-      <c r="C124" s="6"/>
-    </row>
-    <row r="125" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B125" s="6"/>
-      <c r="C125" s="6"/>
-    </row>
-    <row r="126" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
-    </row>
-    <row r="127" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-    </row>
-    <row r="128" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
-      <c r="C128" s="6"/>
-    </row>
-    <row r="129" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B129" s="6"/>
-      <c r="C129" s="6"/>
-    </row>
-    <row r="130" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
-    </row>
-    <row r="131" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B131" s="6"/>
-      <c r="C131" s="6"/>
-    </row>
-    <row r="132" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
-    </row>
-    <row r="133" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B133" s="6"/>
-      <c r="C133" s="6"/>
-    </row>
-    <row r="134" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
-    </row>
-    <row r="135" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
-    </row>
-    <row r="136" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
-    </row>
-    <row r="137" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-    </row>
-    <row r="138" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B138" s="6"/>
-      <c r="C138" s="6"/>
-    </row>
-    <row r="139" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
-    </row>
-    <row r="140" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
-    </row>
-    <row r="141" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
-    </row>
-    <row r="142" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
-    </row>
-    <row r="143" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B143" s="6"/>
-      <c r="C143" s="6"/>
-    </row>
-    <row r="144" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
-    </row>
-    <row r="145" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
-    </row>
-    <row r="146" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B146" s="6"/>
-      <c r="C146" s="6"/>
-    </row>
-    <row r="147" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B147" s="6"/>
-      <c r="C147" s="6"/>
-    </row>
-    <row r="148" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
-    </row>
-    <row r="149" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
-    </row>
-    <row r="150" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B150" s="6"/>
-      <c r="C150" s="6"/>
-    </row>
-    <row r="151" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
-    </row>
-    <row r="152" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
-    </row>
-    <row r="153" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B153" s="6"/>
-      <c r="C153" s="6"/>
-    </row>
-    <row r="154" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B154" s="6"/>
-      <c r="C154" s="6"/>
-    </row>
-    <row r="155" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B155" s="6"/>
-      <c r="C155" s="6"/>
-    </row>
-    <row r="156" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B156" s="6"/>
-      <c r="C156" s="6"/>
-    </row>
-    <row r="157" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B157" s="6"/>
-      <c r="C157" s="6"/>
-    </row>
-    <row r="158" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B158" s="6"/>
-      <c r="C158" s="6"/>
-    </row>
-    <row r="159" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B159" s="6"/>
-      <c r="C159" s="6"/>
-    </row>
-    <row r="160" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B160" s="6"/>
-      <c r="C160" s="6"/>
-    </row>
-    <row r="161" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
-    </row>
-    <row r="162" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B162" s="6"/>
-      <c r="C162" s="6"/>
-    </row>
-    <row r="163" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B163" s="6"/>
-      <c r="C163" s="6"/>
-    </row>
-    <row r="164" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B164" s="6"/>
-      <c r="C164" s="6"/>
-    </row>
-    <row r="165" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B165" s="6"/>
-      <c r="C165" s="6"/>
-    </row>
-    <row r="166" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B166" s="6"/>
-      <c r="C166" s="6"/>
-    </row>
-    <row r="167" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B167" s="6"/>
-      <c r="C167" s="6"/>
-    </row>
-    <row r="168" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B168" s="6"/>
-      <c r="C168" s="6"/>
-    </row>
-    <row r="169" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B169" s="6"/>
-      <c r="C169" s="6"/>
-    </row>
-    <row r="170" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B170" s="6"/>
-      <c r="C170" s="6"/>
-    </row>
-    <row r="171" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
-    </row>
-    <row r="172" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
-    </row>
-    <row r="173" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B173" s="6"/>
-      <c r="C173" s="6"/>
-    </row>
-    <row r="174" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B174" s="6"/>
-      <c r="C174" s="6"/>
-    </row>
-    <row r="175" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B175" s="6"/>
-      <c r="C175" s="6"/>
-    </row>
-    <row r="176" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B176" s="6"/>
-      <c r="C176" s="6"/>
-    </row>
-    <row r="177" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B177" s="6"/>
-      <c r="C177" s="6"/>
-    </row>
-    <row r="178" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B178" s="6"/>
-      <c r="C178" s="6"/>
-    </row>
-    <row r="179" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B179" s="6"/>
-      <c r="C179" s="6"/>
-    </row>
-    <row r="180" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
-    </row>
-    <row r="181" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B181" s="6"/>
-      <c r="C181" s="6"/>
-    </row>
-    <row r="182" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B182" s="6"/>
-      <c r="C182" s="6"/>
-    </row>
-    <row r="183" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B183" s="6"/>
-      <c r="C183" s="6"/>
-    </row>
-    <row r="184" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
-    </row>
-    <row r="185" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B185" s="6"/>
-      <c r="C185" s="6"/>
-    </row>
-    <row r="186" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
-    </row>
-    <row r="187" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B187" s="6"/>
-      <c r="C187" s="6"/>
-    </row>
-    <row r="188" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B188" s="6"/>
-      <c r="C188" s="6"/>
-    </row>
-    <row r="189" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B189" s="6"/>
-      <c r="C189" s="6"/>
-    </row>
-    <row r="190" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B190" s="6"/>
-      <c r="C190" s="6"/>
-    </row>
-    <row r="191" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B191" s="6"/>
-      <c r="C191" s="6"/>
-    </row>
-    <row r="192" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B192" s="6"/>
-      <c r="C192" s="6"/>
-    </row>
-    <row r="193" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B193" s="6"/>
-      <c r="C193" s="6"/>
-    </row>
-    <row r="194" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B194" s="6"/>
-      <c r="C194" s="6"/>
-    </row>
-    <row r="195" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B195" s="6"/>
-      <c r="C195" s="6"/>
-    </row>
-    <row r="196" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B196" s="6"/>
-      <c r="C196" s="6"/>
-    </row>
-    <row r="197" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B197" s="6"/>
-      <c r="C197" s="6"/>
-    </row>
-    <row r="198" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B198" s="6"/>
-      <c r="C198" s="6"/>
-    </row>
-    <row r="199" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B199" s="6"/>
-      <c r="C199" s="6"/>
-    </row>
-    <row r="200" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B200" s="6"/>
-      <c r="C200" s="6"/>
-    </row>
-    <row r="201" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B201" s="6"/>
-      <c r="C201" s="6"/>
-    </row>
-    <row r="202" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B202" s="6"/>
-      <c r="C202" s="6"/>
-    </row>
-    <row r="203" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B203" s="6"/>
-      <c r="C203" s="6"/>
-    </row>
-    <row r="204" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B204" s="6"/>
-      <c r="C204" s="6"/>
-    </row>
-    <row r="205" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B205" s="6"/>
-      <c r="C205" s="6"/>
-    </row>
-    <row r="206" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B206" s="6"/>
-      <c r="C206" s="6"/>
-    </row>
-    <row r="207" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B207" s="6"/>
-      <c r="C207" s="6"/>
-    </row>
-    <row r="208" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B208" s="6"/>
-      <c r="C208" s="6"/>
-    </row>
-    <row r="209" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B209" s="6"/>
-      <c r="C209" s="6"/>
-    </row>
-    <row r="210" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B210" s="6"/>
-      <c r="C210" s="6"/>
-    </row>
-    <row r="211" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B211" s="6"/>
-      <c r="C211" s="6"/>
-    </row>
-    <row r="212" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B212" s="6"/>
-      <c r="C212" s="6"/>
-    </row>
-    <row r="213" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B213" s="6"/>
-      <c r="C213" s="6"/>
-    </row>
-    <row r="214" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B214" s="6"/>
-      <c r="C214" s="6"/>
-    </row>
-    <row r="215" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B215" s="6"/>
-      <c r="C215" s="6"/>
-    </row>
-    <row r="216" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B216" s="6"/>
-      <c r="C216" s="6"/>
-    </row>
-    <row r="217" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B217" s="6"/>
-      <c r="C217" s="6"/>
-    </row>
-    <row r="218" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B218" s="6"/>
-      <c r="C218" s="6"/>
-    </row>
-    <row r="219" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B219" s="6"/>
-      <c r="C219" s="6"/>
-    </row>
-    <row r="220" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B220" s="6"/>
-      <c r="C220" s="6"/>
-    </row>
-    <row r="221" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B221" s="6"/>
-      <c r="C221" s="6"/>
-    </row>
-    <row r="222" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B222" s="6"/>
-      <c r="C222" s="6"/>
-    </row>
-    <row r="223" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B223" s="6"/>
-      <c r="C223" s="6"/>
-    </row>
-    <row r="224" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B224" s="6"/>
-      <c r="C224" s="6"/>
-    </row>
-    <row r="225" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B225" s="6"/>
-      <c r="C225" s="6"/>
-    </row>
-    <row r="226" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B226" s="6"/>
-      <c r="C226" s="6"/>
-    </row>
-    <row r="227" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B227" s="6"/>
-      <c r="C227" s="6"/>
-    </row>
-    <row r="228" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B228" s="6"/>
-      <c r="C228" s="6"/>
-    </row>
-    <row r="229" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B229" s="6"/>
-      <c r="C229" s="6"/>
-    </row>
-    <row r="230" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B230" s="6"/>
-      <c r="C230" s="6"/>
-    </row>
-    <row r="231" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B231" s="6"/>
-      <c r="C231" s="6"/>
-    </row>
-    <row r="232" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B232" s="6"/>
-      <c r="C232" s="6"/>
-    </row>
-    <row r="233" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B233" s="6"/>
-      <c r="C233" s="6"/>
-    </row>
-    <row r="234" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B234" s="6"/>
-      <c r="C234" s="6"/>
-    </row>
-    <row r="235" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B235" s="6"/>
-      <c r="C235" s="6"/>
-    </row>
-    <row r="236" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B236" s="6"/>
-      <c r="C236" s="6"/>
-    </row>
-    <row r="237" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B237" s="6"/>
-      <c r="C237" s="6"/>
-    </row>
-    <row r="238" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B238" s="6"/>
-      <c r="C238" s="6"/>
-    </row>
-    <row r="239" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B239" s="6"/>
-      <c r="C239" s="6"/>
-    </row>
-    <row r="240" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B240" s="6"/>
-      <c r="C240" s="6"/>
-    </row>
-    <row r="241" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B241" s="6"/>
-      <c r="C241" s="6"/>
-    </row>
-    <row r="242" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B242" s="6"/>
-      <c r="C242" s="6"/>
-    </row>
-    <row r="243" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B243" s="6"/>
-      <c r="C243" s="6"/>
-    </row>
-    <row r="244" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B244" s="6"/>
-      <c r="C244" s="6"/>
-    </row>
-    <row r="245" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B245" s="6"/>
-      <c r="C245" s="6"/>
-    </row>
-    <row r="246" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B246" s="6"/>
-      <c r="C246" s="6"/>
-    </row>
-    <row r="247" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B247" s="6"/>
-      <c r="C247" s="6"/>
-    </row>
-    <row r="248" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B248" s="6"/>
-      <c r="C248" s="6"/>
-    </row>
-    <row r="249" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B249" s="6"/>
-      <c r="C249" s="6"/>
-    </row>
-    <row r="250" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B250" s="6"/>
-      <c r="C250" s="6"/>
-    </row>
-    <row r="251" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B251" s="6"/>
-      <c r="C251" s="6"/>
-    </row>
-    <row r="252" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B252" s="6"/>
-      <c r="C252" s="6"/>
-    </row>
-    <row r="253" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B253" s="6"/>
-      <c r="C253" s="6"/>
-    </row>
-    <row r="254" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B254" s="6"/>
-      <c r="C254" s="6"/>
-    </row>
-    <row r="255" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B255" s="6"/>
-      <c r="C255" s="6"/>
-    </row>
-    <row r="256" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B256" s="6"/>
-      <c r="C256" s="6"/>
-    </row>
-    <row r="257" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B257" s="6"/>
-      <c r="C257" s="6"/>
-    </row>
-    <row r="258" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B258" s="6"/>
-      <c r="C258" s="6"/>
-    </row>
-    <row r="259" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B259" s="6"/>
-      <c r="C259" s="6"/>
-    </row>
-    <row r="260" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B260" s="6"/>
-      <c r="C260" s="6"/>
-    </row>
-    <row r="261" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B261" s="6"/>
-      <c r="C261" s="6"/>
-    </row>
-    <row r="262" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B262" s="6"/>
-      <c r="C262" s="6"/>
-    </row>
-    <row r="263" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B263" s="6"/>
-      <c r="C263" s="6"/>
-    </row>
-    <row r="264" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B264" s="6"/>
-      <c r="C264" s="6"/>
-    </row>
-    <row r="265" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B265" s="6"/>
-      <c r="C265" s="6"/>
-    </row>
-    <row r="266" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B266" s="6"/>
-      <c r="C266" s="6"/>
-    </row>
-    <row r="267" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B267" s="6"/>
-      <c r="C267" s="6"/>
-    </row>
-    <row r="268" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B268" s="6"/>
-      <c r="C268" s="6"/>
-    </row>
-    <row r="269" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B269" s="6"/>
-      <c r="C269" s="6"/>
-    </row>
-    <row r="270" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B270" s="6"/>
-      <c r="C270" s="6"/>
-    </row>
-    <row r="271" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B271" s="6"/>
-      <c r="C271" s="6"/>
-    </row>
-    <row r="272" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B272" s="6"/>
-      <c r="C272" s="6"/>
-    </row>
-    <row r="273" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B273" s="6"/>
-      <c r="C273" s="6"/>
-    </row>
-    <row r="274" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B274" s="6"/>
-      <c r="C274" s="6"/>
-    </row>
-    <row r="275" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B275" s="6"/>
-      <c r="C275" s="6"/>
-    </row>
-    <row r="276" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B276" s="6"/>
-      <c r="C276" s="6"/>
-    </row>
-    <row r="277" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B277" s="6"/>
-      <c r="C277" s="6"/>
-    </row>
-    <row r="278" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B278" s="6"/>
-      <c r="C278" s="6"/>
-    </row>
-    <row r="279" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B279" s="6"/>
-      <c r="C279" s="6"/>
-    </row>
-    <row r="280" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B280" s="6"/>
-      <c r="C280" s="6"/>
-    </row>
-    <row r="281" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B281" s="6"/>
-      <c r="C281" s="6"/>
-    </row>
-    <row r="282" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B282" s="6"/>
-      <c r="C282" s="6"/>
-    </row>
-    <row r="283" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B283" s="6"/>
-      <c r="C283" s="6"/>
-    </row>
-    <row r="284" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B284" s="6"/>
-      <c r="C284" s="6"/>
-    </row>
-    <row r="285" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B285" s="6"/>
-      <c r="C285" s="6"/>
-    </row>
-    <row r="286" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B286" s="6"/>
-      <c r="C286" s="6"/>
-    </row>
-    <row r="287" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B287" s="6"/>
-      <c r="C287" s="6"/>
-    </row>
-    <row r="288" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B288" s="6"/>
-      <c r="C288" s="6"/>
-    </row>
-    <row r="289" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B289" s="6"/>
-      <c r="C289" s="6"/>
-    </row>
-    <row r="290" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B290" s="6"/>
-      <c r="C290" s="6"/>
-    </row>
-    <row r="291" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B291" s="6"/>
-      <c r="C291" s="6"/>
-    </row>
-    <row r="292" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B292" s="6"/>
-      <c r="C292" s="6"/>
-    </row>
-    <row r="293" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B293" s="6"/>
-      <c r="C293" s="6"/>
-    </row>
-    <row r="294" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B294" s="6"/>
-      <c r="C294" s="6"/>
-    </row>
-    <row r="295" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B295" s="6"/>
-      <c r="C295" s="6"/>
-    </row>
-    <row r="296" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B296" s="6"/>
-      <c r="C296" s="6"/>
-    </row>
-    <row r="297" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B297" s="6"/>
-      <c r="C297" s="6"/>
-    </row>
-    <row r="298" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B298" s="6"/>
-      <c r="C298" s="6"/>
-    </row>
-    <row r="299" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B299" s="6"/>
-      <c r="C299" s="6"/>
-    </row>
-    <row r="300" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B300" s="6"/>
-      <c r="C300" s="6"/>
-    </row>
-    <row r="301" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B301" s="6"/>
-      <c r="C301" s="6"/>
-    </row>
-    <row r="302" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B302" s="6"/>
-      <c r="C302" s="6"/>
-    </row>
-    <row r="303" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B303" s="6"/>
-      <c r="C303" s="6"/>
-    </row>
-    <row r="304" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B304" s="6"/>
-      <c r="C304" s="6"/>
-    </row>
-    <row r="305" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B305" s="6"/>
-      <c r="C305" s="6"/>
-    </row>
-    <row r="306" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B306" s="6"/>
-      <c r="C306" s="6"/>
-    </row>
-    <row r="307" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B307" s="6"/>
-      <c r="C307" s="6"/>
-    </row>
-    <row r="308" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B308" s="6"/>
-      <c r="C308" s="6"/>
-    </row>
-    <row r="309" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B309" s="6"/>
-      <c r="C309" s="6"/>
-    </row>
-    <row r="310" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B310" s="6"/>
-      <c r="C310" s="6"/>
-    </row>
-    <row r="311" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B311" s="6"/>
-      <c r="C311" s="6"/>
-    </row>
-    <row r="312" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B312" s="6"/>
-      <c r="C312" s="6"/>
-    </row>
-    <row r="313" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B313" s="6"/>
-      <c r="C313" s="6"/>
-    </row>
-    <row r="314" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B314" s="6"/>
-      <c r="C314" s="6"/>
-    </row>
-    <row r="315" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B315" s="6"/>
-      <c r="C315" s="6"/>
-    </row>
-    <row r="316" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B316" s="6"/>
-      <c r="C316" s="6"/>
-    </row>
-    <row r="317" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B317" s="6"/>
-      <c r="C317" s="6"/>
-    </row>
-    <row r="318" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B318" s="6"/>
-      <c r="C318" s="6"/>
-    </row>
-    <row r="319" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B319" s="6"/>
-      <c r="C319" s="6"/>
-    </row>
-    <row r="320" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B320" s="6"/>
-      <c r="C320" s="6"/>
-    </row>
-    <row r="321" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B321" s="6"/>
-      <c r="C321" s="6"/>
-    </row>
-    <row r="322" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B322" s="6"/>
-      <c r="C322" s="6"/>
-    </row>
-    <row r="323" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B323" s="6"/>
-      <c r="C323" s="6"/>
-    </row>
-    <row r="324" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B324" s="6"/>
-      <c r="C324" s="6"/>
-    </row>
-    <row r="325" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B325" s="6"/>
-      <c r="C325" s="6"/>
-    </row>
-    <row r="326" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B326" s="6"/>
-      <c r="C326" s="6"/>
-    </row>
-    <row r="327" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B327" s="6"/>
-      <c r="C327" s="6"/>
-    </row>
-    <row r="328" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B328" s="6"/>
-      <c r="C328" s="6"/>
-    </row>
-    <row r="329" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B329" s="6"/>
-      <c r="C329" s="6"/>
-    </row>
-    <row r="330" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B330" s="6"/>
-      <c r="C330" s="6"/>
-    </row>
-    <row r="331" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B331" s="6"/>
-      <c r="C331" s="6"/>
-    </row>
-    <row r="332" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B332" s="6"/>
-      <c r="C332" s="6"/>
-    </row>
-    <row r="333" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B333" s="6"/>
-      <c r="C333" s="6"/>
-    </row>
-    <row r="334" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B334" s="6"/>
-      <c r="C334" s="6"/>
-    </row>
-    <row r="335" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B335" s="6"/>
-      <c r="C335" s="6"/>
-    </row>
-    <row r="336" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B336" s="6"/>
-      <c r="C336" s="6"/>
-    </row>
-    <row r="337" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B337" s="6"/>
-      <c r="C337" s="6"/>
-    </row>
-    <row r="338" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B338" s="6"/>
-      <c r="C338" s="6"/>
-    </row>
-    <row r="339" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B339" s="6"/>
-      <c r="C339" s="6"/>
-    </row>
-    <row r="340" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B340" s="6"/>
-      <c r="C340" s="6"/>
-    </row>
-    <row r="341" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B341" s="6"/>
-      <c r="C341" s="6"/>
-    </row>
-    <row r="342" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B342" s="6"/>
-      <c r="C342" s="6"/>
-    </row>
-    <row r="343" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B343" s="6"/>
-      <c r="C343" s="6"/>
-    </row>
-    <row r="344" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B344" s="6"/>
-      <c r="C344" s="6"/>
-    </row>
-    <row r="345" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B345" s="6"/>
-      <c r="C345" s="6"/>
-    </row>
-    <row r="346" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B346" s="6"/>
-      <c r="C346" s="6"/>
-    </row>
-    <row r="347" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B347" s="6"/>
-      <c r="C347" s="6"/>
-    </row>
-    <row r="348" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B348" s="6"/>
-      <c r="C348" s="6"/>
-    </row>
-    <row r="349" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B349" s="6"/>
-      <c r="C349" s="6"/>
-    </row>
-    <row r="350" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B350" s="6"/>
-      <c r="C350" s="6"/>
-    </row>
-    <row r="351" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B351" s="6"/>
-      <c r="C351" s="6"/>
-    </row>
-    <row r="352" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B352" s="6"/>
-      <c r="C352" s="6"/>
-    </row>
-    <row r="353" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="353" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B353" s="6"/>
-      <c r="C353" s="6"/>
-    </row>
-    <row r="354" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B354" s="6"/>
-      <c r="C354" s="6"/>
-    </row>
-    <row r="355" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B355" s="6"/>
-      <c r="C355" s="6"/>
-    </row>
-    <row r="356" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B356" s="6"/>
-      <c r="C356" s="6"/>
-    </row>
-    <row r="357" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B357" s="6"/>
-      <c r="C357" s="6"/>
-    </row>
-    <row r="358" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B358" s="6"/>
-      <c r="C358" s="6"/>
-    </row>
-    <row r="359" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="359" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B359" s="6"/>
-      <c r="C359" s="6"/>
-    </row>
-    <row r="360" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B360" s="6"/>
-      <c r="C360" s="6"/>
-    </row>
-    <row r="361" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="361" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B361" s="6"/>
-      <c r="C361" s="6"/>
-    </row>
-    <row r="362" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B362" s="6"/>
-      <c r="C362" s="6"/>
-    </row>
-    <row r="363" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="363" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B363" s="6"/>
-      <c r="C363" s="6"/>
-    </row>
-    <row r="364" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="364" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B364" s="6"/>
-      <c r="C364" s="6"/>
-    </row>
-    <row r="365" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="365" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B365" s="6"/>
-      <c r="C365" s="6"/>
-    </row>
-    <row r="366" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B366" s="6"/>
-      <c r="C366" s="6"/>
-    </row>
-    <row r="367" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="367" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B367" s="6"/>
-      <c r="C367" s="6"/>
-    </row>
-    <row r="368" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="368" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B368" s="6"/>
-      <c r="C368" s="6"/>
-    </row>
-    <row r="369" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="369" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B369" s="6"/>
-      <c r="C369" s="6"/>
-    </row>
-    <row r="370" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="370" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B370" s="6"/>
-      <c r="C370" s="6"/>
-    </row>
-    <row r="371" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="371" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B371" s="6"/>
-      <c r="C371" s="6"/>
-    </row>
-    <row r="372" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="372" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B372" s="6"/>
-      <c r="C372" s="6"/>
-    </row>
-    <row r="373" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="373" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B373" s="6"/>
-      <c r="C373" s="6"/>
-    </row>
-    <row r="374" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="374" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B374" s="6"/>
-      <c r="C374" s="6"/>
-    </row>
-    <row r="375" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="375" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B375" s="6"/>
-      <c r="C375" s="6"/>
-    </row>
-    <row r="376" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="376" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B376" s="6"/>
-      <c r="C376" s="6"/>
-    </row>
-    <row r="377" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="377" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B377" s="6"/>
-      <c r="C377" s="6"/>
-    </row>
-    <row r="378" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="378" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B378" s="6"/>
-      <c r="C378" s="6"/>
-    </row>
-    <row r="379" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="379" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B379" s="6"/>
-      <c r="C379" s="6"/>
-    </row>
-    <row r="380" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="380" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B380" s="6"/>
-      <c r="C380" s="6"/>
-    </row>
-    <row r="381" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="381" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B381" s="6"/>
-      <c r="C381" s="6"/>
-    </row>
-    <row r="382" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="382" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B382" s="6"/>
-      <c r="C382" s="6"/>
-    </row>
-    <row r="383" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="383" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B383" s="6"/>
-      <c r="C383" s="6"/>
-    </row>
-    <row r="384" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="384" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B384" s="6"/>
-      <c r="C384" s="6"/>
-    </row>
-    <row r="385" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="385" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B385" s="6"/>
-      <c r="C385" s="6"/>
-    </row>
-    <row r="386" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="386" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B386" s="6"/>
-      <c r="C386" s="6"/>
-    </row>
-    <row r="387" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="387" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B387" s="6"/>
-      <c r="C387" s="6"/>
-    </row>
-    <row r="388" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="388" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B388" s="6"/>
-      <c r="C388" s="6"/>
-    </row>
-    <row r="389" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="389" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B389" s="6"/>
-      <c r="C389" s="6"/>
-    </row>
-    <row r="390" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="390" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B390" s="6"/>
-      <c r="C390" s="6"/>
-    </row>
-    <row r="391" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="391" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B391" s="6"/>
-      <c r="C391" s="6"/>
-    </row>
-    <row r="392" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="392" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B392" s="6"/>
-      <c r="C392" s="6"/>
-    </row>
-    <row r="393" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="393" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B393" s="6"/>
-      <c r="C393" s="6"/>
-    </row>
-    <row r="394" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="394" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B394" s="6"/>
-      <c r="C394" s="6"/>
-    </row>
-    <row r="395" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="395" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B395" s="6"/>
-      <c r="C395" s="6"/>
-    </row>
-    <row r="396" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="396" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B396" s="6"/>
-      <c r="C396" s="6"/>
-    </row>
-    <row r="397" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="397" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B397" s="6"/>
-      <c r="C397" s="6"/>
-    </row>
-    <row r="398" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="398" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B398" s="6"/>
-      <c r="C398" s="6"/>
-    </row>
-    <row r="399" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="399" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B399" s="6"/>
-      <c r="C399" s="6"/>
-    </row>
-    <row r="400" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="400" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B400" s="6"/>
-      <c r="C400" s="6"/>
-    </row>
-    <row r="401" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="401" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B401" s="6"/>
-      <c r="C401" s="6"/>
-    </row>
-    <row r="402" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="402" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B402" s="6"/>
-      <c r="C402" s="6"/>
-    </row>
-    <row r="403" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="403" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B403" s="6"/>
-      <c r="C403" s="6"/>
-    </row>
-    <row r="404" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="404" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B404" s="6"/>
-      <c r="C404" s="6"/>
-    </row>
-    <row r="405" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="405" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B405" s="6"/>
-      <c r="C405" s="6"/>
-    </row>
-    <row r="406" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="406" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B406" s="6"/>
-      <c r="C406" s="6"/>
-    </row>
-    <row r="407" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="407" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B407" s="6"/>
-      <c r="C407" s="6"/>
-    </row>
-    <row r="408" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="408" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B408" s="6"/>
-      <c r="C408" s="6"/>
-    </row>
-    <row r="409" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="409" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B409" s="6"/>
-      <c r="C409" s="6"/>
-    </row>
-    <row r="410" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="410" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B410" s="6"/>
-      <c r="C410" s="6"/>
-    </row>
-    <row r="411" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="411" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B411" s="6"/>
-      <c r="C411" s="6"/>
-    </row>
-    <row r="412" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="412" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B412" s="6"/>
-      <c r="C412" s="6"/>
-    </row>
-    <row r="413" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="413" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B413" s="6"/>
-      <c r="C413" s="6"/>
-    </row>
-    <row r="414" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B414" s="6"/>
-      <c r="C414" s="6"/>
-    </row>
-    <row r="415" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="415" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B415" s="6"/>
-      <c r="C415" s="6"/>
-    </row>
-    <row r="416" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="416" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B416" s="6"/>
-      <c r="C416" s="6"/>
-    </row>
-    <row r="417" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B417" s="6"/>
-      <c r="C417" s="6"/>
-    </row>
-    <row r="418" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B418" s="6"/>
-      <c r="C418" s="6"/>
-    </row>
-    <row r="419" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B419" s="6"/>
-      <c r="C419" s="6"/>
-    </row>
-    <row r="420" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="420" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B420" s="6"/>
-      <c r="C420" s="6"/>
-    </row>
-    <row r="421" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="421" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B421" s="6"/>
-      <c r="C421" s="6"/>
-    </row>
-    <row r="422" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="422" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B422" s="6"/>
-      <c r="C422" s="6"/>
-    </row>
-    <row r="423" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="423" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B423" s="6"/>
-      <c r="C423" s="6"/>
-    </row>
-    <row r="424" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="424" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B424" s="6"/>
-      <c r="C424" s="6"/>
-    </row>
-    <row r="425" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="425" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B425" s="6"/>
-      <c r="C425" s="6"/>
-    </row>
-    <row r="426" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="426" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B426" s="6"/>
-      <c r="C426" s="6"/>
-    </row>
-    <row r="427" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="427" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B427" s="6"/>
-      <c r="C427" s="6"/>
-    </row>
-    <row r="428" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="428" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B428" s="6"/>
-      <c r="C428" s="6"/>
-    </row>
-    <row r="429" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B429" s="6"/>
-      <c r="C429" s="6"/>
-    </row>
-    <row r="430" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B430" s="6"/>
-      <c r="C430" s="6"/>
-    </row>
-    <row r="431" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B431" s="6"/>
-      <c r="C431" s="6"/>
-    </row>
-    <row r="432" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B432" s="6"/>
-      <c r="C432" s="6"/>
-    </row>
-    <row r="433" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B433" s="6"/>
-      <c r="C433" s="6"/>
-    </row>
-    <row r="434" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="434" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B434" s="6"/>
-      <c r="C434" s="6"/>
-    </row>
-    <row r="435" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="435" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B435" s="6"/>
-      <c r="C435" s="6"/>
-    </row>
-    <row r="436" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="436" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B436" s="6"/>
-      <c r="C436" s="6"/>
-    </row>
-    <row r="437" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="437" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B437" s="6"/>
-      <c r="C437" s="6"/>
-    </row>
-    <row r="438" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="438" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B438" s="6"/>
-      <c r="C438" s="6"/>
-    </row>
-    <row r="439" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="439" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B439" s="6"/>
-      <c r="C439" s="6"/>
-    </row>
-    <row r="440" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="440" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B440" s="6"/>
-      <c r="C440" s="6"/>
-    </row>
-    <row r="441" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="441" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B441" s="6"/>
-      <c r="C441" s="6"/>
-    </row>
-    <row r="442" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="442" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B442" s="6"/>
-      <c r="C442" s="6"/>
-    </row>
-    <row r="443" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="443" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B443" s="6"/>
-      <c r="C443" s="6"/>
-    </row>
-    <row r="444" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="444" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B444" s="6"/>
-      <c r="C444" s="6"/>
-    </row>
-    <row r="445" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="445" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B445" s="6"/>
-      <c r="C445" s="6"/>
-    </row>
-    <row r="446" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="446" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B446" s="6"/>
-      <c r="C446" s="6"/>
-    </row>
-    <row r="447" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="447" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B447" s="6"/>
-      <c r="C447" s="6"/>
-    </row>
-    <row r="448" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="448" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B448" s="6"/>
-      <c r="C448" s="6"/>
-    </row>
-    <row r="449" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="449" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B449" s="6"/>
-      <c r="C449" s="6"/>
-    </row>
-    <row r="450" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="450" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B450" s="6"/>
-      <c r="C450" s="6"/>
-    </row>
-    <row r="451" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="451" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B451" s="6"/>
-      <c r="C451" s="6"/>
-    </row>
-    <row r="452" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="452" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B452" s="6"/>
-      <c r="C452" s="6"/>
-    </row>
-    <row r="453" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="453" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B453" s="6"/>
-      <c r="C453" s="6"/>
-    </row>
-    <row r="454" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="454" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B454" s="6"/>
-      <c r="C454" s="6"/>
-    </row>
-    <row r="455" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="455" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B455" s="6"/>
-      <c r="C455" s="6"/>
-    </row>
-    <row r="456" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="456" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B456" s="6"/>
-      <c r="C456" s="6"/>
-    </row>
-    <row r="457" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="457" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B457" s="6"/>
-      <c r="C457" s="6"/>
-    </row>
-    <row r="458" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="458" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B458" s="6"/>
-      <c r="C458" s="6"/>
-    </row>
-    <row r="459" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="459" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B459" s="6"/>
-      <c r="C459" s="6"/>
-    </row>
-    <row r="460" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="460" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B460" s="6"/>
-      <c r="C460" s="6"/>
-    </row>
-    <row r="461" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="461" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B461" s="6"/>
-      <c r="C461" s="6"/>
-    </row>
-    <row r="462" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="462" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B462" s="6"/>
-      <c r="C462" s="6"/>
-    </row>
-    <row r="463" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="463" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B463" s="6"/>
-      <c r="C463" s="6"/>
-    </row>
-    <row r="464" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="464" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B464" s="6"/>
-      <c r="C464" s="6"/>
-    </row>
-    <row r="465" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="465" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B465" s="6"/>
-      <c r="C465" s="6"/>
-    </row>
-    <row r="466" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="466" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B466" s="6"/>
-      <c r="C466" s="6"/>
-    </row>
-    <row r="467" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="467" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B467" s="6"/>
-      <c r="C467" s="6"/>
-    </row>
-    <row r="468" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="468" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B468" s="6"/>
-      <c r="C468" s="6"/>
-    </row>
-    <row r="469" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="469" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B469" s="6"/>
-      <c r="C469" s="6"/>
-    </row>
-    <row r="470" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="470" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B470" s="6"/>
-      <c r="C470" s="6"/>
-    </row>
-    <row r="471" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="471" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B471" s="6"/>
-      <c r="C471" s="6"/>
-    </row>
-    <row r="472" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="472" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B472" s="6"/>
-      <c r="C472" s="6"/>
-    </row>
-    <row r="473" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="473" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B473" s="6"/>
-      <c r="C473" s="6"/>
-    </row>
-    <row r="474" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="474" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B474" s="6"/>
-      <c r="C474" s="6"/>
-    </row>
-    <row r="475" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="475" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B475" s="6"/>
-      <c r="C475" s="6"/>
-    </row>
-    <row r="476" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="476" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B476" s="6"/>
-      <c r="C476" s="6"/>
-    </row>
-    <row r="477" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="477" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B477" s="6"/>
-      <c r="C477" s="6"/>
-    </row>
-    <row r="478" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="478" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B478" s="6"/>
-      <c r="C478" s="6"/>
-    </row>
-    <row r="479" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="479" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B479" s="6"/>
-      <c r="C479" s="6"/>
-    </row>
-    <row r="480" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="480" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B480" s="6"/>
-      <c r="C480" s="6"/>
-    </row>
-    <row r="481" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="481" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B481" s="6"/>
-      <c r="C481" s="6"/>
-    </row>
-    <row r="482" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="482" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B482" s="6"/>
-      <c r="C482" s="6"/>
-    </row>
-    <row r="483" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="483" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B483" s="6"/>
-      <c r="C483" s="6"/>
-    </row>
-    <row r="484" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="484" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B484" s="6"/>
-      <c r="C484" s="6"/>
-    </row>
-    <row r="485" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="485" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B485" s="6"/>
-      <c r="C485" s="6"/>
-    </row>
-    <row r="486" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="486" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B486" s="6"/>
-      <c r="C486" s="6"/>
-    </row>
-    <row r="487" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="487" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B487" s="6"/>
-      <c r="C487" s="6"/>
-    </row>
-    <row r="488" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="488" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B488" s="6"/>
-      <c r="C488" s="6"/>
-    </row>
-    <row r="489" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="489" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B489" s="6"/>
-      <c r="C489" s="6"/>
-    </row>
-    <row r="490" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="490" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B490" s="6"/>
-      <c r="C490" s="6"/>
-    </row>
-    <row r="491" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="491" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B491" s="6"/>
-      <c r="C491" s="6"/>
-    </row>
-    <row r="492" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="492" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B492" s="6"/>
-      <c r="C492" s="6"/>
-    </row>
-    <row r="493" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="493" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B493" s="6"/>
-      <c r="C493" s="6"/>
-    </row>
-    <row r="494" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="494" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B494" s="6"/>
-      <c r="C494" s="6"/>
-    </row>
-    <row r="495" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="495" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B495" s="6"/>
-      <c r="C495" s="6"/>
-    </row>
-    <row r="496" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="496" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B496" s="6"/>
-      <c r="C496" s="6"/>
-    </row>
-    <row r="497" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="497" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B497" s="6"/>
-      <c r="C497" s="6"/>
-    </row>
-    <row r="498" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="498" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B498" s="6"/>
-      <c r="C498" s="6"/>
-    </row>
-    <row r="499" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="499" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B499" s="6"/>
-      <c r="C499" s="6"/>
-    </row>
-    <row r="500" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="500" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B500" s="6"/>
-      <c r="C500" s="6"/>
-    </row>
-    <row r="501" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="501" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B501" s="6"/>
-      <c r="C501" s="6"/>
-    </row>
-    <row r="502" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="502" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B502" s="6"/>
-      <c r="C502" s="6"/>
-    </row>
-    <row r="503" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="503" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B503" s="6"/>
-      <c r="C503" s="6"/>
-    </row>
-    <row r="504" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="504" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B504" s="6"/>
-      <c r="C504" s="6"/>
-    </row>
-    <row r="505" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="505" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B505" s="6"/>
-      <c r="C505" s="6"/>
-    </row>
-    <row r="506" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="506" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B506" s="6"/>
-      <c r="C506" s="6"/>
-    </row>
-    <row r="507" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="507" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B507" s="6"/>
-      <c r="C507" s="6"/>
-    </row>
-    <row r="508" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="508" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B508" s="6"/>
-      <c r="C508" s="6"/>
-    </row>
-    <row r="509" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="509" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B509" s="6"/>
-      <c r="C509" s="6"/>
-    </row>
-    <row r="510" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="510" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B510" s="6"/>
-      <c r="C510" s="6"/>
-    </row>
-    <row r="511" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="511" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B511" s="6"/>
-      <c r="C511" s="6"/>
-    </row>
-    <row r="512" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="512" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B512" s="6"/>
-      <c r="C512" s="6"/>
-    </row>
-    <row r="513" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="513" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B513" s="6"/>
-      <c r="C513" s="6"/>
-    </row>
-    <row r="514" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="514" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B514" s="6"/>
-      <c r="C514" s="6"/>
-    </row>
-    <row r="515" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="515" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B515" s="6"/>
-      <c r="C515" s="6"/>
-    </row>
-    <row r="516" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="516" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B516" s="6"/>
-      <c r="C516" s="6"/>
-    </row>
-    <row r="517" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="517" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B517" s="6"/>
-      <c r="C517" s="6"/>
-    </row>
-    <row r="518" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="518" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B518" s="6"/>
-      <c r="C518" s="6"/>
-    </row>
-    <row r="519" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="519" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B519" s="6"/>
-      <c r="C519" s="6"/>
-    </row>
-    <row r="520" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="520" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B520" s="6"/>
-      <c r="C520" s="6"/>
-    </row>
-    <row r="521" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="521" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B521" s="6"/>
-      <c r="C521" s="6"/>
-    </row>
-    <row r="522" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="522" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B522" s="6"/>
-      <c r="C522" s="6"/>
-    </row>
-    <row r="523" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="523" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B523" s="6"/>
-      <c r="C523" s="6"/>
-    </row>
-    <row r="524" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="524" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B524" s="6"/>
-      <c r="C524" s="6"/>
-    </row>
-    <row r="525" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="525" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B525" s="6"/>
-      <c r="C525" s="6"/>
-    </row>
-    <row r="526" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="526" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B526" s="6"/>
-      <c r="C526" s="6"/>
-    </row>
-    <row r="527" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="527" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B527" s="6"/>
-      <c r="C527" s="6"/>
-    </row>
-    <row r="528" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="528" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B528" s="6"/>
-      <c r="C528" s="6"/>
-    </row>
-    <row r="529" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="529" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B529" s="6"/>
-      <c r="C529" s="6"/>
-    </row>
-    <row r="530" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="530" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B530" s="6"/>
-      <c r="C530" s="6"/>
-    </row>
-    <row r="531" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="531" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B531" s="6"/>
-      <c r="C531" s="6"/>
-    </row>
-    <row r="532" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="532" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B532" s="6"/>
-      <c r="C532" s="6"/>
-    </row>
-    <row r="533" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="533" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B533" s="6"/>
-      <c r="C533" s="6"/>
-    </row>
-    <row r="534" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="534" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B534" s="6"/>
-      <c r="C534" s="6"/>
-    </row>
-    <row r="535" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="535" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B535" s="6"/>
-      <c r="C535" s="6"/>
-    </row>
-    <row r="536" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="536" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B536" s="6"/>
-      <c r="C536" s="6"/>
-    </row>
-    <row r="537" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="537" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B537" s="6"/>
-      <c r="C537" s="6"/>
-    </row>
-    <row r="538" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="538" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B538" s="6"/>
-      <c r="C538" s="6"/>
-    </row>
-    <row r="539" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="539" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B539" s="6"/>
-      <c r="C539" s="6"/>
-    </row>
-    <row r="540" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="540" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B540" s="6"/>
-      <c r="C540" s="6"/>
-    </row>
-    <row r="541" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="541" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B541" s="6"/>
-      <c r="C541" s="6"/>
-    </row>
-    <row r="542" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="542" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B542" s="6"/>
-      <c r="C542" s="6"/>
-    </row>
-    <row r="543" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="543" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B543" s="6"/>
-      <c r="C543" s="6"/>
-    </row>
-    <row r="544" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="544" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B544" s="6"/>
-      <c r="C544" s="6"/>
-    </row>
-    <row r="545" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="545" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B545" s="6"/>
-      <c r="C545" s="6"/>
-    </row>
-    <row r="546" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="546" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B546" s="6"/>
-      <c r="C546" s="6"/>
-    </row>
-    <row r="547" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="547" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B547" s="6"/>
-      <c r="C547" s="6"/>
-    </row>
-    <row r="548" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="548" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B548" s="6"/>
-      <c r="C548" s="6"/>
-    </row>
-    <row r="549" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="549" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B549" s="6"/>
-      <c r="C549" s="6"/>
-    </row>
-    <row r="550" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="550" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B550" s="6"/>
-      <c r="C550" s="6"/>
-    </row>
-    <row r="551" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="551" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B551" s="6"/>
-      <c r="C551" s="6"/>
-    </row>
-    <row r="552" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="552" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B552" s="6"/>
-      <c r="C552" s="6"/>
-    </row>
-    <row r="553" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="553" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B553" s="6"/>
-      <c r="C553" s="6"/>
-    </row>
-    <row r="554" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="554" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B554" s="6"/>
-      <c r="C554" s="6"/>
-    </row>
-    <row r="555" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="555" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B555" s="6"/>
-      <c r="C555" s="6"/>
-    </row>
-    <row r="556" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="556" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B556" s="6"/>
-      <c r="C556" s="6"/>
-    </row>
-    <row r="557" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="557" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B557" s="6"/>
-      <c r="C557" s="6"/>
-    </row>
-    <row r="558" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="558" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B558" s="6"/>
-      <c r="C558" s="6"/>
-    </row>
-    <row r="559" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="559" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B559" s="6"/>
-      <c r="C559" s="6"/>
-    </row>
-    <row r="560" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="560" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B560" s="6"/>
-      <c r="C560" s="6"/>
-    </row>
-    <row r="561" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="561" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B561" s="6"/>
-      <c r="C561" s="6"/>
-    </row>
-    <row r="562" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="562" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B562" s="6"/>
-      <c r="C562" s="6"/>
-    </row>
-    <row r="563" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="563" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B563" s="6"/>
-      <c r="C563" s="6"/>
-    </row>
-    <row r="564" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="564" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B564" s="6"/>
-      <c r="C564" s="6"/>
-    </row>
-    <row r="565" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="565" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B565" s="6"/>
-      <c r="C565" s="6"/>
-    </row>
-    <row r="566" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="566" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B566" s="6"/>
-      <c r="C566" s="6"/>
-    </row>
-    <row r="567" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="567" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B567" s="6"/>
-      <c r="C567" s="6"/>
-    </row>
-    <row r="568" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="568" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B568" s="6"/>
-      <c r="C568" s="6"/>
-    </row>
-    <row r="569" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="569" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B569" s="6"/>
-      <c r="C569" s="6"/>
-    </row>
-    <row r="570" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="570" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B570" s="6"/>
-      <c r="C570" s="6"/>
-    </row>
-    <row r="571" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="571" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B571" s="6"/>
-      <c r="C571" s="6"/>
-    </row>
-    <row r="572" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="572" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B572" s="6"/>
-      <c r="C572" s="6"/>
-    </row>
-    <row r="573" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="573" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B573" s="6"/>
-      <c r="C573" s="6"/>
-    </row>
-    <row r="574" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="574" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B574" s="6"/>
-      <c r="C574" s="6"/>
-    </row>
-    <row r="575" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="575" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B575" s="6"/>
-      <c r="C575" s="6"/>
-    </row>
-    <row r="576" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="576" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B576" s="6"/>
-      <c r="C576" s="6"/>
-    </row>
-    <row r="577" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="577" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B577" s="6"/>
-      <c r="C577" s="6"/>
-    </row>
-    <row r="578" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="578" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B578" s="6"/>
-      <c r="C578" s="6"/>
-    </row>
-    <row r="579" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="579" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B579" s="6"/>
-      <c r="C579" s="6"/>
-    </row>
-    <row r="580" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="580" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B580" s="6"/>
-      <c r="C580" s="6"/>
-    </row>
-    <row r="581" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="581" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B581" s="6"/>
-      <c r="C581" s="6"/>
-    </row>
-    <row r="582" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="582" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B582" s="6"/>
-      <c r="C582" s="6"/>
-    </row>
-    <row r="583" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="583" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B583" s="6"/>
-      <c r="C583" s="6"/>
-    </row>
-    <row r="584" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="584" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B584" s="6"/>
-      <c r="C584" s="6"/>
-    </row>
-    <row r="585" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="585" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B585" s="6"/>
-      <c r="C585" s="6"/>
-    </row>
-    <row r="586" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="586" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B586" s="6"/>
-      <c r="C586" s="6"/>
-    </row>
-    <row r="587" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="587" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B587" s="6"/>
-      <c r="C587" s="6"/>
-    </row>
-    <row r="588" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="588" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B588" s="6"/>
-      <c r="C588" s="6"/>
-    </row>
-    <row r="589" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="589" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B589" s="6"/>
-      <c r="C589" s="6"/>
-    </row>
-    <row r="590" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="590" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B590" s="6"/>
-      <c r="C590" s="6"/>
-    </row>
-    <row r="591" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="591" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B591" s="6"/>
-      <c r="C591" s="6"/>
-    </row>
-    <row r="592" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="592" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B592" s="6"/>
-      <c r="C592" s="6"/>
-    </row>
-    <row r="593" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="593" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B593" s="6"/>
-      <c r="C593" s="6"/>
-    </row>
-    <row r="594" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="594" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B594" s="6"/>
-      <c r="C594" s="6"/>
-    </row>
-    <row r="595" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="595" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B595" s="6"/>
-      <c r="C595" s="6"/>
-    </row>
-    <row r="596" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="596" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B596" s="6"/>
-      <c r="C596" s="6"/>
-    </row>
-    <row r="597" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="597" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B597" s="6"/>
-      <c r="C597" s="6"/>
-    </row>
-    <row r="598" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="598" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B598" s="6"/>
-      <c r="C598" s="6"/>
-    </row>
-    <row r="599" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="599" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B599" s="6"/>
-      <c r="C599" s="6"/>
-    </row>
-    <row r="600" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="600" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B600" s="6"/>
-      <c r="C600" s="6"/>
-    </row>
-    <row r="601" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="601" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B601" s="6"/>
-      <c r="C601" s="6"/>
-    </row>
-    <row r="602" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="602" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B602" s="6"/>
-      <c r="C602" s="6"/>
-    </row>
-    <row r="603" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="603" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B603" s="6"/>
-      <c r="C603" s="6"/>
-    </row>
-    <row r="604" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="604" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B604" s="6"/>
-      <c r="C604" s="6"/>
-    </row>
-    <row r="605" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="605" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B605" s="6"/>
-      <c r="C605" s="6"/>
-    </row>
-    <row r="606" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="606" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B606" s="6"/>
-      <c r="C606" s="6"/>
-    </row>
-    <row r="607" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="607" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B607" s="6"/>
-      <c r="C607" s="6"/>
-    </row>
-    <row r="608" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="608" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B608" s="6"/>
-      <c r="C608" s="6"/>
-    </row>
-    <row r="609" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="609" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B609" s="6"/>
-      <c r="C609" s="6"/>
-    </row>
-    <row r="610" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="610" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B610" s="6"/>
-      <c r="C610" s="6"/>
-    </row>
-    <row r="611" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="611" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B611" s="6"/>
-      <c r="C611" s="6"/>
-    </row>
-    <row r="612" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="612" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B612" s="6"/>
-      <c r="C612" s="6"/>
-    </row>
-    <row r="613" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="613" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B613" s="6"/>
-      <c r="C613" s="6"/>
-    </row>
-    <row r="614" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="614" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B614" s="6"/>
-      <c r="C614" s="6"/>
-    </row>
-    <row r="615" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="615" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B615" s="6"/>
-      <c r="C615" s="6"/>
-    </row>
-    <row r="616" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="616" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B616" s="6"/>
-      <c r="C616" s="6"/>
-    </row>
-    <row r="617" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="617" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B617" s="6"/>
-      <c r="C617" s="6"/>
-    </row>
-    <row r="618" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="618" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B618" s="6"/>
-      <c r="C618" s="6"/>
-    </row>
-    <row r="619" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="619" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B619" s="6"/>
-      <c r="C619" s="6"/>
-    </row>
-    <row r="620" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="620" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B620" s="6"/>
-      <c r="C620" s="6"/>
-    </row>
-    <row r="621" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="621" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B621" s="6"/>
-      <c r="C621" s="6"/>
-    </row>
-    <row r="622" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="622" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B622" s="6"/>
-      <c r="C622" s="6"/>
-    </row>
-    <row r="623" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="623" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B623" s="6"/>
-      <c r="C623" s="6"/>
-    </row>
-    <row r="624" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="624" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B624" s="6"/>
-      <c r="C624" s="6"/>
-    </row>
-    <row r="625" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="625" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B625" s="6"/>
-      <c r="C625" s="6"/>
-    </row>
-    <row r="626" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="626" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B626" s="6"/>
-      <c r="C626" s="6"/>
-    </row>
-    <row r="627" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="627" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B627" s="6"/>
-      <c r="C627" s="6"/>
-    </row>
-    <row r="628" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="628" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B628" s="6"/>
-      <c r="C628" s="6"/>
-    </row>
-    <row r="629" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="629" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B629" s="6"/>
-      <c r="C629" s="6"/>
-    </row>
-    <row r="630" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="630" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B630" s="6"/>
-      <c r="C630" s="6"/>
-    </row>
-    <row r="631" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="631" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B631" s="6"/>
-      <c r="C631" s="6"/>
-    </row>
-    <row r="632" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="632" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B632" s="6"/>
-      <c r="C632" s="6"/>
-    </row>
-    <row r="633" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="633" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B633" s="6"/>
-      <c r="C633" s="6"/>
-    </row>
-    <row r="634" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="634" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B634" s="6"/>
-      <c r="C634" s="6"/>
-    </row>
-    <row r="635" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="635" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B635" s="6"/>
-      <c r="C635" s="6"/>
-    </row>
-    <row r="636" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="636" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B636" s="6"/>
-      <c r="C636" s="6"/>
-    </row>
-    <row r="637" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="637" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B637" s="6"/>
-      <c r="C637" s="6"/>
-    </row>
-    <row r="638" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="638" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B638" s="6"/>
-      <c r="C638" s="6"/>
-    </row>
-    <row r="639" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="639" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B639" s="6"/>
-      <c r="C639" s="6"/>
-    </row>
-    <row r="640" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="640" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B640" s="6"/>
-      <c r="C640" s="6"/>
-    </row>
-    <row r="641" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="641" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B641" s="6"/>
-      <c r="C641" s="6"/>
-    </row>
-    <row r="642" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="642" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B642" s="6"/>
-      <c r="C642" s="6"/>
-    </row>
-    <row r="643" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="643" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B643" s="6"/>
-      <c r="C643" s="6"/>
-    </row>
-    <row r="644" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="644" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B644" s="6"/>
-      <c r="C644" s="6"/>
-    </row>
-    <row r="645" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="645" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B645" s="6"/>
-      <c r="C645" s="6"/>
-    </row>
-    <row r="646" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="646" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B646" s="6"/>
-      <c r="C646" s="6"/>
-    </row>
-    <row r="647" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="647" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B647" s="6"/>
-      <c r="C647" s="6"/>
-    </row>
-    <row r="648" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="648" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B648" s="6"/>
-      <c r="C648" s="6"/>
-    </row>
-    <row r="649" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="649" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B649" s="6"/>
-      <c r="C649" s="6"/>
-    </row>
-    <row r="650" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="650" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B650" s="6"/>
-      <c r="C650" s="6"/>
-    </row>
-    <row r="651" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="651" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B651" s="6"/>
-      <c r="C651" s="6"/>
-    </row>
-    <row r="652" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="652" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B652" s="6"/>
-      <c r="C652" s="6"/>
-    </row>
-    <row r="653" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="653" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B653" s="6"/>
-      <c r="C653" s="6"/>
-    </row>
-    <row r="654" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="654" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B654" s="6"/>
-      <c r="C654" s="6"/>
-    </row>
-    <row r="655" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="655" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B655" s="6"/>
-      <c r="C655" s="6"/>
-    </row>
-    <row r="656" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="656" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B656" s="6"/>
-      <c r="C656" s="6"/>
-    </row>
-    <row r="657" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="657" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B657" s="6"/>
-      <c r="C657" s="6"/>
-    </row>
-    <row r="658" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="658" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B658" s="6"/>
-      <c r="C658" s="6"/>
-    </row>
-    <row r="659" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="659" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B659" s="6"/>
-      <c r="C659" s="6"/>
-    </row>
-    <row r="660" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="660" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B660" s="6"/>
-      <c r="C660" s="6"/>
-    </row>
-    <row r="661" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="661" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B661" s="6"/>
-      <c r="C661" s="6"/>
-    </row>
-    <row r="662" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="662" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B662" s="6"/>
-      <c r="C662" s="6"/>
-    </row>
-    <row r="663" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="663" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B663" s="6"/>
-      <c r="C663" s="6"/>
-    </row>
-    <row r="664" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="664" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B664" s="6"/>
-      <c r="C664" s="6"/>
-    </row>
-    <row r="665" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="665" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B665" s="6"/>
-      <c r="C665" s="6"/>
-    </row>
-    <row r="666" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="666" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B666" s="6"/>
-      <c r="C666" s="6"/>
-    </row>
-    <row r="667" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="667" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B667" s="6"/>
-      <c r="C667" s="6"/>
-    </row>
-    <row r="668" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="668" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B668" s="6"/>
-      <c r="C668" s="6"/>
-    </row>
-    <row r="669" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="669" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B669" s="6"/>
-      <c r="C669" s="6"/>
-    </row>
-    <row r="670" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="670" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B670" s="6"/>
-      <c r="C670" s="6"/>
-    </row>
-    <row r="671" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="671" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B671" s="6"/>
-      <c r="C671" s="6"/>
-    </row>
-    <row r="672" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="672" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B672" s="6"/>
-      <c r="C672" s="6"/>
-    </row>
-    <row r="673" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="673" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B673" s="6"/>
-      <c r="C673" s="6"/>
-    </row>
-    <row r="674" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="674" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B674" s="6"/>
-      <c r="C674" s="6"/>
-    </row>
-    <row r="675" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="675" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B675" s="6"/>
-      <c r="C675" s="6"/>
-    </row>
-    <row r="676" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="676" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B676" s="6"/>
-      <c r="C676" s="6"/>
-    </row>
-    <row r="677" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="677" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B677" s="6"/>
-      <c r="C677" s="6"/>
-    </row>
-    <row r="678" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="678" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B678" s="6"/>
-      <c r="C678" s="6"/>
-    </row>
-    <row r="679" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="679" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B679" s="6"/>
-      <c r="C679" s="6"/>
-    </row>
-    <row r="680" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="680" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B680" s="6"/>
-      <c r="C680" s="6"/>
-    </row>
-    <row r="681" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="681" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B681" s="6"/>
-      <c r="C681" s="6"/>
-    </row>
-    <row r="682" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="682" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B682" s="6"/>
-      <c r="C682" s="6"/>
-    </row>
-    <row r="683" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="683" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B683" s="6"/>
-      <c r="C683" s="6"/>
-    </row>
-    <row r="684" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="684" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B684" s="6"/>
-      <c r="C684" s="6"/>
-    </row>
-    <row r="685" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="685" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B685" s="6"/>
-      <c r="C685" s="6"/>
-    </row>
-    <row r="686" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="686" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B686" s="6"/>
-      <c r="C686" s="6"/>
-    </row>
-    <row r="687" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="687" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B687" s="6"/>
-      <c r="C687" s="6"/>
-    </row>
-    <row r="688" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="688" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B688" s="6"/>
-      <c r="C688" s="6"/>
-    </row>
-    <row r="689" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="689" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B689" s="6"/>
-      <c r="C689" s="6"/>
-    </row>
-    <row r="690" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="690" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B690" s="6"/>
-      <c r="C690" s="6"/>
-    </row>
-    <row r="691" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="691" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B691" s="6"/>
-      <c r="C691" s="6"/>
-    </row>
-    <row r="692" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="692" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B692" s="6"/>
-      <c r="C692" s="6"/>
-    </row>
-    <row r="693" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="693" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B693" s="6"/>
-      <c r="C693" s="6"/>
-    </row>
-    <row r="694" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="694" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B694" s="6"/>
-      <c r="C694" s="6"/>
-    </row>
-    <row r="695" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="695" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B695" s="6"/>
-      <c r="C695" s="6"/>
-    </row>
-    <row r="696" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="696" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B696" s="6"/>
-      <c r="C696" s="6"/>
-    </row>
-    <row r="697" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="697" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B697" s="6"/>
-      <c r="C697" s="6"/>
-    </row>
-    <row r="698" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="698" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B698" s="6"/>
-      <c r="C698" s="6"/>
-    </row>
-    <row r="699" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="699" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B699" s="6"/>
-      <c r="C699" s="6"/>
-    </row>
-    <row r="700" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="700" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B700" s="6"/>
-      <c r="C700" s="6"/>
-    </row>
-    <row r="701" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="701" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B701" s="6"/>
-      <c r="C701" s="6"/>
-    </row>
-    <row r="702" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="702" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B702" s="6"/>
-      <c r="C702" s="6"/>
-    </row>
-    <row r="703" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="703" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B703" s="6"/>
-      <c r="C703" s="6"/>
-    </row>
-    <row r="704" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="704" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B704" s="6"/>
-      <c r="C704" s="6"/>
-    </row>
-    <row r="705" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="705" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B705" s="6"/>
-      <c r="C705" s="6"/>
-    </row>
-    <row r="706" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="706" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B706" s="6"/>
-      <c r="C706" s="6"/>
-    </row>
-    <row r="707" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="707" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B707" s="6"/>
-      <c r="C707" s="6"/>
-    </row>
-    <row r="708" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="708" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B708" s="6"/>
-      <c r="C708" s="6"/>
-    </row>
-    <row r="709" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="709" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B709" s="6"/>
-      <c r="C709" s="6"/>
-    </row>
-    <row r="710" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="710" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B710" s="6"/>
-      <c r="C710" s="6"/>
-    </row>
-    <row r="711" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="711" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B711" s="6"/>
-      <c r="C711" s="6"/>
-    </row>
-    <row r="712" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="712" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B712" s="6"/>
-      <c r="C712" s="6"/>
-    </row>
-    <row r="713" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="713" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B713" s="6"/>
-      <c r="C713" s="6"/>
-    </row>
-    <row r="714" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="714" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B714" s="6"/>
-      <c r="C714" s="6"/>
-    </row>
-    <row r="715" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="715" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B715" s="6"/>
-      <c r="C715" s="6"/>
-    </row>
-    <row r="716" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="716" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B716" s="6"/>
-      <c r="C716" s="6"/>
-    </row>
-    <row r="717" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="717" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B717" s="6"/>
-      <c r="C717" s="6"/>
-    </row>
-    <row r="718" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="718" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B718" s="6"/>
-      <c r="C718" s="6"/>
-    </row>
-    <row r="719" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="719" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B719" s="6"/>
-      <c r="C719" s="6"/>
-    </row>
-    <row r="720" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="720" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B720" s="6"/>
-      <c r="C720" s="6"/>
-    </row>
-    <row r="721" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="721" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B721" s="6"/>
-      <c r="C721" s="6"/>
-    </row>
-    <row r="722" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="722" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B722" s="6"/>
-      <c r="C722" s="6"/>
-    </row>
-    <row r="723" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="723" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B723" s="6"/>
-      <c r="C723" s="6"/>
-    </row>
-    <row r="724" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="724" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B724" s="6"/>
-      <c r="C724" s="6"/>
-    </row>
-    <row r="725" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="725" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B725" s="6"/>
-      <c r="C725" s="6"/>
-    </row>
-    <row r="726" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="726" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B726" s="6"/>
-      <c r="C726" s="6"/>
-    </row>
-    <row r="727" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="727" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B727" s="6"/>
-      <c r="C727" s="6"/>
-    </row>
-    <row r="728" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="728" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B728" s="6"/>
-      <c r="C728" s="6"/>
-    </row>
-    <row r="729" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="729" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B729" s="6"/>
-      <c r="C729" s="6"/>
-    </row>
-    <row r="730" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="730" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B730" s="6"/>
-      <c r="C730" s="6"/>
-    </row>
-    <row r="731" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="731" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B731" s="6"/>
-      <c r="C731" s="6"/>
-    </row>
-    <row r="732" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="732" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B732" s="6"/>
-      <c r="C732" s="6"/>
-    </row>
-    <row r="733" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="733" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B733" s="6"/>
-      <c r="C733" s="6"/>
-    </row>
-    <row r="734" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="734" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B734" s="6"/>
-      <c r="C734" s="6"/>
-    </row>
-    <row r="735" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="735" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B735" s="6"/>
-      <c r="C735" s="6"/>
-    </row>
-    <row r="736" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="736" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B736" s="6"/>
-      <c r="C736" s="6"/>
-    </row>
-    <row r="737" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="737" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B737" s="6"/>
-      <c r="C737" s="6"/>
-    </row>
-    <row r="738" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="738" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B738" s="6"/>
-      <c r="C738" s="6"/>
-    </row>
-    <row r="739" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="739" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B739" s="6"/>
-      <c r="C739" s="6"/>
-    </row>
-    <row r="740" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="740" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B740" s="6"/>
-      <c r="C740" s="6"/>
-    </row>
-    <row r="741" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="741" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B741" s="6"/>
-      <c r="C741" s="6"/>
-    </row>
-    <row r="742" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="742" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B742" s="6"/>
-      <c r="C742" s="6"/>
-    </row>
-    <row r="743" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="743" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B743" s="6"/>
-      <c r="C743" s="6"/>
-    </row>
-    <row r="744" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="744" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B744" s="6"/>
-      <c r="C744" s="6"/>
-    </row>
-    <row r="745" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="745" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B745" s="6"/>
-      <c r="C745" s="6"/>
-    </row>
-    <row r="746" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="746" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B746" s="6"/>
-      <c r="C746" s="6"/>
-    </row>
-    <row r="747" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="747" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B747" s="6"/>
-      <c r="C747" s="6"/>
-    </row>
-    <row r="748" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="748" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B748" s="6"/>
-      <c r="C748" s="6"/>
-    </row>
-    <row r="749" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="749" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B749" s="6"/>
-      <c r="C749" s="6"/>
-    </row>
-    <row r="750" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="750" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B750" s="6"/>
-      <c r="C750" s="6"/>
-    </row>
-    <row r="751" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="751" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B751" s="6"/>
-      <c r="C751" s="6"/>
-    </row>
-    <row r="752" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="752" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B752" s="6"/>
-      <c r="C752" s="6"/>
-    </row>
-    <row r="753" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="753" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B753" s="6"/>
-      <c r="C753" s="6"/>
-    </row>
-    <row r="754" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="754" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B754" s="6"/>
-      <c r="C754" s="6"/>
-    </row>
-    <row r="755" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="755" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B755" s="6"/>
-      <c r="C755" s="6"/>
-    </row>
-    <row r="756" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="756" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B756" s="6"/>
-      <c r="C756" s="6"/>
-    </row>
-    <row r="757" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="757" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B757" s="6"/>
-      <c r="C757" s="6"/>
-    </row>
-    <row r="758" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="758" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B758" s="6"/>
-      <c r="C758" s="6"/>
-    </row>
-    <row r="759" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="759" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B759" s="6"/>
-      <c r="C759" s="6"/>
-    </row>
-    <row r="760" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="760" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B760" s="6"/>
-      <c r="C760" s="6"/>
-    </row>
-    <row r="761" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="761" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B761" s="6"/>
-      <c r="C761" s="6"/>
-    </row>
-    <row r="762" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="762" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B762" s="6"/>
-      <c r="C762" s="6"/>
-    </row>
-    <row r="763" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="763" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B763" s="6"/>
-      <c r="C763" s="6"/>
-    </row>
-    <row r="764" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="764" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B764" s="6"/>
-      <c r="C764" s="6"/>
-    </row>
-    <row r="765" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="765" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B765" s="6"/>
-      <c r="C765" s="6"/>
-    </row>
-    <row r="766" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="766" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B766" s="6"/>
-      <c r="C766" s="6"/>
-    </row>
-    <row r="767" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="767" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B767" s="6"/>
-      <c r="C767" s="6"/>
-    </row>
-    <row r="768" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="768" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B768" s="6"/>
-      <c r="C768" s="6"/>
-    </row>
-    <row r="769" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="769" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B769" s="6"/>
-      <c r="C769" s="6"/>
-    </row>
-    <row r="770" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="770" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B770" s="6"/>
-      <c r="C770" s="6"/>
-    </row>
-    <row r="771" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="771" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B771" s="6"/>
-      <c r="C771" s="6"/>
-    </row>
-    <row r="772" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="772" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B772" s="6"/>
-      <c r="C772" s="6"/>
-    </row>
-    <row r="773" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="773" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B773" s="6"/>
-      <c r="C773" s="6"/>
-    </row>
-    <row r="774" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="774" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B774" s="6"/>
-      <c r="C774" s="6"/>
-    </row>
-    <row r="775" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="775" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B775" s="6"/>
-      <c r="C775" s="6"/>
-    </row>
-    <row r="776" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="776" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B776" s="6"/>
-      <c r="C776" s="6"/>
-    </row>
-    <row r="777" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="777" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B777" s="6"/>
-      <c r="C777" s="6"/>
-    </row>
-    <row r="778" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="778" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B778" s="6"/>
-      <c r="C778" s="6"/>
-    </row>
-    <row r="779" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="779" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B779" s="6"/>
-      <c r="C779" s="6"/>
-    </row>
-    <row r="780" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="780" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B780" s="6"/>
-      <c r="C780" s="6"/>
-    </row>
-    <row r="781" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="781" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B781" s="6"/>
-      <c r="C781" s="6"/>
-    </row>
-    <row r="782" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="782" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B782" s="6"/>
-      <c r="C782" s="6"/>
-    </row>
-    <row r="783" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="783" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B783" s="6"/>
-      <c r="C783" s="6"/>
-    </row>
-    <row r="784" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="784" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B784" s="6"/>
-      <c r="C784" s="6"/>
-    </row>
-    <row r="785" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="785" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B785" s="6"/>
-      <c r="C785" s="6"/>
-    </row>
-    <row r="786" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="786" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B786" s="6"/>
-      <c r="C786" s="6"/>
-    </row>
-    <row r="787" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="787" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B787" s="6"/>
-      <c r="C787" s="6"/>
-    </row>
-    <row r="788" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="788" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B788" s="6"/>
-      <c r="C788" s="6"/>
-    </row>
-    <row r="789" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="789" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B789" s="6"/>
-      <c r="C789" s="6"/>
-    </row>
-    <row r="790" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="790" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B790" s="6"/>
-      <c r="C790" s="6"/>
-    </row>
-    <row r="791" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="791" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B791" s="6"/>
-      <c r="C791" s="6"/>
-    </row>
-    <row r="792" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="792" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B792" s="6"/>
-      <c r="C792" s="6"/>
-    </row>
-    <row r="793" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="793" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B793" s="6"/>
-      <c r="C793" s="6"/>
-    </row>
-    <row r="794" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="794" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B794" s="6"/>
-      <c r="C794" s="6"/>
-    </row>
-    <row r="795" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="795" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B795" s="6"/>
-      <c r="C795" s="6"/>
-    </row>
-    <row r="796" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="796" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B796" s="6"/>
-      <c r="C796" s="6"/>
-    </row>
-    <row r="797" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="797" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B797" s="6"/>
-      <c r="C797" s="6"/>
-    </row>
-    <row r="798" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="798" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B798" s="6"/>
-      <c r="C798" s="6"/>
-    </row>
-    <row r="799" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="799" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B799" s="6"/>
-      <c r="C799" s="6"/>
-    </row>
-    <row r="800" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="800" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B800" s="6"/>
-      <c r="C800" s="6"/>
-    </row>
-    <row r="801" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="801" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B801" s="6"/>
-      <c r="C801" s="6"/>
-    </row>
-    <row r="802" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="802" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B802" s="6"/>
-      <c r="C802" s="6"/>
-    </row>
-    <row r="803" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="803" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B803" s="6"/>
-      <c r="C803" s="6"/>
-    </row>
-    <row r="804" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="804" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B804" s="6"/>
-      <c r="C804" s="6"/>
-    </row>
-    <row r="805" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="805" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B805" s="6"/>
-      <c r="C805" s="6"/>
-    </row>
-    <row r="806" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="806" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B806" s="6"/>
-      <c r="C806" s="6"/>
-    </row>
-    <row r="807" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="807" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B807" s="6"/>
-      <c r="C807" s="6"/>
-    </row>
-    <row r="808" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="808" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B808" s="6"/>
-      <c r="C808" s="6"/>
-    </row>
-    <row r="809" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="809" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B809" s="6"/>
-      <c r="C809" s="6"/>
-    </row>
-    <row r="810" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="810" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B810" s="6"/>
-      <c r="C810" s="6"/>
-    </row>
-    <row r="811" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="811" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B811" s="6"/>
-      <c r="C811" s="6"/>
-    </row>
-    <row r="812" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="812" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B812" s="6"/>
-      <c r="C812" s="6"/>
-    </row>
-    <row r="813" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="813" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B813" s="6"/>
-      <c r="C813" s="6"/>
-    </row>
-    <row r="814" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="814" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B814" s="6"/>
-      <c r="C814" s="6"/>
-    </row>
-    <row r="815" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="815" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B815" s="6"/>
-      <c r="C815" s="6"/>
-    </row>
-    <row r="816" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="816" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B816" s="6"/>
-      <c r="C816" s="6"/>
-    </row>
-    <row r="817" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="817" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B817" s="6"/>
-      <c r="C817" s="6"/>
-    </row>
-    <row r="818" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="818" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B818" s="6"/>
-      <c r="C818" s="6"/>
-    </row>
-    <row r="819" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="819" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B819" s="6"/>
-      <c r="C819" s="6"/>
-    </row>
-    <row r="820" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="820" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B820" s="6"/>
-      <c r="C820" s="6"/>
-    </row>
-    <row r="821" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="821" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B821" s="6"/>
-      <c r="C821" s="6"/>
-    </row>
-    <row r="822" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="822" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B822" s="6"/>
-      <c r="C822" s="6"/>
-    </row>
-    <row r="823" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="823" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B823" s="6"/>
-      <c r="C823" s="6"/>
-    </row>
-    <row r="824" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="824" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B824" s="6"/>
-      <c r="C824" s="6"/>
-    </row>
-    <row r="825" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="825" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B825" s="6"/>
-      <c r="C825" s="6"/>
-    </row>
-    <row r="826" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="826" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B826" s="6"/>
-      <c r="C826" s="6"/>
-    </row>
-    <row r="827" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="827" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B827" s="6"/>
-      <c r="C827" s="6"/>
-    </row>
-    <row r="828" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="828" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B828" s="6"/>
-      <c r="C828" s="6"/>
-    </row>
-    <row r="829" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="829" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B829" s="6"/>
-      <c r="C829" s="6"/>
-    </row>
-    <row r="830" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="830" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B830" s="6"/>
-      <c r="C830" s="6"/>
-    </row>
-    <row r="831" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="831" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B831" s="6"/>
-      <c r="C831" s="6"/>
-    </row>
-    <row r="832" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="832" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B832" s="6"/>
-      <c r="C832" s="6"/>
-    </row>
-    <row r="833" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="833" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B833" s="6"/>
-      <c r="C833" s="6"/>
-    </row>
-    <row r="834" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="834" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B834" s="6"/>
-      <c r="C834" s="6"/>
-    </row>
-    <row r="835" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="835" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B835" s="6"/>
-      <c r="C835" s="6"/>
-    </row>
-    <row r="836" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="836" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B836" s="6"/>
-      <c r="C836" s="6"/>
-    </row>
-    <row r="837" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="837" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B837" s="6"/>
-      <c r="C837" s="6"/>
-    </row>
-    <row r="838" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="838" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B838" s="6"/>
-      <c r="C838" s="6"/>
-    </row>
-    <row r="839" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="839" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B839" s="6"/>
-      <c r="C839" s="6"/>
-    </row>
-    <row r="840" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="840" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B840" s="6"/>
-      <c r="C840" s="6"/>
-    </row>
-    <row r="841" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="841" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B841" s="6"/>
-      <c r="C841" s="6"/>
-    </row>
-    <row r="842" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="842" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B842" s="6"/>
-      <c r="C842" s="6"/>
-    </row>
-    <row r="843" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="843" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B843" s="6"/>
-      <c r="C843" s="6"/>
-    </row>
-    <row r="844" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="844" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B844" s="6"/>
-      <c r="C844" s="6"/>
-    </row>
-    <row r="845" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="845" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B845" s="6"/>
-      <c r="C845" s="6"/>
-    </row>
-    <row r="846" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="846" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B846" s="6"/>
-      <c r="C846" s="6"/>
-    </row>
-    <row r="847" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="847" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B847" s="6"/>
-      <c r="C847" s="6"/>
-    </row>
-    <row r="848" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="848" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B848" s="6"/>
-      <c r="C848" s="6"/>
-    </row>
-    <row r="849" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="849" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B849" s="6"/>
-      <c r="C849" s="6"/>
-    </row>
-    <row r="850" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="850" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B850" s="6"/>
-      <c r="C850" s="6"/>
-    </row>
-    <row r="851" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="851" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B851" s="6"/>
-      <c r="C851" s="6"/>
-    </row>
-    <row r="852" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="852" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B852" s="6"/>
-      <c r="C852" s="6"/>
-    </row>
-    <row r="853" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="853" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B853" s="6"/>
-      <c r="C853" s="6"/>
-    </row>
-    <row r="854" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="854" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B854" s="6"/>
-      <c r="C854" s="6"/>
-    </row>
-    <row r="855" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="855" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B855" s="6"/>
-      <c r="C855" s="6"/>
-    </row>
-    <row r="856" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="856" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B856" s="6"/>
-      <c r="C856" s="6"/>
-    </row>
-    <row r="857" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="857" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B857" s="6"/>
-      <c r="C857" s="6"/>
-    </row>
-    <row r="858" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="858" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B858" s="6"/>
-      <c r="C858" s="6"/>
-    </row>
-    <row r="859" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="859" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B859" s="6"/>
-      <c r="C859" s="6"/>
-    </row>
-    <row r="860" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="860" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B860" s="6"/>
-      <c r="C860" s="6"/>
-    </row>
-    <row r="861" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="861" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B861" s="6"/>
-      <c r="C861" s="6"/>
-    </row>
-    <row r="862" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="862" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B862" s="6"/>
-      <c r="C862" s="6"/>
-    </row>
-    <row r="863" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="863" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B863" s="6"/>
-      <c r="C863" s="6"/>
-    </row>
-    <row r="864" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="864" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B864" s="6"/>
-      <c r="C864" s="6"/>
-    </row>
-    <row r="865" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="865" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B865" s="6"/>
-      <c r="C865" s="6"/>
-    </row>
-    <row r="866" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="866" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B866" s="6"/>
-      <c r="C866" s="6"/>
-    </row>
-    <row r="867" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="867" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B867" s="6"/>
-      <c r="C867" s="6"/>
-    </row>
-    <row r="868" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="868" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B868" s="6"/>
-      <c r="C868" s="6"/>
-    </row>
-    <row r="869" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="869" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B869" s="6"/>
-      <c r="C869" s="6"/>
-    </row>
-    <row r="870" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="870" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B870" s="6"/>
-      <c r="C870" s="6"/>
-    </row>
-    <row r="871" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="871" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B871" s="6"/>
-      <c r="C871" s="6"/>
-    </row>
-    <row r="872" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="872" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B872" s="6"/>
-      <c r="C872" s="6"/>
-    </row>
-    <row r="873" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="873" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B873" s="6"/>
-      <c r="C873" s="6"/>
-    </row>
-    <row r="874" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="874" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B874" s="6"/>
-      <c r="C874" s="6"/>
-    </row>
-    <row r="875" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="875" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B875" s="6"/>
-      <c r="C875" s="6"/>
-    </row>
-    <row r="876" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="876" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B876" s="6"/>
-      <c r="C876" s="6"/>
-    </row>
-    <row r="877" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="877" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B877" s="6"/>
-      <c r="C877" s="6"/>
-    </row>
-    <row r="878" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="878" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B878" s="6"/>
-      <c r="C878" s="6"/>
-    </row>
-    <row r="879" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="879" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B879" s="6"/>
-      <c r="C879" s="6"/>
-    </row>
-    <row r="880" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="880" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B880" s="6"/>
-      <c r="C880" s="6"/>
-    </row>
-    <row r="881" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="881" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B881" s="6"/>
-      <c r="C881" s="6"/>
-    </row>
-    <row r="882" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="882" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B882" s="6"/>
-      <c r="C882" s="6"/>
-    </row>
-    <row r="883" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="883" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B883" s="6"/>
-      <c r="C883" s="6"/>
-    </row>
-    <row r="884" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="884" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B884" s="6"/>
-      <c r="C884" s="6"/>
-    </row>
-    <row r="885" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="885" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B885" s="6"/>
-      <c r="C885" s="6"/>
-    </row>
-    <row r="886" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="886" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B886" s="6"/>
-      <c r="C886" s="6"/>
-    </row>
-    <row r="887" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="887" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B887" s="6"/>
-      <c r="C887" s="6"/>
-    </row>
-    <row r="888" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="888" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B888" s="6"/>
-      <c r="C888" s="6"/>
-    </row>
-    <row r="889" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="889" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B889" s="6"/>
-      <c r="C889" s="6"/>
-    </row>
-    <row r="890" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="890" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B890" s="6"/>
-      <c r="C890" s="6"/>
-    </row>
-    <row r="891" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="891" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B891" s="6"/>
-      <c r="C891" s="6"/>
-    </row>
-    <row r="892" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="892" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B892" s="6"/>
-      <c r="C892" s="6"/>
-    </row>
-    <row r="893" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="893" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B893" s="6"/>
-      <c r="C893" s="6"/>
-    </row>
-    <row r="894" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="894" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B894" s="6"/>
-      <c r="C894" s="6"/>
-    </row>
-    <row r="895" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="895" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B895" s="6"/>
-      <c r="C895" s="6"/>
-    </row>
-    <row r="896" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="896" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B896" s="6"/>
-      <c r="C896" s="6"/>
-    </row>
-    <row r="897" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="897" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B897" s="6"/>
-      <c r="C897" s="6"/>
-    </row>
-    <row r="898" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="898" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B898" s="6"/>
-      <c r="C898" s="6"/>
-    </row>
-    <row r="899" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="899" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B899" s="6"/>
-      <c r="C899" s="6"/>
-    </row>
-    <row r="900" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="900" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B900" s="6"/>
-      <c r="C900" s="6"/>
-    </row>
-    <row r="901" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="901" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B901" s="6"/>
-      <c r="C901" s="6"/>
-    </row>
-    <row r="902" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="902" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B902" s="6"/>
-      <c r="C902" s="6"/>
-    </row>
-    <row r="903" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="903" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B903" s="6"/>
-      <c r="C903" s="6"/>
-    </row>
-    <row r="904" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="904" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B904" s="6"/>
-      <c r="C904" s="6"/>
-    </row>
-    <row r="905" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="905" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B905" s="6"/>
-      <c r="C905" s="6"/>
-    </row>
-    <row r="906" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="906" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B906" s="6"/>
-      <c r="C906" s="6"/>
-    </row>
-    <row r="907" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="907" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B907" s="6"/>
-      <c r="C907" s="6"/>
-    </row>
-    <row r="908" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="908" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B908" s="6"/>
-      <c r="C908" s="6"/>
-    </row>
-    <row r="909" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="909" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B909" s="6"/>
-      <c r="C909" s="6"/>
-    </row>
-    <row r="910" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="910" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B910" s="6"/>
-      <c r="C910" s="6"/>
-    </row>
-    <row r="911" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="911" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B911" s="6"/>
-      <c r="C911" s="6"/>
-    </row>
-    <row r="912" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="912" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B912" s="6"/>
-      <c r="C912" s="6"/>
-    </row>
-    <row r="913" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="913" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B913" s="6"/>
-      <c r="C913" s="6"/>
-    </row>
-    <row r="914" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="914" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B914" s="6"/>
-      <c r="C914" s="6"/>
-    </row>
-    <row r="915" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="915" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B915" s="6"/>
-      <c r="C915" s="6"/>
-    </row>
-    <row r="916" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="916" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B916" s="6"/>
-      <c r="C916" s="6"/>
-    </row>
-    <row r="917" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="917" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B917" s="6"/>
-      <c r="C917" s="6"/>
-    </row>
-    <row r="918" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="918" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B918" s="6"/>
-      <c r="C918" s="6"/>
-    </row>
-    <row r="919" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="919" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B919" s="6"/>
-      <c r="C919" s="6"/>
-    </row>
-    <row r="920" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="920" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B920" s="6"/>
-      <c r="C920" s="6"/>
-    </row>
-    <row r="921" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="921" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B921" s="6"/>
-      <c r="C921" s="6"/>
-    </row>
-    <row r="922" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="922" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B922" s="6"/>
-      <c r="C922" s="6"/>
-    </row>
-    <row r="923" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="923" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B923" s="6"/>
-      <c r="C923" s="6"/>
-    </row>
-    <row r="924" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="924" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B924" s="6"/>
-      <c r="C924" s="6"/>
-    </row>
-    <row r="925" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="925" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B925" s="6"/>
-      <c r="C925" s="6"/>
-    </row>
-    <row r="926" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="926" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B926" s="6"/>
-      <c r="C926" s="6"/>
-    </row>
-    <row r="927" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="927" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B927" s="6"/>
-      <c r="C927" s="6"/>
-    </row>
-    <row r="928" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="928" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B928" s="6"/>
-      <c r="C928" s="6"/>
-    </row>
-    <row r="929" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="929" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B929" s="6"/>
-      <c r="C929" s="6"/>
-    </row>
-    <row r="930" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="930" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B930" s="6"/>
-      <c r="C930" s="6"/>
-    </row>
-    <row r="931" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="931" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B931" s="6"/>
-      <c r="C931" s="6"/>
-    </row>
-    <row r="932" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="932" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B932" s="6"/>
-      <c r="C932" s="6"/>
-    </row>
-    <row r="933" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="933" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B933" s="6"/>
-      <c r="C933" s="6"/>
-    </row>
-    <row r="934" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="934" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B934" s="6"/>
-      <c r="C934" s="6"/>
-    </row>
-    <row r="935" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="935" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B935" s="6"/>
-      <c r="C935" s="6"/>
-    </row>
-    <row r="936" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="936" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B936" s="6"/>
-      <c r="C936" s="6"/>
-    </row>
-    <row r="937" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="937" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B937" s="6"/>
-      <c r="C937" s="6"/>
-    </row>
-    <row r="938" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="938" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B938" s="6"/>
-      <c r="C938" s="6"/>
-    </row>
-    <row r="939" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="939" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B939" s="6"/>
-      <c r="C939" s="6"/>
-    </row>
-    <row r="940" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="940" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B940" s="6"/>
-      <c r="C940" s="6"/>
-    </row>
-    <row r="941" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="941" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B941" s="6"/>
-      <c r="C941" s="6"/>
-    </row>
-    <row r="942" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="942" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B942" s="6"/>
-      <c r="C942" s="6"/>
-    </row>
-    <row r="943" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="943" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B943" s="6"/>
-      <c r="C943" s="6"/>
-    </row>
-    <row r="944" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="944" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B944" s="6"/>
-      <c r="C944" s="6"/>
-    </row>
-    <row r="945" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="945" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B945" s="6"/>
-      <c r="C945" s="6"/>
-    </row>
-    <row r="946" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="946" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B946" s="6"/>
-      <c r="C946" s="6"/>
-    </row>
-    <row r="947" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="947" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B947" s="6"/>
-      <c r="C947" s="6"/>
-    </row>
-    <row r="948" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="948" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B948" s="6"/>
-      <c r="C948" s="6"/>
-    </row>
-    <row r="949" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="949" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B949" s="6"/>
-      <c r="C949" s="6"/>
-    </row>
-    <row r="950" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="950" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B950" s="6"/>
-      <c r="C950" s="6"/>
-    </row>
-    <row r="951" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="951" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B951" s="6"/>
-      <c r="C951" s="6"/>
-    </row>
-    <row r="952" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="952" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B952" s="6"/>
-      <c r="C952" s="6"/>
-    </row>
-    <row r="953" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="953" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B953" s="6"/>
-      <c r="C953" s="6"/>
-    </row>
-    <row r="954" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="954" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B954" s="6"/>
-      <c r="C954" s="6"/>
-    </row>
-    <row r="955" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="955" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B955" s="6"/>
-      <c r="C955" s="6"/>
-    </row>
-    <row r="956" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="956" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B956" s="6"/>
-      <c r="C956" s="6"/>
-    </row>
-    <row r="957" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="957" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B957" s="6"/>
-      <c r="C957" s="6"/>
-    </row>
-    <row r="958" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="958" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B958" s="6"/>
-      <c r="C958" s="6"/>
-    </row>
-    <row r="959" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="959" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B959" s="6"/>
-      <c r="C959" s="6"/>
-    </row>
-    <row r="960" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="960" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B960" s="6"/>
-      <c r="C960" s="6"/>
-    </row>
-    <row r="961" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="961" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B961" s="6"/>
-      <c r="C961" s="6"/>
-    </row>
-    <row r="962" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="962" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B962" s="6"/>
-      <c r="C962" s="6"/>
-    </row>
-    <row r="963" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="963" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B963" s="6"/>
-      <c r="C963" s="6"/>
-    </row>
-    <row r="964" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="964" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B964" s="6"/>
-      <c r="C964" s="6"/>
-    </row>
-    <row r="965" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="965" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B965" s="6"/>
-      <c r="C965" s="6"/>
-    </row>
-    <row r="966" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="966" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B966" s="6"/>
-      <c r="C966" s="6"/>
-    </row>
-    <row r="967" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="967" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B967" s="6"/>
-      <c r="C967" s="6"/>
-    </row>
-    <row r="968" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="968" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B968" s="6"/>
-      <c r="C968" s="6"/>
-    </row>
-    <row r="969" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="969" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B969" s="6"/>
-      <c r="C969" s="6"/>
-    </row>
-    <row r="970" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="970" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B970" s="6"/>
-      <c r="C970" s="6"/>
-    </row>
-    <row r="971" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="971" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B971" s="6"/>
-      <c r="C971" s="6"/>
-    </row>
-    <row r="972" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="972" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B972" s="6"/>
-      <c r="C972" s="6"/>
-    </row>
-    <row r="973" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="973" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B973" s="6"/>
-      <c r="C973" s="6"/>
-    </row>
-    <row r="974" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="974" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B974" s="6"/>
-      <c r="C974" s="6"/>
-    </row>
-    <row r="975" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="975" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B975" s="6"/>
-      <c r="C975" s="6"/>
-    </row>
-    <row r="976" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="976" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B976" s="6"/>
-      <c r="C976" s="6"/>
-    </row>
-    <row r="977" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="977" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B977" s="6"/>
-      <c r="C977" s="6"/>
-    </row>
-    <row r="978" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="978" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B978" s="6"/>
-      <c r="C978" s="6"/>
-    </row>
-    <row r="979" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="979" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B979" s="6"/>
-      <c r="C979" s="6"/>
-    </row>
-    <row r="980" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="980" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B980" s="6"/>
-      <c r="C980" s="6"/>
-    </row>
-    <row r="981" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="981" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B981" s="6"/>
-      <c r="C981" s="6"/>
-    </row>
-    <row r="982" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="982" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B982" s="6"/>
-      <c r="C982" s="6"/>
-    </row>
-    <row r="983" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="983" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B983" s="6"/>
-      <c r="C983" s="6"/>
-    </row>
-    <row r="984" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="984" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B984" s="6"/>
-      <c r="C984" s="6"/>
-    </row>
-    <row r="985" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="985" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B985" s="6"/>
-      <c r="C985" s="6"/>
-    </row>
-    <row r="986" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="986" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B986" s="6"/>
-      <c r="C986" s="6"/>
-    </row>
-    <row r="987" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="987" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B987" s="6"/>
-      <c r="C987" s="6"/>
-    </row>
-    <row r="988" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="988" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B988" s="6"/>
-      <c r="C988" s="6"/>
-    </row>
-    <row r="989" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="989" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B989" s="6"/>
-      <c r="C989" s="6"/>
-    </row>
-    <row r="990" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="990" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B990" s="6"/>
-      <c r="C990" s="6"/>
-    </row>
-    <row r="991" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="991" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B991" s="6"/>
-      <c r="C991" s="6"/>
-    </row>
-    <row r="992" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="992" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B992" s="6"/>
-      <c r="C992" s="6"/>
-    </row>
-    <row r="993" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="993" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B993" s="6"/>
-      <c r="C993" s="6"/>
-    </row>
-    <row r="994" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="994" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B994" s="6"/>
-      <c r="C994" s="6"/>
-    </row>
-    <row r="995" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="995" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B995" s="6"/>
-      <c r="C995" s="6"/>
-    </row>
-    <row r="996" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="996" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B996" s="6"/>
-      <c r="C996" s="6"/>
-    </row>
-    <row r="997" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="997" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B997" s="6"/>
-      <c r="C997" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/excel/Kotlin.xlsx
+++ b/data/excel/Kotlin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASHMI\DroidBiz\v3\DroidBizNextjs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4074712E-00A4-482D-A4FC-B353B784121D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E578C850-0CAF-4F7A-B09D-F7A921852365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3532,9 +3532,6 @@
     <t xml:space="preserve">Kotlin Ranges </t>
   </si>
   <si>
-    <t>Kotlin This Expressions</t>
-  </si>
-  <si>
     <t>Learn Kotlin standard input output with readln(), println(), and Scanner class. Complete guide to console I/O programming with examples, error handling, and practical projects for beginners and developers.</t>
   </si>
   <si>
@@ -17283,6 +17280,9 @@
 This example demonstrates how **Kotlin this expression** works across different contexts including class methods, companion objects, scope functions, inner classes, and lambda expressions. The **this expression** provides clear references to the appropriate receiver object in each scenario, making your Kotlin code more readable and maintainable.
 </t>
   </si>
+  <si>
+    <t>Kotlin This Expression</t>
+  </si>
 </sst>
 </file>
 
@@ -17338,7 +17338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -17356,11 +17356,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17581,8 +17576,8 @@
   </sheetPr>
   <dimension ref="A1:X997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:G43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17863,739 +17858,739 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="9">
+    </row>
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="5">
         <v>1</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="G13" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="9">
+    </row>
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="5">
         <v>1</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="G14" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="9">
+    </row>
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="5">
         <v>1</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="G15" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="9">
+    </row>
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="5">
         <v>1</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="G16" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="9">
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="5">
         <v>1</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="G17" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="9">
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="5">
         <v>1</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="G18" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="9">
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="5">
         <v>1</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="G19" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="9">
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="5">
         <v>1</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="G20" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="9">
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="5">
         <v>1</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="G21" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" s="9">
+      <c r="F42" s="5">
         <v>1</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="G42" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F43" s="5">
         <v>1</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="9">
-        <v>1</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F24" s="9">
-        <v>1</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F25" s="9">
-        <v>1</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F26" s="9">
-        <v>1</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" s="9">
-        <v>1</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F28" s="9">
-        <v>1</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F29" s="9">
-        <v>1</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="F30" s="9">
-        <v>1</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F31" s="9">
-        <v>1</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F32" s="9">
-        <v>1</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F33" s="9">
-        <v>1</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="F34" s="9">
-        <v>1</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F35" s="9">
-        <v>1</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F36" s="9">
-        <v>1</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="F37" s="9">
-        <v>1</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F38" s="9">
-        <v>1</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="F39" s="9">
-        <v>1</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>39</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="F40" s="9">
-        <v>1</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="F41" s="9">
-        <v>1</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>41</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F42" s="9">
-        <v>1</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E43" s="9" t="s">
+      <c r="G43" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="F43" s="9">
-        <v>1</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">

--- a/data/excel/Kotlin.xlsx
+++ b/data/excel/Kotlin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASHMI\DroidBiz\v3\DroidBizNextjs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E578C850-0CAF-4F7A-B09D-F7A921852365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2716BE9-71DF-4EF2-A1C8-7BA13882C6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17281,7 +17281,7 @@
 </t>
   </si>
   <si>
-    <t>Kotlin This Expression</t>
+    <t>Kotlin This Expressions</t>
   </si>
 </sst>
 </file>

--- a/data/excel/Kotlin.xlsx
+++ b/data/excel/Kotlin.xlsx
@@ -1,21 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASHMI\DroidBiz\v3\DroidBizNextjs\data\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2716BE9-71DF-4EF2-A1C8-7BA13882C6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -55,8 +46,7 @@
     <t>kotlin-tutorial</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Introduction
-**Kotlin** is a statically typed programming language that runs on the Java Virtual Machine (JVM) and can be compiled to JavaScript or native binaries. This **Kotlin introduction** wouldn’t be complete without mentioning that **Kotlin** was officially announced by JetBrains in 2011 and became Google’s preferred language for Android development in 2019. The **Kotlin** language is designed to be fully interoperable with Java, which means you can use existing Java libraries and frameworks seamlessly in your **Kotlin** projects.
+    <t xml:space="preserve">**Kotlin** is a statically typed programming language that runs on the Java Virtual Machine (JVM) and can be compiled to JavaScript or native binaries. This **Kotlin introduction** wouldn’t be complete without mentioning that **Kotlin** was officially announced by JetBrains in 2011 and became Google’s preferred language for Android development in 2019. The **Kotlin** language is designed to be fully interoperable with Java, which means you can use existing Java libraries and frameworks seamlessly in your **Kotlin** projects.
 **Kotlin** combines object-oriented and functional programming features, making it incredibly versatile. The language prioritizes safety, conciseness, and expressiveness, which reduces boilerplate code significantly compared to Java. This **Kotlin tutorial** will show you how **Kotlin**’s modern syntax and powerful features can make your programming experience more enjoyable and productive.
 show-adsense-ad
 ## Key Features of Kotlin
@@ -477,8 +467,7 @@
     <t>kotlin-project-setup</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Project Setup
-Setting up a **Kotlin project** is the foundation of modern Android development. Whether you’re creating your first Android app or transitioning from Java, understanding **Kotlin project setup** is essential for every developer. This comprehensive guide will walk you through the complete **Kotlin project setup** process in Android Studio, covering everything from installation to creating your first functional Kotlin application. By mastering **Kotlin project setup**, you’ll be ready to build powerful Android applications using Google’s preferred programming language.
+    <t xml:space="preserve">Setting up a **Kotlin project** is the foundation of modern Android development. Whether you’re creating your first Android app or transitioning from Java, understanding **Kotlin project setup** is essential for every developer. This comprehensive guide will walk you through the complete **Kotlin project setup** process in Android Studio, covering everything from installation to creating your first functional Kotlin application. By mastering **Kotlin project setup**, you’ll be ready to build powerful Android applications using Google’s preferred programming language.
 ## Prerequisites for Kotlin Project Setup
 Before diving into **Kotlin project setup**, ensure you have the necessary tools installed on your development machine. The primary requirement for **Kotlin project setup** is Android Studio, which comes with built-in Kotlin support. Download Android Studio from the [official Android developer website](https://developer.android.com/studio) to begin your **Kotlin project setup** journey.
 Your system should meet the minimum requirements for Android Studio installation. This includes having sufficient RAM (at least 8GB recommended), adequate storage space, and a compatible operating system. The **Kotlin project setup** process will be smoother with these requirements met.
@@ -769,8 +758,7 @@
     <t>kotlin-syntax</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Syntax
-Learning **Kotlin syntax** is essential for modern Android development and server-side programming. Kotlin syntax offers a perfect blend of conciseness and readability, making it an ideal choice for developers transitioning from Java or starting fresh. This comprehensive guide will walk you through every aspect of Kotlin syntax, from basic declarations to advanced features that make Kotlin syntax so powerful and developer-friendly.
+    <t xml:space="preserve">Learning **Kotlin syntax** is essential for modern Android development and server-side programming. Kotlin syntax offers a perfect blend of conciseness and readability, making it an ideal choice for developers transitioning from Java or starting fresh. This comprehensive guide will walk you through every aspect of Kotlin syntax, from basic declarations to advanced features that make Kotlin syntax so powerful and developer-friendly.
 ## Variables and Data Types in Kotlin
 Kotlin syntax provides two main ways to declare variables: `var` for mutable variables and `val` for immutable ones. Understanding this fundamental aspect of Kotlin syntax is crucial for writing effective code.
 ### Mutable Variables (var)
@@ -1101,8 +1089,7 @@
     <t>kotlin-output</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Output
-Kotlin output is a fundamental concept that every programmer must master when learning Kotlin programming. Understanding how to display output in Kotlin is essential for debugging, user interaction, and program communication. Whether you’re building Android applications or server-side applications, Kotlin output functions help you present data effectively to users and developers alike.
+    <t xml:space="preserve">Kotlin output is a fundamental concept that every programmer must master when learning Kotlin programming. Understanding how to display output in Kotlin is essential for debugging, user interaction, and program communication. Whether you’re building Android applications or server-side applications, Kotlin output functions help you present data effectively to users and developers alike.
 ## Understanding Kotlin Output Functions
 Kotlin output refers to the process of displaying data, variables, or messages to the console or user interface. The Kotlin standard library provides several built-in functions for generating output, with `println()` and `print()` being the most commonly used Kotlin output functions.
 ### The println() Function
@@ -1387,8 +1374,7 @@
     <t>kotlin-comments</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Comments
-**Kotlin comments** are non-executable text annotations that developers add to their source code to explain functionality, document methods, or provide context about specific code sections. The Kotlin compiler completely ignores these comments during compilation, making them perfect for code documentation without impacting performance.
+    <t xml:space="preserve">**Kotlin comments** are non-executable text annotations that developers add to their source code to explain functionality, document methods, or provide context about specific code sections. The Kotlin compiler completely ignores these comments during compilation, making them perfect for code documentation without impacting performance.
 Kotlin supports three primary types of comments that serve different purposes in code documentation and explanation.
 ## Single-Line Kotlin Comments
 Single-line Kotlin comments begin with two forward slashes (`//`) and extend to the end of the current line. These comments are perfect for brief explanations or quick notes about specific code lines.
@@ -1740,8 +1726,7 @@
     <t>kotlin-data-types</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Data Types
-Kotlin data types define what kind of values variables can store and how much memory they occupy. Whether you’re building Android applications or server-side programs, mastering Kotlin data types will make your programming journey smoother and more efficient.
+    <t xml:space="preserve">Kotlin data types define what kind of values variables can store and how much memory they occupy. Whether you’re building Android applications or server-side programs, mastering Kotlin data types will make your programming journey smoother and more efficient.
 Kotlin data types are statically typed, meaning the compiler knows the exact type of every variable at compile time. This comprehensive guide will walk you through all Kotlin data types, from basic primitive types to complex collection types, helping you understand when and how to use each one effectively.
 ## Understanding Kotlin Type System
 Kotlin data types are divided into several categories that make the language both powerful and safe. Unlike Java, Kotlin treats everything as objects, which means all Kotlin data types have methods and properties you can call on them. The Kotlin type system includes basic types, collection types, and special types that handle null safety.
@@ -2099,8 +2084,7 @@
     <t>kotlin-variables</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Variables
-Kotlin variables are named storage locations in memory that hold data values during program execution. Unlike some programming languages, Kotlin variables offer both mutable and immutable options, giving developers flexibility in managing data state. When you declare Kotlin variables, you’re essentially creating placeholders that can store different types of information like numbers, text, or complex objects.
+    <t xml:space="preserve">Kotlin variables are named storage locations in memory that hold data values during program execution. Unlike some programming languages, Kotlin variables offer both mutable and immutable options, giving developers flexibility in managing data state. When you declare Kotlin variables, you’re essentially creating placeholders that can store different types of information like numbers, text, or complex objects.
 ## Types of Kotlin Variables
 ### Mutable Variables (var)
 Mutable Kotlin variables are declared using the `var` keyword and can be modified after initialization. These Kotlin variables allow you to change their values throughout the program execution.
@@ -2462,8 +2446,7 @@
     <t>kotlin-operators</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Operators
-**Kotlin operators** are predefined symbols that tell the compiler to perform specific mathematical, logical, or relational operations. The Kotlin programming language provides a rich set of operators that can be categorized into different types based on their functionality. These operators work with operands (variables, constants, or expressions) to produce results.
+    <t xml:space="preserve">**Kotlin operators** are predefined symbols that tell the compiler to perform specific mathematical, logical, or relational operations. The Kotlin programming language provides a rich set of operators that can be categorized into different types based on their functionality. These operators work with operands (variables, constants, or expressions) to produce results.
 Kotlin operators are designed to be intuitive and follow familiar conventions from other programming languages while adding Kotlin-specific enhancements. The language supports operator overloading, which means you can define custom behavior for operators when working with your own classes.
 show-adsense-ad
 ## Arithmetic Operators in Kotlin
@@ -2972,8 +2955,7 @@
     <t>kotlin-strings</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Strings
-Kotlin strings are fundamental data types that represent sequences of characters, and mastering Kotlin strings will significantly improve your coding efficiency. 
+    <t xml:space="preserve">Kotlin strings are fundamental data types that represent sequences of characters, and mastering Kotlin strings will significantly improve your coding efficiency. 
 Kotlin strings are immutable objects, meaning once you create a Kotlin string, you cannot modify its content directly. Instead, Kotlin string operations return new string objects, which is an important concept to understand when working with Kotlin strings in your applications.
 ## Understanding Kotlin String Declaration
 Kotlin strings can be declared in multiple ways, each serving different purposes in your code. Let’s explore how you can work with Kotlin strings effectively.
@@ -3225,8 +3207,7 @@
     <t>kotlin-booleans</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Booleans
-Kotlin booleans are primitive data types that can hold only two possible values: `true` or `false`. In Kotlin, the boolean data type is represented by the `Boolean` class, and boolean variables are declared using the `Boolean` type or inferred automatically when you assign boolean values. Kotlin booleans are essential for implementing conditional statements, loops, and logical operations in your Kotlin programs.
+    <t xml:space="preserve">Kotlin booleans are primitive data types that can hold only two possible values: `true` or `false`. In Kotlin, the boolean data type is represented by the `Boolean` class, and boolean variables are declared using the `Boolean` type or inferred automatically when you assign boolean values. Kotlin booleans are essential for implementing conditional statements, loops, and logical operations in your Kotlin programs.
 ```kotlin
 val isActive: Boolean = true
 val isComplete = false // Type inferred as Boolean
@@ -3442,96 +3423,6 @@
     <t xml:space="preserve">Kotlin Standard Input/Output </t>
   </si>
   <si>
-    <t xml:space="preserve">Kotlin Type Conversion </t>
-  </si>
-  <si>
-    <t>Kotlin Expression</t>
-  </si>
-  <si>
-    <t>Kotlin if…else</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotlin When </t>
-  </si>
-  <si>
-    <t>Kotlin While Loop</t>
-  </si>
-  <si>
-    <t>Kotlin Break/Continue</t>
-  </si>
-  <si>
-    <t>Kotlin For Loop</t>
-  </si>
-  <si>
-    <t>Kotlin Arrays</t>
-  </si>
-  <si>
-    <t>Kotlin Ranges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotlin Functions </t>
-  </si>
-  <si>
-    <t>Kotlin List</t>
-  </si>
-  <si>
-    <t>Kotlin Set</t>
-  </si>
-  <si>
-    <t>Kotlin Map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotlin Class and Object </t>
-  </si>
-  <si>
-    <t>Kotlin Nested Class and Inner Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotlin Constructors </t>
-  </si>
-  <si>
-    <t>Kotlin Setter and Getter</t>
-  </si>
-  <si>
-    <t>Kotlin Visibility Modifiers</t>
-  </si>
-  <si>
-    <t>Kotlin Inheritance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotlin Interfaces </t>
-  </si>
-  <si>
-    <t>Kotlin Data Class</t>
-  </si>
-  <si>
-    <t>Kotlin Abstract Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotlin Sealed Class </t>
-  </si>
-  <si>
-    <t>Kotlin Enum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotlin Companion Objects </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotlin Null Safety </t>
-  </si>
-  <si>
-    <t>Kotlin Equality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotlin Exception Handling </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotlin Regular Expression </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotlin Ranges </t>
-  </si>
-  <si>
     <t>Learn Kotlin standard input output with readln(), println(), and Scanner class. Complete guide to console I/O programming with examples, error handling, and practical projects for beginners and developers.</t>
   </si>
   <si>
@@ -3541,8 +3432,7 @@
     <t>kotlin-standard-input-output</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Standard Input Output
-Kotlin standard input output (I/O) refers to the process of reading data from input devices like keyboards and displaying information to output devices such as monitors. In Kotlin programming, input output operations enable your programs to interact with users by accepting data, processing it, and presenting results in a meaningful way.
+    <t xml:space="preserve">Kotlin standard input output (I/O) refers to the process of reading data from input devices like keyboards and displaying information to output devices such as monitors. In Kotlin programming, input output operations enable your programs to interact with users by accepting data, processing it, and presenting results in a meaningful way.
 The **Kotlin input output system** operates through byte streams that flow between devices and your program’s memory. When you type on a keyboard, that input becomes a stream of data that your Kotlin application can capture and process using specific functions designed for this purpose.
 ## Essential Kotlin Output Functions
 ### The println() Function
@@ -3936,6 +3826,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Kotlin Type Conversion </t>
+  </si>
+  <si>
     <t>Master Kotlin type conversion with explicit casting, smart casting, and safe operators. Complete guide with examples for Android developers in 2025.</t>
   </si>
   <si>
@@ -3945,8 +3838,7 @@
     <t>kotlin-type-conversion</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Type Conversion
-**Kotlin type conversion** differs significantly from Java’s approach to type casting. While Java allows implicit widening conversions (like converting `int` to `long`), Kotlin requires explicit conversion functions for all numeric type transformations. This design choice prioritizes type safety and helps developers avoid unexpected behavior in their applications.
+    <t xml:space="preserve">**Kotlin type conversion** differs significantly from Java’s approach to type casting. While Java allows implicit widening conversions (like converting `int` to `long`), Kotlin requires explicit conversion functions for all numeric type transformations. This design choice prioritizes type safety and helps developers avoid unexpected behavior in their applications.
 ### Why Kotlin Doesn’t Support Implicit Type Conversion
 Kotlin’s explicit type conversion approach prevents common programming errors that can occur with automatic type promotion. When you attempt to assign a smaller numeric type to a larger one without explicit conversion, Kotlin will generate a compile-time error rather than silently performing the conversion.
 ```kotlin
@@ -4397,6 +4289,9 @@
 </t>
   </si>
   <si>
+    <t>Kotlin Expression</t>
+  </si>
+  <si>
     <t>Master Kotlin expressions with our complete 2025 guide. Learn if expressions, when expressions, lambda expressions, and more with practical examples. Perfect for Android developers using Kotlin and Compose. Includes working code samples and best practices.</t>
   </si>
   <si>
@@ -4406,8 +4301,7 @@
     <t>kotlin-expressions</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Expressions
-A **Kotlin expression** is any piece of code that evaluates to a value. This fundamental concept sets Kotlin apart from many other programming languages. In Kotlin, expressions are the building blocks that combine variables, operators, method calls, and literals to produce a single result value.
+    <t xml:space="preserve">A **Kotlin expression** is any piece of code that evaluates to a value. This fundamental concept sets Kotlin apart from many other programming languages. In Kotlin, expressions are the building blocks that combine variables, operators, method calls, and literals to produce a single result value.
 Every **Kotlin expression** has a type and returns a value, even if that value is `Unit` (equivalent to `void` in Java). This expression-oriented approach makes Kotlin more functional and allows for more concise code patterns.
 **Key characteristics of Kotlin expressions:**
 - Always return a value
@@ -4914,6 +4808,9 @@
 </t>
   </si>
   <si>
+    <t>Kotlin If Else Statement</t>
+  </si>
+  <si>
     <t>Master Kotlin if else statements with our comprehensive guide. Learn conditional logic, expressions vs statements, nested conditions, and practical Android development examples. Complete tutorial with working code samples.</t>
   </si>
   <si>
@@ -4923,8 +4820,7 @@
     <t>kotlin-if-else</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin If Else Statement
-The **Kotlin if statement** is a conditional control structure that executes a block of code only when a specified condition evaluates to true. Unlike many other programming languages, Kotlin if statements can function both as statements (performing actions) and as expressions (returning values).
+    <t xml:space="preserve">The **Kotlin if statement** is a conditional control structure that executes a block of code only when a specified condition evaluates to true. Unlike many other programming languages, Kotlin if statements can function both as statements (performing actions) and as expressions (returning values).
 ```kotlin
 val userAge = 25
 if (userAge &gt;= 18) {
@@ -5488,6 +5384,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Kotlin When </t>
+  </si>
+  <si>
     <t>Master Kotlin when expression with this complete guide. Learn syntax, examples, sealed classes, type checking, and advanced patterns for Android development. Replace Java switch with powerful Kotlin when statements.</t>
   </si>
   <si>
@@ -5497,8 +5396,7 @@
     <t>kotlin-when</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin When Expression
-The **kotlin when statement** is a conditional expression that evaluates multiple branches sequentially until it finds a matching condition. Unlike Java’s switch statement, the **when expression kotlin** can work with any data type, supports complex conditions, and doesn’t require break statements.
+    <t xml:space="preserve">The **kotlin when statement** is a conditional expression that evaluates multiple branches sequentially until it finds a matching condition. Unlike Java’s switch statement, the **when expression kotlin** can work with any data type, supports complex conditions, and doesn’t require break statements.
 ### Key Features of When Expression
 The **kotlin when** expression offers several advantages over traditional switch statements:
 - **Expression and Statement**: Can be used both as an expression (returns a value) and as a statement (performs actions)
@@ -5904,6 +5802,9 @@
 </t>
   </si>
   <si>
+    <t>Kotlin While Loop</t>
+  </si>
+  <si>
     <t>Learn Kotlin while loop syntax with comprehensive examples and practical applications. Master while loops in Kotlin for Android development with step-by-step tutorials and real-world code samples.</t>
   </si>
   <si>
@@ -5913,8 +5814,7 @@
     <t>kotlin-while-loop</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin While Loop
-A **Kotlin while loop** is a control structure that repeatedly executes a block of code as long as a specified condition evaluates to `true`. Unlike other loop types, the while loop checks the condition before executing the loop body, making it perfect for scenarios where you need conditional repetition with pre-validation.
+    <t xml:space="preserve">A **Kotlin while loop** is a control structure that repeatedly executes a block of code as long as a specified condition evaluates to `true`. Unlike other loop types, the while loop checks the condition before executing the loop body, making it perfect for scenarios where you need conditional repetition with pre-validation.
 The **while loop Kotlin syntax** follows this basic structure:
 ```kotlin
 while (condition) {
@@ -6287,6 +6187,9 @@
 </t>
   </si>
   <si>
+    <t>Kotlin Break and Continue Statements</t>
+  </si>
+  <si>
     <t>Master Kotlin break and continue statements with practical examples, labeled loops, and real-world applications. Complete guide for Android developers and Kotlin programmers with working code samples.</t>
   </si>
   <si>
@@ -6296,8 +6199,7 @@
     <t>kotlin-break-continue</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Break and Continue Statements
-The Kotlin break continue statements are structural jump expressions that modify the normal flow of loop execution. While break terminates the loop entirely, continue skips the current iteration and moves to the next one. These statements work with all types of loops in Kotlin, including for loops, while loops, and do-while loops.
+    <t xml:space="preserve">The Kotlin break continue statements are structural jump expressions that modify the normal flow of loop execution. While break terminates the loop entirely, continue skips the current iteration and moves to the next one. These statements work with all types of loops in Kotlin, including for loops, while loops, and do-while loops.
 ## Understanding the Break Statement in Kotlin
 The Kotlin break statement immediately terminates the nearest enclosing loop when a specific condition is met. When the program encounters a break statement, it exits the loop and continues executing the code that follows the loop block.
 ### Break Statement Syntax
@@ -6861,6 +6763,9 @@
 </t>
   </si>
   <si>
+    <t>Kotlin For Loop</t>
+  </si>
+  <si>
     <t>Master Kotlin for loop with this complete guide for Android developers. Learn syntax, examples, and advanced techniques for iterating through ranges, arrays, and collections in mobile app development.</t>
   </si>
   <si>
@@ -6870,8 +6775,7 @@
     <t>kotlin-for-loops</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin For Loop
-The **Kotlin for loop** is a control flow structure designed to iterate through any object that provides an iterator. This includes ranges, arrays, collections, strings, and custom objects. The for loop iterates through anything that provides an iterator. This is equivalent to the foreach loop in languages like C#.
+    <t xml:space="preserve">The **Kotlin for loop** is a control flow structure designed to iterate through any object that provides an iterator. This includes ranges, arrays, collections, strings, and custom objects. The for loop iterates through anything that provides an iterator. This is equivalent to the foreach loop in languages like C#.
 ### Basic Syntax
 The fundamental syntax of a Kotlin for loop follows this pattern:
 ```kotlin
@@ -7227,6 +7131,9 @@
 </t>
   </si>
   <si>
+    <t>Kotlin Arrays</t>
+  </si>
+  <si>
     <t>Master Kotlin arrays with this complete guide covering declaration, initialization, and operations. Learn arrayOf(), primitive arrays, sorting, filtering, and transformations with practical examples for Android development.</t>
   </si>
   <si>
@@ -7236,8 +7143,7 @@
     <t>kotlin-arrays</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Arrays
-Kotlin arrays represent fixed-size collections that hold elements of the same type or its subtypes. Unlike dynamic collections, Kotlin arrays maintain a constant size once initialized, making them ideal for performance-critical applications where memory allocation predictability matters. The Array class in Kotlin provides the foundation for all array operations, offering type safety and null safety features that distinguish it from traditional Java arrays.
+    <t xml:space="preserve">Kotlin arrays represent fixed-size collections that hold elements of the same type or its subtypes. Unlike dynamic collections, Kotlin arrays maintain a constant size once initialized, making them ideal for performance-critical applications where memory allocation predictability matters. The Array class in Kotlin provides the foundation for all array operations, offering type safety and null safety features that distinguish it from traditional Java arrays.
 Kotlin arrays are invariant, meaning you cannot assign an Array&lt;String&gt; to an Array&lt;Any&gt; to prevent runtime failures. This design choice ensures type safety throughout your application, making Kotlin arrays more reliable than their Java counterparts.
 ## Kotlin Array Declaration Methods
 ### Using arrayOf() Function
@@ -7738,6 +7644,9 @@
 </t>
   </si>
   <si>
+    <t>Kotlin Ranges</t>
+  </si>
+  <si>
     <t>Master Kotlin ranges with this comprehensive guide. Learn range operators, iteration techniques, step functions, and practical examples for efficient Kotlin programming. Complete tutorial with code examples.</t>
   </si>
   <si>
@@ -7747,8 +7656,7 @@
     <t>kotlin-ranges</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Ranges
-Kotlin ranges represent an ordered sequence of values with defined start and end points. A range represents an ordered set of values with a defined start and end. By default, it increments by 1 at each step. Ranges implement the `ClosedRange&lt;T&gt;` interface and are inclusive by default, meaning both endpoints are included in the range.
+    <t xml:space="preserve">Kotlin ranges represent an ordered sequence of values with defined start and end points. A range represents an ordered set of values with a defined start and end. By default, it increments by 1 at each step. Ranges implement the `ClosedRange&lt;T&gt;` interface and are inclusive by default, meaning both endpoints are included in the range.
 The primary advantage of Kotlin ranges is their simplicity and readability. Instead of writing traditional loop constructs, you can express iterations and value checks more naturally using range syntax.
 ```kotlin
 // Traditional approach (verbose)
@@ -8243,6 +8151,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Kotlin Functions </t>
+  </si>
+  <si>
     <t>Master Kotlin functions with our comprehensive guide covering lambda expressions, higher-order functions, extension functions, inline functions, and infix functions. Learn function syntax, parameters, return types, and advanced techniques with practical examples for Android and backend development.</t>
   </si>
   <si>
@@ -8252,8 +8163,7 @@
     <t>kotlin-functions</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Functions
-**Kotlin functions** are blocks of reusable code that perform specific tasks and can accept input parameters while returning output values. Unlike Java methods, **Kotlin functions** are first-class citizens, meaning they can be stored in variables, passed as arguments, and returned from other functions. The **fun keyword** is used to declare all **Kotlin functions**, making the syntax clean and consistent across different function types.
+    <t xml:space="preserve">**Kotlin functions** are blocks of reusable code that perform specific tasks and can accept input parameters while returning output values. Unlike Java methods, **Kotlin functions** are first-class citizens, meaning they can be stored in variables, passed as arguments, and returned from other functions. The **fun keyword** is used to declare all **Kotlin functions**, making the syntax clean and consistent across different function types.
 ### Basic Kotlin Function Syntax
 The fundamental **Kotlin function syntax** follows a simple pattern that’s both readable and concise:
 ```kotlin
@@ -8559,6 +8469,9 @@
 </t>
   </si>
   <si>
+    <t>Kotlin List</t>
+  </si>
+  <si>
     <t>Learn Kotlin lists with comprehensive listOf() and mutableListOf() examples. Master list operations, filtering, sorting, and transformations for Android development. Complete guide with practical code examples.</t>
   </si>
   <si>
@@ -8568,8 +8481,7 @@
     <t>kotlin-list</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin List 
-A **Kotlin list** is a generic, ordered collection interface that stores elements in a specific sequence. Lists maintain insertion order and allow duplicate elements, making them perfect for scenarios where element position matters. The List interface in Kotlin extends the Collection interface and provides indexed access to elements, starting from index 0.
+    <t xml:space="preserve">A **Kotlin list** is a generic, ordered collection interface that stores elements in a specific sequence. Lists maintain insertion order and allow duplicate elements, making them perfect for scenarios where element position matters. The List interface in Kotlin extends the Collection interface and provides indexed access to elements, starting from index 0.
 ```kotlin
 // Basic list structure
 val numbers: List&lt;Int&gt; = listOf(1, 2, 3, 4, 5)
@@ -9002,6 +8914,9 @@
 </t>
   </si>
   <si>
+    <t>Kotlin Set</t>
+  </si>
+  <si>
     <t>Master Kotlin Set collections with this complete guide. Learn setOf(), mutableSetOf(), hashSetOf() with real examples, performance comparisons, and set operations for Android development.</t>
   </si>
   <si>
@@ -9011,8 +8926,7 @@
     <t>kotlin-set</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Set
-A **Kotlin set** is a generic collection interface that stores unique elements without allowing duplicates. The **Kotlin set** collection provides two main categories: immutable sets created with **setOf()** and mutable sets created with **mutableSetOf()**. Every **Kotlin set** implementation automatically handles duplicate removal, making it perfect for scenarios where data uniqueness is essential.
+    <t xml:space="preserve">A **Kotlin set** is a generic collection interface that stores unique elements without allowing duplicates. The **Kotlin set** collection provides two main categories: immutable sets created with **setOf()** and mutable sets created with **mutableSetOf()**. Every **Kotlin set** implementation automatically handles duplicate removal, making it perfect for scenarios where data uniqueness is essential.
 The **Kotlin set** interface extends the Collection interface and provides specialized operations for set-specific functionality like union, intersection, and difference operations.
 ## Types of Kotlin Set Implementations
 ### 1. Immutable Set with setOf()
@@ -9462,6 +9376,9 @@
 </t>
   </si>
   <si>
+    <t>Kotlin Map</t>
+  </si>
+  <si>
     <t>Learn Kotlin Map with comprehensive examples and practical code. Master immutable maps, mutable maps, HashMap, and advanced operations for Android development and Kotlin programming.</t>
   </si>
   <si>
@@ -9471,8 +9388,7 @@
     <t>kotlin-map</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Map
-A Kotlin Map is a collection interface that represents a group of key-value pairs where each key is unique and maps to exactly one value. Kotlin Map comes in two primary variants: immutable maps (read-only) and mutable maps (modifiable). The Kotlin Map interface provides various methods to access, search, and manipulate data efficiently.
+    <t xml:space="preserve">A Kotlin Map is a collection interface that represents a group of key-value pairs where each key is unique and maps to exactly one value. Kotlin Map comes in two primary variants: immutable maps (read-only) and mutable maps (modifiable). The Kotlin Map interface provides various methods to access, search, and manipulate data efficiently.
 Kotlin Map is particularly useful when you need to establish relationships between data elements, such as storing user preferences, configuration settings, or mapping database records to objects in your Kotlin applications.
 ## Types of Kotlin Map
 ### Immutable Map (Read-Only Map)
@@ -9934,6 +9850,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Kotlin Class and Object </t>
+  </si>
+  <si>
     <t>Learn Kotlin class and object fundamentals with complete examples. Master Kotlin constructor, companion object, data class, and inheritance for Android development. Comprehensive tutorial with code examples and practical implementations.</t>
   </si>
   <si>
@@ -9943,8 +9862,7 @@
     <t>kotlin-classes-and-objects</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Class and Object
-A **Kotlin class** is a blueprint or template that defines the structure and behavior of objects in your Android applications. Unlike Java, **Kotlin class declaration** is more concise and expressive. The **Kotlin class** keyword creates a reusable template that encapsulates data (properties) and functions (methods) together.
+    <t xml:space="preserve">A **Kotlin class** is a blueprint or template that defines the structure and behavior of objects in your Android applications. Unlike Java, **Kotlin class declaration** is more concise and expressive. The **Kotlin class** keyword creates a reusable template that encapsulates data (properties) and functions (methods) together.
 **Kotlin class** syntax follows this basic pattern:
 ```kotlin
 class ClassName {
@@ -10333,6 +10251,9 @@
 </t>
   </si>
   <si>
+    <t>Kotlin Nested Class and Inner Class</t>
+  </si>
+  <si>
     <t>Learn Kotlin nested class and inner class concepts with practical examples for Android developers. Master the differences between nested classes and inner classes in Kotlin with complete code implementations and real-world use cases.</t>
   </si>
   <si>
@@ -10342,8 +10263,7 @@
     <t>kotlin-nested-class-and-inner-class</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Nested Class and Inner Class
-## Understanding Kotlin Nested Class
+    <t xml:space="preserve">## Understanding Kotlin Nested Class
 A **Kotlin nested class** is a class defined inside another class without using the `inner` keyword. By default, **nested classes in Kotlin** are static in nature, similar to static nested classes in Java. This means a **nested class** cannot access the members of its outer class directly and doesn’t hold a reference to the outer class instance.
 ### Basic Syntax of Nested Class
 ```kotlin
@@ -10804,6 +10724,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Kotlin Constructors </t>
+  </si>
+  <si>
     <t>Learn Kotlin constructors with comprehensive examples covering primary constructors, secondary constructors, init blocks, and default parameters. Master Kotlin class initialization for Android development.</t>
   </si>
   <si>
@@ -10813,8 +10736,7 @@
     <t>kotlin-constructors</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Constructors
-**Kotlin constructors** are special member functions that initialize class instances when objects are created. Unlike Java, Kotlin provides two distinct types of constructors: **primary constructors** and **secondary constructors**. The **primary constructor** is declared in the class header, while **secondary constructors** are defined within the class body using the `constructor` keyword.
+    <t xml:space="preserve">**Kotlin constructors** are special member functions that initialize class instances when objects are created. Unlike Java, Kotlin provides two distinct types of constructors: **primary constructors** and **secondary constructors**. The **primary constructor** is declared in the class header, while **secondary constructors** are defined within the class body using the `constructor` keyword.
 Every **Kotlin class** can have one **primary constructor** and multiple **secondary constructors**. The **primary constructor** cannot contain executable code, but you can use **init blocks** to execute initialization logic. This design makes **Kotlin constructors** more structured and predictable than their Java counterparts.
 ## Kotlin Primary Constructor
 The **Kotlin primary constructor** is the most concise way to initialize class properties. It’s declared immediately after the class name and becomes part of the class header. Here’s the basic syntax for a **primary constructor**:
@@ -11137,6 +11059,9 @@
 </t>
   </si>
   <si>
+    <t>Kotlin Setter and Getter</t>
+  </si>
+  <si>
     <t>Learn Kotlin getter and setter with complete examples for Android development. Master custom getters, setters, backing fields, property validation, and encapsulation in Kotlin programming with practical code examples.</t>
   </si>
   <si>
@@ -11146,8 +11071,7 @@
     <t>kotlin-setter-and-getter</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Getter and Setter
-## Understanding Kotlin Properties and Default Accessors
+    <t xml:space="preserve">## Understanding Kotlin Properties and Default Accessors
 In **Kotlin programming**, properties are fundamental building blocks that simplify data encapsulation compared to traditional Java getters and setters. When you declare a **Kotlin property**, the compiler automatically generates **default getter and setter methods** behind the scenes.
 ### Basic Property Declaration
 **Kotlin properties** can be declared using two keywords:
@@ -11554,6 +11478,9 @@
 </t>
   </si>
   <si>
+    <t>Kotlin Visibility Modifiers</t>
+  </si>
+  <si>
     <t>Learn Kotlin visibility modifiers (public, private, protected, internal) with practical examples for Android development. Complete guide to access control in Kotlin programming language with real-world code samples.</t>
   </si>
   <si>
@@ -11563,8 +11490,7 @@
     <t>kotlin-visibility-modifiers</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Visibility Modifiers
-Kotlin visibility modifiers are special keywords that determine the accessibility scope of classes, objects, interfaces, constructors, functions, and properties in your Kotlin code. Unlike Java, which has package-private as the default access level, **Kotlin visibility modifiers** default to `public`, making your code more open by design while still providing powerful encapsulation mechanisms.
+    <t xml:space="preserve">Kotlin visibility modifiers are special keywords that determine the accessibility scope of classes, objects, interfaces, constructors, functions, and properties in your Kotlin code. Unlike Java, which has package-private as the default access level, **Kotlin visibility modifiers** default to `public`, making your code more open by design while still providing powerful encapsulation mechanisms.
 The four Kotlin visibility modifiers are:
 - **public** - Accessible from anywhere (default)
 - **private** - Accessible only within the declaring scope
@@ -12041,6 +11967,9 @@
 </t>
   </si>
   <si>
+    <t>Kotlin Inheritance</t>
+  </si>
+  <si>
     <t>Learn Kotlin inheritance with comprehensive examples covering class inheritance, method overriding, abstract classes, and sealed classes. Master open keyword, super keyword, and multiple inheritance patterns in this complete guide.</t>
   </si>
   <si>
@@ -12050,8 +11979,7 @@
     <t>kotlin-inheritance</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Inheritance
-Kotlin inheritance is a fundamental object-oriented programming concept that allows you to create new classes based on existing ones. In Kotlin inheritance, a child class (subclass or derived class) can inherit properties and functions from a parent class (superclass or base class), enabling code reusability and establishing hierarchical relationships between classes. This comprehensive guide will teach you everything about Kotlin inheritance, from basic syntax to advanced inheritance patterns.
+    <t xml:space="preserve">Kotlin inheritance is a fundamental object-oriented programming concept that allows you to create new classes based on existing ones. In Kotlin inheritance, a child class (subclass or derived class) can inherit properties and functions from a parent class (superclass or base class), enabling code reusability and establishing hierarchical relationships between classes. This comprehensive guide will teach you everything about Kotlin inheritance, from basic syntax to advanced inheritance patterns.
 ## Understanding Kotlin Inheritance Fundamentals
 Kotlin inheritance works differently from Java in several key ways. By default, all classes in Kotlin are final, meaning they cannot be inherited unless explicitly marked with the `open` keyword. This design choice helps prevent the fragile base class problem and makes your code more robust.
 ### Basic Kotlin Inheritance Syntax
@@ -12521,6 +12449,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Kotlin Interfaces </t>
+  </si>
+  <si>
     <t>Master Kotlin interfaces with complete implementation examples, multiple inheritance patterns, default methods, and real-world applications. Learn interface vs abstract class differences, functional interfaces, delegation, and advanced patterns for Android development.</t>
   </si>
   <si>
@@ -12530,8 +12461,7 @@
     <t>kotlin-interfaces</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Interfaces
-A **Kotlin interface** is a blueprint that defines a set of methods and properties that implementing classes must provide. Unlike abstract classes, interfaces in Kotlin can contain both abstract declarations and concrete implementations with default behavior. The `interface` keyword is used to declare interfaces in Kotlin, making them a cornerstone of object-oriented design patterns.
+    <t xml:space="preserve">A **Kotlin interface** is a blueprint that defines a set of methods and properties that implementing classes must provide. Unlike abstract classes, interfaces in Kotlin can contain both abstract declarations and concrete implementations with default behavior. The `interface` keyword is used to declare interfaces in Kotlin, making them a cornerstone of object-oriented design patterns.
 ```kotlin
 interface VehicleInterface {
     val maxSpeed: Int
@@ -12994,6 +12924,9 @@
 </t>
   </si>
   <si>
+    <t>Kotlin Data Class</t>
+  </si>
+  <si>
     <t>Learn Kotlin Data Class fundamentals with comprehensive examples. Master toString(), equals(), copy(), destructuring declarations, and advanced features. Complete guide for Android developers.</t>
   </si>
   <si>
@@ -13003,8 +12936,7 @@
     <t>kotlin-data-classes</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Data Class
-When working with Kotlin development, **Kotlin data class** represents one of the most powerful features for creating clean, efficient code. A **Kotlin data class** automatically generates essential methods like `toString()`, `equals()`, `hashCode()`, and `copy()`, making it perfect for holding data structures in your applications. Whether you’re building Android apps or backend services, understanding **Kotlin data class** fundamentals will significantly improve your code quality and reduce boilerplate.
+    <t xml:space="preserve">When working with Kotlin development, **Kotlin data class** represents one of the most powerful features for creating clean, efficient code. A **Kotlin data class** automatically generates essential methods like `toString()`, `equals()`, `hashCode()`, and `copy()`, making it perfect for holding data structures in your applications. Whether you’re building Android apps or backend services, understanding **Kotlin data class** fundamentals will significantly improve your code quality and reduce boilerplate.
 ## What is a Kotlin Data Class?
 A **Kotlin data class** is a special type of class designed primarily to hold data. Unlike regular classes, a **Kotlin data class** automatically provides implementations for common object methods, eliminating the need to write repetitive boilerplate code. The **Kotlin data class** is declared using the `data` keyword before the class declaration.
 ### Basic Kotlin Data Class Syntax
@@ -13463,6 +13395,9 @@
 </t>
   </si>
   <si>
+    <t>Kotlin Abstract Class</t>
+  </si>
+  <si>
     <t>Learn Kotlin abstract class with complete examples and implementation guide. Master abstract keyword, methods, properties, and inheritance in Kotlin for Android development. Step-by-step tutorial with working code.</t>
   </si>
   <si>
@@ -13472,8 +13407,7 @@
     <t>kotlin-abstract-class</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Abstract Class
-A **Kotlin abstract class** is a special type of class that cannot be instantiated directly and serves as a blueprint for other classes. The **abstract keyword in Kotlin** is used to declare these classes, which can contain both abstract and concrete members. Unlike regular classes, **Kotlin abstract classes** are designed to be inherited by subclasses that must implement all abstract methods and properties defined in the parent abstract class.
+    <t xml:space="preserve">A **Kotlin abstract class** is a special type of class that cannot be instantiated directly and serves as a blueprint for other classes. The **abstract keyword in Kotlin** is used to declare these classes, which can contain both abstract and concrete members. Unlike regular classes, **Kotlin abstract classes** are designed to be inherited by subclasses that must implement all abstract methods and properties defined in the parent abstract class.
 The primary purpose of **Kotlin abstract class** is to provide a common template that multiple related classes can extend while enforcing certain methods to be implemented by child classes. This makes **Kotlin abstract classes** essential for creating well-structured, inheritance-based architectures in Android applications.
 ## Kotlin Abstract Class Syntax and Declaration
 To declare a **Kotlin abstract class**, you use the `abstract` keyword before the class definition. Here’s the basic syntax for **Kotlin abstract class declaration**:
@@ -14025,6 +13959,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Kotlin Sealed Class </t>
+  </si>
+  <si>
     <t>Learn Kotlin sealed classes for Android development with complete examples. Master state management, exhaustive when expressions, and type-safe hierarchies in this comprehensive guide.</t>
   </si>
   <si>
@@ -14034,8 +13971,7 @@
     <t>kotlin-sealed-class</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Sealed Classes
-**Kotlin sealed classes** are special types of classes that restrict their inheritance hierarchy to a predefined set of subclasses, all known at compile time. Unlike regular classes or enums, sealed classes provide controlled inheritance while maintaining the flexibility to hold different types of data and state information.
+    <t xml:space="preserve">**Kotlin sealed classes** are special types of classes that restrict their inheritance hierarchy to a predefined set of subclasses, all known at compile time. Unlike regular classes or enums, sealed classes provide controlled inheritance while maintaining the flexibility to hold different types of data and state information.
 ## What Are Kotlin Sealed Classes?
 A **sealed class** in Kotlin is a powerful feature that allows you to define a restricted class hierarchy where all possible subclasses are known at compile time. Think of sealed classes as “enums with superpowers” - they combine the safety of enums with the flexibility of regular classes.
 ### Key Properties of Sealed Classes
@@ -14529,6 +14465,9 @@
 </t>
   </si>
   <si>
+    <t>Kotlin Enum</t>
+  </si>
+  <si>
     <t>Learn Kotlin enum class with comprehensive examples for Android development. Master properties, methods, when expressions, and advanced features like interface implementation with practical code samples.</t>
   </si>
   <si>
@@ -14538,8 +14477,7 @@
     <t>kotlin-enum</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Enum Class
-The **kotlin enum class** is a special type of class that represents a fixed set of named constants. Each enum constant is essentially an object instance of the enum class, providing type safety and preventing invalid values from being assigned to variables. In Kotlin, enum classes are declared using the `enum class` keywords, distinguishing them from Java’s simple `enum` keyword.
+    <t xml:space="preserve">The **kotlin enum class** is a special type of class that represents a fixed set of named constants. Each enum constant is essentially an object instance of the enum class, providing type safety and preventing invalid values from being assigned to variables. In Kotlin, enum classes are declared using the `enum class` keywords, distinguishing them from Java’s simple `enum` keyword.
 ```kotlin
 enum class Direction {
     NORTH, SOUTH, EAST, WEST
@@ -15057,6 +14995,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Kotlin Companion Objects </t>
+  </si>
+  <si>
     <t>Learn Kotlin companion objects with comprehensive examples and practical code. Master static-like functionality, factory methods, properties, and advanced techniques in this complete guide for developers.</t>
   </si>
   <si>
@@ -15066,8 +15007,7 @@
     <t>kotlin-companion-objects</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Companion Objects
-A **Kotlin companion object** is a special type of object declaration that belongs to a class rather than to instances of that class. Think of Kotlin companion objects as a way to group related functionality that doesn’t require class instantiation. Unlike regular objects in Kotlin, companion objects are initialized when the containing class is first loaded, making them perfect for factory methods, constants, and utility functions.
+    <t xml:space="preserve">A **Kotlin companion object** is a special type of object declaration that belongs to a class rather than to instances of that class. Think of Kotlin companion objects as a way to group related functionality that doesn’t require class instantiation. Unlike regular objects in Kotlin, companion objects are initialized when the containing class is first loaded, making them perfect for factory methods, constants, and utility functions.
 The beauty of Kotlin companion objects lies in their ability to access private members of their containing class while providing a clean, organized way to implement static-like behavior. When you declare a companion object in Kotlin, you’re essentially creating a singleton object that’s tied to the class lifecycle.
 ## Basic Syntax of Kotlin Companion Objects
 The syntax for creating Kotlin companion objects is straightforward. You use the `companion object` keyword inside a class declaration:
@@ -15394,6 +15334,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Kotlin Null Safety </t>
+  </si>
+  <si>
     <t>Learn Kotlin null safety with comprehensive examples covering nullable types, safe call operators, Elvis operator, and null pointer exception prevention. Master Kotlin’s powerful null safety features.</t>
   </si>
   <si>
@@ -15403,8 +15346,7 @@
     <t>kotlin-null-safety</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Null Safety
-Kotlin null safety is a built-in language feature designed to eliminate null pointer exceptions (NPEs) at compile time. Unlike Java, where null pointer exceptions are runtime errors, Kotlin null safety provides compile-time checks that prevent most null-related crashes before your code even runs.
+    <t xml:space="preserve">Kotlin null safety is a built-in language feature designed to eliminate null pointer exceptions (NPEs) at compile time. Unlike Java, where null pointer exceptions are runtime errors, Kotlin null safety provides compile-time checks that prevent most null-related crashes before your code even runs.
 The Kotlin null safety system distinguishes between nullable and non-nullable types at the type system level. This means the compiler can catch potential null pointer exceptions during compilation, making your code more reliable and safer.
 ## Nullable vs Non-Nullable Types in Kotlin
 ### Non-Nullable Types
@@ -15695,6 +15637,9 @@
 </t>
   </si>
   <si>
+    <t>Kotlin Equality</t>
+  </si>
+  <si>
     <t>Learn Kotlin equality with our comprehensive guide covering structural and referential equality. Master == vs === operators, custom equals implementation, null safety, and data class comparisons with practical examples.</t>
   </si>
   <si>
@@ -15704,8 +15649,7 @@
     <t>kotlin-equality</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Equality
-**Kotlin equality** refers to the mechanism by which the Kotlin compiler determines whether two objects are considered equal. Unlike some programming languages that have only one type of equality, Kotlin provides two distinct types of equality comparisons: structural equality and referential equality.
+    <t xml:space="preserve">**Kotlin equality** refers to the mechanism by which the Kotlin compiler determines whether two objects are considered equal. Unlike some programming languages that have only one type of equality, Kotlin provides two distinct types of equality comparisons: structural equality and referential equality.
 Kotlin equality is implemented through specific operators and functions that allow developers to compare objects in different ways depending on their needs. The Kotlin equality system is designed to be intuitive while providing powerful flexibility for complex object comparisons.
 ## Structural Equality in Kotlin
 **Structural equality** in Kotlin determines whether two objects have the same content or value. This type of Kotlin equality is checked using the `==` operator, which internally calls the `equals()` function.
@@ -15945,6 +15889,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Kotlin Exception Handling </t>
+  </si>
+  <si>
     <t>Master Kotlin exception handling with comprehensive examples covering try-catch blocks, custom exceptions, coroutines, and sealed classes. Complete guide for building robust Kotlin applications with proper error management.</t>
   </si>
   <si>
@@ -15954,8 +15901,7 @@
     <t>kotlin-exception-handling</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Exception Handling
-Exception handling in Kotlin is a crucial skill every developer needs to master for building robust applications. Kotlin exception handling provides powerful mechanisms to manage runtime errors gracefully, ensuring your programs don’t crash unexpectedly. Whether you’re developing Android apps or server-side applications, understanding Kotlin exception handling will make your code more reliable and maintainable.
+    <t xml:space="preserve">Exception handling in Kotlin is a crucial skill every developer needs to master for building robust applications. Kotlin exception handling provides powerful mechanisms to manage runtime errors gracefully, ensuring your programs don’t crash unexpectedly. Whether you’re developing Android apps or server-side applications, understanding Kotlin exception handling will make your code more reliable and maintainable.
 In this comprehensive guide, we’ll explore every aspect of Kotlin exception handling, from basic try-catch blocks to advanced exception propagation techniques. You’ll learn how Kotlin’s exception handling differs from Java and discover practical patterns for handling exceptions in real-world scenarios.
 ## Understanding Kotlin Exception Handling Fundamentals
 Kotlin exception handling follows a structured approach to manage runtime errors. Unlike some programming languages, Kotlin treats all exceptions as unchecked exceptions, which means you’re not forced to catch them at compile time. This design choice makes Kotlin exception handling more flexible while maintaining code clarity.
@@ -16370,6 +16316,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Kotlin Regular Expression </t>
+  </si>
+  <si>
     <t>Learn Kotlin regular expressions with comprehensive examples and practical applications. Master Kotlin regex patterns, validation, string manipulation, and text processing for your programming projects.</t>
   </si>
   <si>
@@ -16379,8 +16328,7 @@
     <t>kotlin-regular-expressions</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Regular Expressions
-Kotlin regular expressions are powerful tools for pattern matching and text manipulation in Kotlin programming. Whether you’re validating user input, parsing data, or searching for specific patterns in strings, Kotlin regex provides an elegant solution. In this comprehensive guide, we’ll explore everything you need to know about Kotlin regular expressions, from basic syntax to advanced pattern matching techniques.
+    <t xml:space="preserve">Kotlin regular expressions are powerful tools for pattern matching and text manipulation in Kotlin programming. Whether you’re validating user input, parsing data, or searching for specific patterns in strings, Kotlin regex provides an elegant solution. In this comprehensive guide, we’ll explore everything you need to know about Kotlin regular expressions, from basic syntax to advanced pattern matching techniques.
 ## Understanding Kotlin Regular Expressions
 Kotlin regular expressions, commonly referred to as Kotlin regex, are sequences of characters that define search patterns. The Kotlin standard library provides robust support for regular expressions through the `Regex` class, making it easy to work with pattern matching in your Kotlin applications.
 ### Creating Regex Objects in Kotlin
@@ -16673,14 +16621,16 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Kotlin Ranges </t>
+  </si>
+  <si>
     <t>Learn Kotlin Ranges with comprehensive examples and practical applications. Master range operations, iterations, and implementations in this complete Kotlin programming guide for developers.</t>
   </si>
   <si>
     <t>Kotlin ranges, range operations, Kotlin programming, range iteration, IntRange, rangeTo operator, until function, downTo Kotlin, step function, range contains​​​​​​​​​​​​​​​​</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin Ranges
-Kotlin ranges are one of the most powerful and frequently used features in Kotlin programming. Whether you’re iterating through collections, checking if values fall within specific boundaries, or creating sequences of numbers, Kotlin ranges provide an elegant and concise way to handle these operations. Understanding Kotlin ranges is essential for any developer working with this modern programming language, as they form the foundation for many control flow structures and data manipulation tasks.
+    <t xml:space="preserve">Kotlin ranges are one of the most powerful and frequently used features in Kotlin programming. Whether you’re iterating through collections, checking if values fall within specific boundaries, or creating sequences of numbers, Kotlin ranges provide an elegant and concise way to handle these operations. Understanding Kotlin ranges is essential for any developer working with this modern programming language, as they form the foundation for many control flow structures and data manipulation tasks.
 ## What are Kotlin Ranges?
 Kotlin ranges represent a sequence of values with a defined start and end point. A range in Kotlin is created using the `..` operator (rangeTo) or the `until` function, and they implement the `ClosedRange` or `Range` interface. Kotlin ranges are particularly useful for creating intervals of comparable values like numbers, characters, or even custom objects that implement the `Comparable` interface.
 The beauty of Kotlin ranges lies in their versatility - you can use them in for loops, conditional statements, and various collection operations. Kotlin ranges support both inclusive and exclusive boundaries, making them flexible for different programming scenarios.
@@ -17014,6 +16964,9 @@
 </t>
   </si>
   <si>
+    <t>Kotlin This Expressions</t>
+  </si>
+  <si>
     <t>Master Kotlin this expression with comprehensive examples and explanations. Learn how to use this keyword in classes, extension functions, scope functions, and lambda expressions for better Kotlin programming.</t>
   </si>
   <si>
@@ -17023,8 +16976,7 @@
     <t>kotlin-this-expressions</t>
   </si>
   <si>
-    <t xml:space="preserve"># Kotlin This Expression
-**Kotlin this expression** represents a reference to the current receiver object in your code. The **this expression** provides access to the instance of the class, object, or function that is currently being executed. In Kotlin, **this expression** can refer to different receivers depending on the context where it’s used.
+    <t xml:space="preserve">**Kotlin this expression** represents a reference to the current receiver object in your code. The **this expression** provides access to the instance of the class, object, or function that is currently being executed. In Kotlin, **this expression** can refer to different receivers depending on the context where it’s used.
 The **Kotlin this expression** syntax is straightforward - you simply use the keyword `this` followed by an optional label when disambiguation is needed. The **this expression** automatically resolves to the nearest enclosing receiver, making it intuitive for developers familiar with object-oriented programming.
 ## Basic This Expression Usage
 ### Simple Class Context
@@ -17280,33 +17232,28 @@
 This example demonstrates how **Kotlin this expression** works across different contexts including class methods, companion objects, scope functions, inner classes, and lambda expressions. The **this expression** provides clear references to the appropriate receiver object in each scenario, making your Kotlin code more readable and maintainable.
 </t>
   </si>
-  <si>
-    <t>Kotlin This Expressions</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -17317,7 +17264,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -17327,54 +17274,50 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="8">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -17564,30 +17507,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="6.5"/>
+    <col customWidth="1" min="2" max="2" width="28.38"/>
+    <col customWidth="1" min="7" max="7" width="20.38"/>
+    <col customWidth="1" min="8" max="8" width="7.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17626,10 +17565,11 @@
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
-    </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y1" s="4"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
@@ -17644,15 +17584,15 @@
         <v>10</v>
       </c>
       <c r="F2" s="5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="5">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>12</v>
@@ -17667,15 +17607,15 @@
         <v>15</v>
       </c>
       <c r="F3" s="5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="5">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>17</v>
@@ -17690,15 +17630,15 @@
         <v>20</v>
       </c>
       <c r="F4" s="5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="5">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>22</v>
@@ -17713,15 +17653,15 @@
         <v>25</v>
       </c>
       <c r="F5" s="5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="5">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>27</v>
@@ -17736,15 +17676,15 @@
         <v>30</v>
       </c>
       <c r="F6" s="5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="5">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>32</v>
@@ -17759,15 +17699,15 @@
         <v>35</v>
       </c>
       <c r="F7" s="5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="5">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>37</v>
@@ -17782,15 +17722,15 @@
         <v>40</v>
       </c>
       <c r="F8" s="5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="5">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>42</v>
@@ -17805,15 +17745,15 @@
         <v>45</v>
       </c>
       <c r="F9" s="5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="5">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>47</v>
@@ -17828,15 +17768,15 @@
         <v>50</v>
       </c>
       <c r="F10" s="5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="5">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>52</v>
@@ -17851,708 +17791,708 @@
         <v>55</v>
       </c>
       <c r="F11" s="5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="5">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="5">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="5">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="5">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="5">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="F18" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="5" t="s">
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="F19" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="5" t="s">
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="5">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="F20" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="5" t="s">
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F21" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5" t="s">
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="5">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F22" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="5" t="s">
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="5">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="F23" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="5" t="s">
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="5">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="F24" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="5" t="s">
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="5">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="5">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F25" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F21" s="5">
-        <v>1</v>
-      </c>
-      <c r="G21" s="5" t="s">
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F22" s="5">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="F26" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="5" t="s">
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="5">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="5">
-        <v>1</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="F27" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="5" t="s">
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="5">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F24" s="5">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="F28" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="5" t="s">
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="5">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="5">
-        <v>1</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F29" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F26" s="5">
-        <v>1</v>
-      </c>
-      <c r="G26" s="5" t="s">
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="5">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F27" s="5">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="F30" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="5" t="s">
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F28" s="5">
-        <v>1</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="F31" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D29" s="5" t="s">
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="5">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F29" s="5">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="F32" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E30" s="5" t="s">
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="5">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F30" s="5">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F33" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F31" s="5">
-        <v>1</v>
-      </c>
-      <c r="G31" s="5" t="s">
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="5">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F32" s="5">
-        <v>1</v>
-      </c>
-      <c r="G32" s="5" t="s">
+      <c r="F34" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="5" t="s">
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="5">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F33" s="5">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="F35" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D34" s="5" t="s">
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="5">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="F34" s="5">
-        <v>1</v>
-      </c>
-      <c r="G34" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>34</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="F36" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E35" s="5" t="s">
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="5">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F35" s="5">
-        <v>1</v>
-      </c>
-      <c r="G35" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>35</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="F37" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F36" s="5">
-        <v>1</v>
-      </c>
-      <c r="G36" s="5" t="s">
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="5">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="F37" s="5">
-        <v>1</v>
-      </c>
-      <c r="G37" s="5" t="s">
+      <c r="F38" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="5" t="s">
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="5">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F38" s="5">
-        <v>1</v>
-      </c>
-      <c r="G38" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>38</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="F39" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D39" s="5" t="s">
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="5">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="F39" s="5">
-        <v>1</v>
-      </c>
-      <c r="G39" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>39</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="F40" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E40" s="5" t="s">
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="F40" s="5">
-        <v>1</v>
-      </c>
-      <c r="G40" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>40</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F41" s="5">
-        <v>1</v>
-      </c>
-      <c r="G41" s="5" t="s">
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="5">
+        <v>41.0</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>41</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>208</v>
@@ -18561,2901 +18501,2901 @@
         <v>209</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="F42" s="5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="5">
-        <v>42</v>
+        <v>42.0</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F43" s="5">
-        <v>1</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B54" s="6"/>
-    </row>
-    <row r="55" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B55" s="6"/>
-    </row>
-    <row r="56" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B56" s="6"/>
-    </row>
-    <row r="57" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B57" s="6"/>
-    </row>
-    <row r="58" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B58" s="6"/>
-    </row>
-    <row r="59" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B59" s="6"/>
-    </row>
-    <row r="60" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B60" s="6"/>
-    </row>
-    <row r="61" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B61" s="6"/>
-    </row>
-    <row r="62" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B62" s="6"/>
-    </row>
-    <row r="63" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B63" s="6"/>
-    </row>
-    <row r="64" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B64" s="6"/>
-    </row>
-    <row r="65" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B65" s="6"/>
-    </row>
-    <row r="66" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B66" s="6"/>
-    </row>
-    <row r="67" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B67" s="6"/>
-    </row>
-    <row r="68" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B68" s="6"/>
-    </row>
-    <row r="69" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B69" s="6"/>
-    </row>
-    <row r="70" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B70" s="6"/>
-    </row>
-    <row r="71" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B71" s="6"/>
-    </row>
-    <row r="72" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B72" s="6"/>
-    </row>
-    <row r="73" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B73" s="6"/>
-    </row>
-    <row r="74" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B74" s="6"/>
-    </row>
-    <row r="75" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B75" s="6"/>
-    </row>
-    <row r="76" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B76" s="6"/>
-    </row>
-    <row r="77" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B77" s="6"/>
-    </row>
-    <row r="78" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B78" s="6"/>
-    </row>
-    <row r="79" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B79" s="6"/>
-    </row>
-    <row r="80" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B80" s="6"/>
-    </row>
-    <row r="81" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B81" s="6"/>
-    </row>
-    <row r="82" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B82" s="6"/>
-    </row>
-    <row r="83" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B83" s="6"/>
-    </row>
-    <row r="84" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B84" s="6"/>
-    </row>
-    <row r="85" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B85" s="6"/>
-    </row>
-    <row r="86" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B86" s="6"/>
-    </row>
-    <row r="87" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B87" s="6"/>
-    </row>
-    <row r="88" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B88" s="6"/>
-    </row>
-    <row r="89" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B89" s="6"/>
-    </row>
-    <row r="90" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B90" s="6"/>
-    </row>
-    <row r="91" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B91" s="6"/>
-    </row>
-    <row r="92" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B92" s="6"/>
-    </row>
-    <row r="93" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B93" s="6"/>
-    </row>
-    <row r="94" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B94" s="6"/>
-    </row>
-    <row r="95" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B95" s="6"/>
-    </row>
-    <row r="96" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B96" s="6"/>
-    </row>
-    <row r="97" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B97" s="6"/>
-    </row>
-    <row r="98" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B98" s="6"/>
-    </row>
-    <row r="99" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B99" s="6"/>
-    </row>
-    <row r="100" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B100" s="6"/>
-    </row>
-    <row r="101" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B101" s="6"/>
-    </row>
-    <row r="102" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B102" s="6"/>
-    </row>
-    <row r="103" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B103" s="6"/>
-    </row>
-    <row r="104" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B104" s="6"/>
-    </row>
-    <row r="105" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B105" s="6"/>
-    </row>
-    <row r="106" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B106" s="6"/>
-    </row>
-    <row r="107" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B107" s="6"/>
-    </row>
-    <row r="108" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B108" s="6"/>
-    </row>
-    <row r="109" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B109" s="6"/>
-    </row>
-    <row r="110" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B110" s="6"/>
-    </row>
-    <row r="111" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B111" s="6"/>
-    </row>
-    <row r="112" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B112" s="6"/>
-    </row>
-    <row r="113" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B113" s="6"/>
-    </row>
-    <row r="114" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B114" s="6"/>
-    </row>
-    <row r="115" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B115" s="6"/>
-    </row>
-    <row r="116" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B116" s="6"/>
-    </row>
-    <row r="117" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B117" s="6"/>
-    </row>
-    <row r="118" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B118" s="6"/>
-    </row>
-    <row r="119" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B119" s="6"/>
-    </row>
-    <row r="120" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B120" s="6"/>
-    </row>
-    <row r="121" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B121" s="6"/>
-    </row>
-    <row r="122" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B122" s="6"/>
-    </row>
-    <row r="123" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B123" s="6"/>
-    </row>
-    <row r="124" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B124" s="6"/>
-    </row>
-    <row r="125" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B125" s="6"/>
-    </row>
-    <row r="126" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B126" s="6"/>
-    </row>
-    <row r="127" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B127" s="6"/>
-    </row>
-    <row r="128" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B128" s="6"/>
-    </row>
-    <row r="129" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B129" s="6"/>
-    </row>
-    <row r="130" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B130" s="6"/>
-    </row>
-    <row r="131" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B131" s="6"/>
-    </row>
-    <row r="132" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B132" s="6"/>
-    </row>
-    <row r="133" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B133" s="6"/>
-    </row>
-    <row r="134" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B134" s="6"/>
-    </row>
-    <row r="135" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B135" s="6"/>
-    </row>
-    <row r="136" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B136" s="6"/>
-    </row>
-    <row r="137" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B137" s="6"/>
-    </row>
-    <row r="138" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B138" s="6"/>
-    </row>
-    <row r="139" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B139" s="6"/>
-    </row>
-    <row r="140" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B140" s="6"/>
-    </row>
-    <row r="141" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B141" s="6"/>
-    </row>
-    <row r="142" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B142" s="6"/>
-    </row>
-    <row r="143" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B143" s="6"/>
-    </row>
-    <row r="144" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B144" s="6"/>
-    </row>
-    <row r="145" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B145" s="6"/>
-    </row>
-    <row r="146" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B146" s="6"/>
-    </row>
-    <row r="147" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B147" s="6"/>
-    </row>
-    <row r="148" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B148" s="6"/>
-    </row>
-    <row r="149" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B149" s="6"/>
-    </row>
-    <row r="150" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B150" s="6"/>
-    </row>
-    <row r="151" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B151" s="6"/>
-    </row>
-    <row r="152" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B152" s="6"/>
-    </row>
-    <row r="153" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B153" s="6"/>
-    </row>
-    <row r="154" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B154" s="6"/>
-    </row>
-    <row r="155" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B155" s="6"/>
-    </row>
-    <row r="156" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B156" s="6"/>
-    </row>
-    <row r="157" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B157" s="6"/>
-    </row>
-    <row r="158" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B158" s="6"/>
-    </row>
-    <row r="159" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B159" s="6"/>
-    </row>
-    <row r="160" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B160" s="6"/>
-    </row>
-    <row r="161" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B161" s="6"/>
-    </row>
-    <row r="162" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B162" s="6"/>
-    </row>
-    <row r="163" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B163" s="6"/>
-    </row>
-    <row r="164" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B164" s="6"/>
-    </row>
-    <row r="165" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B165" s="6"/>
-    </row>
-    <row r="166" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B166" s="6"/>
-    </row>
-    <row r="167" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B167" s="6"/>
-    </row>
-    <row r="168" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B168" s="6"/>
-    </row>
-    <row r="169" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B169" s="6"/>
-    </row>
-    <row r="170" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B170" s="6"/>
-    </row>
-    <row r="171" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B171" s="6"/>
-    </row>
-    <row r="172" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B172" s="6"/>
-    </row>
-    <row r="173" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B173" s="6"/>
-    </row>
-    <row r="174" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B174" s="6"/>
-    </row>
-    <row r="175" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B175" s="6"/>
-    </row>
-    <row r="176" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B176" s="6"/>
-    </row>
-    <row r="177" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B177" s="6"/>
-    </row>
-    <row r="178" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B178" s="6"/>
-    </row>
-    <row r="179" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B179" s="6"/>
-    </row>
-    <row r="180" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B180" s="6"/>
-    </row>
-    <row r="181" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B181" s="6"/>
-    </row>
-    <row r="182" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B182" s="6"/>
-    </row>
-    <row r="183" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B183" s="6"/>
-    </row>
-    <row r="184" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B184" s="6"/>
-    </row>
-    <row r="185" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B185" s="6"/>
-    </row>
-    <row r="186" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B186" s="6"/>
-    </row>
-    <row r="187" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B187" s="6"/>
-    </row>
-    <row r="188" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B188" s="6"/>
-    </row>
-    <row r="189" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B189" s="6"/>
-    </row>
-    <row r="190" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B190" s="6"/>
-    </row>
-    <row r="191" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B191" s="6"/>
-    </row>
-    <row r="192" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B192" s="6"/>
-    </row>
-    <row r="193" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B193" s="6"/>
-    </row>
-    <row r="194" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B194" s="6"/>
-    </row>
-    <row r="195" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B195" s="6"/>
-    </row>
-    <row r="196" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B196" s="6"/>
-    </row>
-    <row r="197" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B197" s="6"/>
-    </row>
-    <row r="198" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B198" s="6"/>
-    </row>
-    <row r="199" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B199" s="6"/>
-    </row>
-    <row r="200" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B200" s="6"/>
-    </row>
-    <row r="201" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B201" s="6"/>
-    </row>
-    <row r="202" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B202" s="6"/>
-    </row>
-    <row r="203" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B203" s="6"/>
-    </row>
-    <row r="204" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B204" s="6"/>
-    </row>
-    <row r="205" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B205" s="6"/>
-    </row>
-    <row r="206" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B206" s="6"/>
-    </row>
-    <row r="207" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B207" s="6"/>
-    </row>
-    <row r="208" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B208" s="6"/>
-    </row>
-    <row r="209" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B209" s="6"/>
-    </row>
-    <row r="210" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B210" s="6"/>
-    </row>
-    <row r="211" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B211" s="6"/>
-    </row>
-    <row r="212" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B212" s="6"/>
-    </row>
-    <row r="213" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B213" s="6"/>
-    </row>
-    <row r="214" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B214" s="6"/>
-    </row>
-    <row r="215" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B215" s="6"/>
-    </row>
-    <row r="216" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B216" s="6"/>
-    </row>
-    <row r="217" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B217" s="6"/>
-    </row>
-    <row r="218" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B218" s="6"/>
-    </row>
-    <row r="219" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B219" s="6"/>
-    </row>
-    <row r="220" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B220" s="6"/>
-    </row>
-    <row r="221" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B221" s="6"/>
-    </row>
-    <row r="222" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B222" s="6"/>
-    </row>
-    <row r="223" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B223" s="6"/>
-    </row>
-    <row r="224" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B224" s="6"/>
-    </row>
-    <row r="225" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B225" s="6"/>
-    </row>
-    <row r="226" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B226" s="6"/>
-    </row>
-    <row r="227" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B227" s="6"/>
-    </row>
-    <row r="228" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B228" s="6"/>
-    </row>
-    <row r="229" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B229" s="6"/>
-    </row>
-    <row r="230" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B230" s="6"/>
-    </row>
-    <row r="231" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B231" s="6"/>
-    </row>
-    <row r="232" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B232" s="6"/>
-    </row>
-    <row r="233" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B233" s="6"/>
-    </row>
-    <row r="234" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B234" s="6"/>
-    </row>
-    <row r="235" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B235" s="6"/>
-    </row>
-    <row r="236" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B236" s="6"/>
-    </row>
-    <row r="237" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B237" s="6"/>
-    </row>
-    <row r="238" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B238" s="6"/>
-    </row>
-    <row r="239" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B239" s="6"/>
-    </row>
-    <row r="240" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B240" s="6"/>
-    </row>
-    <row r="241" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B241" s="6"/>
-    </row>
-    <row r="242" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B242" s="6"/>
-    </row>
-    <row r="243" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B243" s="6"/>
-    </row>
-    <row r="244" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B244" s="6"/>
-    </row>
-    <row r="245" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B245" s="6"/>
-    </row>
-    <row r="246" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B246" s="6"/>
-    </row>
-    <row r="247" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B247" s="6"/>
-    </row>
-    <row r="248" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B248" s="6"/>
-    </row>
-    <row r="249" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B249" s="6"/>
-    </row>
-    <row r="250" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B250" s="6"/>
-    </row>
-    <row r="251" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B251" s="6"/>
-    </row>
-    <row r="252" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B252" s="6"/>
-    </row>
-    <row r="253" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B253" s="6"/>
-    </row>
-    <row r="254" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B254" s="6"/>
-    </row>
-    <row r="255" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B255" s="6"/>
-    </row>
-    <row r="256" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B256" s="6"/>
-    </row>
-    <row r="257" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B257" s="6"/>
-    </row>
-    <row r="258" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B258" s="6"/>
-    </row>
-    <row r="259" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B259" s="6"/>
-    </row>
-    <row r="260" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B260" s="6"/>
-    </row>
-    <row r="261" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B261" s="6"/>
-    </row>
-    <row r="262" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B262" s="6"/>
-    </row>
-    <row r="263" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B263" s="6"/>
-    </row>
-    <row r="264" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B264" s="6"/>
-    </row>
-    <row r="265" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B265" s="6"/>
-    </row>
-    <row r="266" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B266" s="6"/>
-    </row>
-    <row r="267" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B267" s="6"/>
-    </row>
-    <row r="268" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B268" s="6"/>
-    </row>
-    <row r="269" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B269" s="6"/>
-    </row>
-    <row r="270" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B270" s="6"/>
-    </row>
-    <row r="271" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B271" s="6"/>
-    </row>
-    <row r="272" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B272" s="6"/>
-    </row>
-    <row r="273" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B273" s="6"/>
-    </row>
-    <row r="274" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B274" s="6"/>
-    </row>
-    <row r="275" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B275" s="6"/>
-    </row>
-    <row r="276" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B276" s="6"/>
-    </row>
-    <row r="277" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B277" s="6"/>
-    </row>
-    <row r="278" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B278" s="6"/>
-    </row>
-    <row r="279" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B279" s="6"/>
-    </row>
-    <row r="280" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B280" s="6"/>
-    </row>
-    <row r="281" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B281" s="6"/>
-    </row>
-    <row r="282" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B282" s="6"/>
-    </row>
-    <row r="283" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B283" s="6"/>
-    </row>
-    <row r="284" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B284" s="6"/>
-    </row>
-    <row r="285" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B285" s="6"/>
-    </row>
-    <row r="286" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B286" s="6"/>
-    </row>
-    <row r="287" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B287" s="6"/>
-    </row>
-    <row r="288" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B288" s="6"/>
-    </row>
-    <row r="289" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B289" s="6"/>
-    </row>
-    <row r="290" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B290" s="6"/>
-    </row>
-    <row r="291" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B291" s="6"/>
-    </row>
-    <row r="292" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B292" s="6"/>
-    </row>
-    <row r="293" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B293" s="6"/>
-    </row>
-    <row r="294" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B294" s="6"/>
-    </row>
-    <row r="295" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B295" s="6"/>
-    </row>
-    <row r="296" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B296" s="6"/>
-    </row>
-    <row r="297" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B297" s="6"/>
-    </row>
-    <row r="298" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B298" s="6"/>
-    </row>
-    <row r="299" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B299" s="6"/>
-    </row>
-    <row r="300" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B300" s="6"/>
-    </row>
-    <row r="301" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B301" s="6"/>
-    </row>
-    <row r="302" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B302" s="6"/>
-    </row>
-    <row r="303" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B303" s="6"/>
-    </row>
-    <row r="304" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B304" s="6"/>
-    </row>
-    <row r="305" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B305" s="6"/>
-    </row>
-    <row r="306" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B306" s="6"/>
-    </row>
-    <row r="307" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B307" s="6"/>
-    </row>
-    <row r="308" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B308" s="6"/>
-    </row>
-    <row r="309" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B309" s="6"/>
-    </row>
-    <row r="310" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B310" s="6"/>
-    </row>
-    <row r="311" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B311" s="6"/>
-    </row>
-    <row r="312" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B312" s="6"/>
-    </row>
-    <row r="313" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B313" s="6"/>
-    </row>
-    <row r="314" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B314" s="6"/>
-    </row>
-    <row r="315" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B315" s="6"/>
-    </row>
-    <row r="316" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B316" s="6"/>
-    </row>
-    <row r="317" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B317" s="6"/>
-    </row>
-    <row r="318" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B318" s="6"/>
-    </row>
-    <row r="319" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B319" s="6"/>
-    </row>
-    <row r="320" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B320" s="6"/>
-    </row>
-    <row r="321" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B321" s="6"/>
-    </row>
-    <row r="322" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B322" s="6"/>
-    </row>
-    <row r="323" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B323" s="6"/>
-    </row>
-    <row r="324" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B324" s="6"/>
-    </row>
-    <row r="325" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B325" s="6"/>
-    </row>
-    <row r="326" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B326" s="6"/>
-    </row>
-    <row r="327" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B327" s="6"/>
-    </row>
-    <row r="328" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B328" s="6"/>
-    </row>
-    <row r="329" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B329" s="6"/>
-    </row>
-    <row r="330" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B330" s="6"/>
-    </row>
-    <row r="331" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B331" s="6"/>
-    </row>
-    <row r="332" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B332" s="6"/>
-    </row>
-    <row r="333" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B333" s="6"/>
-    </row>
-    <row r="334" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B334" s="6"/>
-    </row>
-    <row r="335" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B335" s="6"/>
-    </row>
-    <row r="336" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B336" s="6"/>
-    </row>
-    <row r="337" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B337" s="6"/>
-    </row>
-    <row r="338" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B338" s="6"/>
-    </row>
-    <row r="339" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B339" s="6"/>
-    </row>
-    <row r="340" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B340" s="6"/>
-    </row>
-    <row r="341" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B341" s="6"/>
-    </row>
-    <row r="342" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B342" s="6"/>
-    </row>
-    <row r="343" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B343" s="6"/>
-    </row>
-    <row r="344" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B344" s="6"/>
-    </row>
-    <row r="345" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B345" s="6"/>
-    </row>
-    <row r="346" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B346" s="6"/>
-    </row>
-    <row r="347" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B347" s="6"/>
-    </row>
-    <row r="348" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B348" s="6"/>
-    </row>
-    <row r="349" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B349" s="6"/>
-    </row>
-    <row r="350" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B350" s="6"/>
-    </row>
-    <row r="351" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B351" s="6"/>
-    </row>
-    <row r="352" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B352" s="6"/>
-    </row>
-    <row r="353" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B353" s="6"/>
-    </row>
-    <row r="354" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B354" s="6"/>
-    </row>
-    <row r="355" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B355" s="6"/>
-    </row>
-    <row r="356" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B356" s="6"/>
-    </row>
-    <row r="357" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B357" s="6"/>
-    </row>
-    <row r="358" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B358" s="6"/>
-    </row>
-    <row r="359" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B359" s="6"/>
-    </row>
-    <row r="360" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B360" s="6"/>
-    </row>
-    <row r="361" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B361" s="6"/>
-    </row>
-    <row r="362" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B362" s="6"/>
-    </row>
-    <row r="363" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B363" s="6"/>
-    </row>
-    <row r="364" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B364" s="6"/>
-    </row>
-    <row r="365" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B365" s="6"/>
-    </row>
-    <row r="366" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B366" s="6"/>
-    </row>
-    <row r="367" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B367" s="6"/>
-    </row>
-    <row r="368" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B368" s="6"/>
-    </row>
-    <row r="369" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B369" s="6"/>
-    </row>
-    <row r="370" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B370" s="6"/>
-    </row>
-    <row r="371" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B371" s="6"/>
-    </row>
-    <row r="372" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B372" s="6"/>
-    </row>
-    <row r="373" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B373" s="6"/>
-    </row>
-    <row r="374" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B374" s="6"/>
-    </row>
-    <row r="375" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B375" s="6"/>
-    </row>
-    <row r="376" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B376" s="6"/>
-    </row>
-    <row r="377" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B377" s="6"/>
-    </row>
-    <row r="378" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B378" s="6"/>
-    </row>
-    <row r="379" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B379" s="6"/>
-    </row>
-    <row r="380" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B380" s="6"/>
-    </row>
-    <row r="381" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B381" s="6"/>
-    </row>
-    <row r="382" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B382" s="6"/>
-    </row>
-    <row r="383" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B383" s="6"/>
-    </row>
-    <row r="384" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B384" s="6"/>
-    </row>
-    <row r="385" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B385" s="6"/>
-    </row>
-    <row r="386" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B386" s="6"/>
-    </row>
-    <row r="387" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B387" s="6"/>
-    </row>
-    <row r="388" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B388" s="6"/>
-    </row>
-    <row r="389" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B389" s="6"/>
-    </row>
-    <row r="390" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B390" s="6"/>
-    </row>
-    <row r="391" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B391" s="6"/>
-    </row>
-    <row r="392" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B392" s="6"/>
-    </row>
-    <row r="393" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B393" s="6"/>
-    </row>
-    <row r="394" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B394" s="6"/>
-    </row>
-    <row r="395" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B395" s="6"/>
-    </row>
-    <row r="396" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B396" s="6"/>
-    </row>
-    <row r="397" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B397" s="6"/>
-    </row>
-    <row r="398" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B398" s="6"/>
-    </row>
-    <row r="399" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B399" s="6"/>
-    </row>
-    <row r="400" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B400" s="6"/>
-    </row>
-    <row r="401" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B401" s="6"/>
-    </row>
-    <row r="402" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B402" s="6"/>
-    </row>
-    <row r="403" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B403" s="6"/>
-    </row>
-    <row r="404" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B404" s="6"/>
-    </row>
-    <row r="405" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B405" s="6"/>
-    </row>
-    <row r="406" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B406" s="6"/>
-    </row>
-    <row r="407" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B407" s="6"/>
-    </row>
-    <row r="408" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B408" s="6"/>
-    </row>
-    <row r="409" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B409" s="6"/>
-    </row>
-    <row r="410" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B410" s="6"/>
-    </row>
-    <row r="411" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B411" s="6"/>
-    </row>
-    <row r="412" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B412" s="6"/>
-    </row>
-    <row r="413" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B413" s="6"/>
-    </row>
-    <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B414" s="6"/>
-    </row>
-    <row r="415" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B415" s="6"/>
-    </row>
-    <row r="416" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B416" s="6"/>
-    </row>
-    <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B417" s="6"/>
-    </row>
-    <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B418" s="6"/>
-    </row>
-    <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B419" s="6"/>
-    </row>
-    <row r="420" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B420" s="6"/>
-    </row>
-    <row r="421" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B421" s="6"/>
-    </row>
-    <row r="422" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B422" s="6"/>
-    </row>
-    <row r="423" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B423" s="6"/>
-    </row>
-    <row r="424" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B424" s="6"/>
-    </row>
-    <row r="425" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B425" s="6"/>
-    </row>
-    <row r="426" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B426" s="6"/>
-    </row>
-    <row r="427" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B427" s="6"/>
-    </row>
-    <row r="428" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B428" s="6"/>
-    </row>
-    <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B429" s="6"/>
-    </row>
-    <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B430" s="6"/>
-    </row>
-    <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B431" s="6"/>
-    </row>
-    <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B432" s="6"/>
-    </row>
-    <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B433" s="6"/>
-    </row>
-    <row r="434" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B434" s="6"/>
-    </row>
-    <row r="435" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B435" s="6"/>
-    </row>
-    <row r="436" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B436" s="6"/>
-    </row>
-    <row r="437" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B437" s="6"/>
-    </row>
-    <row r="438" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B438" s="6"/>
-    </row>
-    <row r="439" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B439" s="6"/>
-    </row>
-    <row r="440" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B440" s="6"/>
-    </row>
-    <row r="441" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B441" s="6"/>
-    </row>
-    <row r="442" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B442" s="6"/>
-    </row>
-    <row r="443" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B443" s="6"/>
-    </row>
-    <row r="444" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B444" s="6"/>
-    </row>
-    <row r="445" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B445" s="6"/>
-    </row>
-    <row r="446" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B446" s="6"/>
-    </row>
-    <row r="447" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B447" s="6"/>
-    </row>
-    <row r="448" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B448" s="6"/>
-    </row>
-    <row r="449" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B449" s="6"/>
-    </row>
-    <row r="450" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B450" s="6"/>
-    </row>
-    <row r="451" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B451" s="6"/>
-    </row>
-    <row r="452" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B452" s="6"/>
-    </row>
-    <row r="453" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B453" s="6"/>
-    </row>
-    <row r="454" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B454" s="6"/>
-    </row>
-    <row r="455" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B455" s="6"/>
-    </row>
-    <row r="456" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B456" s="6"/>
-    </row>
-    <row r="457" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B457" s="6"/>
-    </row>
-    <row r="458" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B458" s="6"/>
-    </row>
-    <row r="459" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B459" s="6"/>
-    </row>
-    <row r="460" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B460" s="6"/>
-    </row>
-    <row r="461" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B461" s="6"/>
-    </row>
-    <row r="462" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B462" s="6"/>
-    </row>
-    <row r="463" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B463" s="6"/>
-    </row>
-    <row r="464" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B464" s="6"/>
-    </row>
-    <row r="465" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B465" s="6"/>
-    </row>
-    <row r="466" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B466" s="6"/>
-    </row>
-    <row r="467" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B467" s="6"/>
-    </row>
-    <row r="468" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B468" s="6"/>
-    </row>
-    <row r="469" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B469" s="6"/>
-    </row>
-    <row r="470" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B470" s="6"/>
-    </row>
-    <row r="471" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B471" s="6"/>
-    </row>
-    <row r="472" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B472" s="6"/>
-    </row>
-    <row r="473" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B473" s="6"/>
-    </row>
-    <row r="474" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B474" s="6"/>
-    </row>
-    <row r="475" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B475" s="6"/>
-    </row>
-    <row r="476" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B476" s="6"/>
-    </row>
-    <row r="477" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B477" s="6"/>
-    </row>
-    <row r="478" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B478" s="6"/>
-    </row>
-    <row r="479" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B479" s="6"/>
-    </row>
-    <row r="480" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B480" s="6"/>
-    </row>
-    <row r="481" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B481" s="6"/>
-    </row>
-    <row r="482" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B482" s="6"/>
-    </row>
-    <row r="483" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B483" s="6"/>
-    </row>
-    <row r="484" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B484" s="6"/>
-    </row>
-    <row r="485" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B485" s="6"/>
-    </row>
-    <row r="486" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B486" s="6"/>
-    </row>
-    <row r="487" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B487" s="6"/>
-    </row>
-    <row r="488" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B488" s="6"/>
-    </row>
-    <row r="489" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B489" s="6"/>
-    </row>
-    <row r="490" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B490" s="6"/>
-    </row>
-    <row r="491" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B491" s="6"/>
-    </row>
-    <row r="492" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B492" s="6"/>
-    </row>
-    <row r="493" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B493" s="6"/>
-    </row>
-    <row r="494" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B494" s="6"/>
-    </row>
-    <row r="495" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B495" s="6"/>
-    </row>
-    <row r="496" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B496" s="6"/>
-    </row>
-    <row r="497" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B497" s="6"/>
-    </row>
-    <row r="498" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B498" s="6"/>
-    </row>
-    <row r="499" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B499" s="6"/>
-    </row>
-    <row r="500" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B500" s="6"/>
-    </row>
-    <row r="501" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B501" s="6"/>
-    </row>
-    <row r="502" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B502" s="6"/>
-    </row>
-    <row r="503" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B503" s="6"/>
-    </row>
-    <row r="504" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B504" s="6"/>
-    </row>
-    <row r="505" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B505" s="6"/>
-    </row>
-    <row r="506" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B506" s="6"/>
-    </row>
-    <row r="507" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B507" s="6"/>
-    </row>
-    <row r="508" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B508" s="6"/>
-    </row>
-    <row r="509" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B509" s="6"/>
-    </row>
-    <row r="510" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B510" s="6"/>
-    </row>
-    <row r="511" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B511" s="6"/>
-    </row>
-    <row r="512" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B512" s="6"/>
-    </row>
-    <row r="513" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B513" s="6"/>
-    </row>
-    <row r="514" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B514" s="6"/>
-    </row>
-    <row r="515" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B515" s="6"/>
-    </row>
-    <row r="516" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B516" s="6"/>
-    </row>
-    <row r="517" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B517" s="6"/>
-    </row>
-    <row r="518" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B518" s="6"/>
-    </row>
-    <row r="519" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B519" s="6"/>
-    </row>
-    <row r="520" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B520" s="6"/>
-    </row>
-    <row r="521" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B521" s="6"/>
-    </row>
-    <row r="522" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B522" s="6"/>
-    </row>
-    <row r="523" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B523" s="6"/>
-    </row>
-    <row r="524" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B524" s="6"/>
-    </row>
-    <row r="525" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B525" s="6"/>
-    </row>
-    <row r="526" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B526" s="6"/>
-    </row>
-    <row r="527" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B527" s="6"/>
-    </row>
-    <row r="528" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B528" s="6"/>
-    </row>
-    <row r="529" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B529" s="6"/>
-    </row>
-    <row r="530" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B530" s="6"/>
-    </row>
-    <row r="531" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B531" s="6"/>
-    </row>
-    <row r="532" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B532" s="6"/>
-    </row>
-    <row r="533" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B533" s="6"/>
-    </row>
-    <row r="534" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B534" s="6"/>
-    </row>
-    <row r="535" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B535" s="6"/>
-    </row>
-    <row r="536" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B536" s="6"/>
-    </row>
-    <row r="537" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B537" s="6"/>
-    </row>
-    <row r="538" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B538" s="6"/>
-    </row>
-    <row r="539" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B539" s="6"/>
-    </row>
-    <row r="540" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B540" s="6"/>
-    </row>
-    <row r="541" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B541" s="6"/>
-    </row>
-    <row r="542" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B542" s="6"/>
-    </row>
-    <row r="543" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B543" s="6"/>
-    </row>
-    <row r="544" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B544" s="6"/>
-    </row>
-    <row r="545" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B545" s="6"/>
-    </row>
-    <row r="546" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B546" s="6"/>
-    </row>
-    <row r="547" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B547" s="6"/>
-    </row>
-    <row r="548" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B548" s="6"/>
-    </row>
-    <row r="549" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B549" s="6"/>
-    </row>
-    <row r="550" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B550" s="6"/>
-    </row>
-    <row r="551" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B551" s="6"/>
-    </row>
-    <row r="552" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B552" s="6"/>
-    </row>
-    <row r="553" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B553" s="6"/>
-    </row>
-    <row r="554" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B554" s="6"/>
-    </row>
-    <row r="555" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B555" s="6"/>
-    </row>
-    <row r="556" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B556" s="6"/>
-    </row>
-    <row r="557" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B557" s="6"/>
-    </row>
-    <row r="558" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B558" s="6"/>
-    </row>
-    <row r="559" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B559" s="6"/>
-    </row>
-    <row r="560" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B560" s="6"/>
-    </row>
-    <row r="561" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B561" s="6"/>
-    </row>
-    <row r="562" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B562" s="6"/>
-    </row>
-    <row r="563" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B563" s="6"/>
-    </row>
-    <row r="564" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B564" s="6"/>
-    </row>
-    <row r="565" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B565" s="6"/>
-    </row>
-    <row r="566" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B566" s="6"/>
-    </row>
-    <row r="567" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B567" s="6"/>
-    </row>
-    <row r="568" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B568" s="6"/>
-    </row>
-    <row r="569" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B569" s="6"/>
-    </row>
-    <row r="570" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B570" s="6"/>
-    </row>
-    <row r="571" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B571" s="6"/>
-    </row>
-    <row r="572" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B572" s="6"/>
-    </row>
-    <row r="573" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B573" s="6"/>
-    </row>
-    <row r="574" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B574" s="6"/>
-    </row>
-    <row r="575" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B575" s="6"/>
-    </row>
-    <row r="576" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B576" s="6"/>
-    </row>
-    <row r="577" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B577" s="6"/>
-    </row>
-    <row r="578" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B578" s="6"/>
-    </row>
-    <row r="579" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B579" s="6"/>
-    </row>
-    <row r="580" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B580" s="6"/>
-    </row>
-    <row r="581" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B581" s="6"/>
-    </row>
-    <row r="582" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B582" s="6"/>
-    </row>
-    <row r="583" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B583" s="6"/>
-    </row>
-    <row r="584" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B584" s="6"/>
-    </row>
-    <row r="585" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B585" s="6"/>
-    </row>
-    <row r="586" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B586" s="6"/>
-    </row>
-    <row r="587" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B587" s="6"/>
-    </row>
-    <row r="588" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B588" s="6"/>
-    </row>
-    <row r="589" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B589" s="6"/>
-    </row>
-    <row r="590" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B590" s="6"/>
-    </row>
-    <row r="591" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B591" s="6"/>
-    </row>
-    <row r="592" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B592" s="6"/>
-    </row>
-    <row r="593" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B593" s="6"/>
-    </row>
-    <row r="594" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B594" s="6"/>
-    </row>
-    <row r="595" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B595" s="6"/>
-    </row>
-    <row r="596" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B596" s="6"/>
-    </row>
-    <row r="597" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B597" s="6"/>
-    </row>
-    <row r="598" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B598" s="6"/>
-    </row>
-    <row r="599" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B599" s="6"/>
-    </row>
-    <row r="600" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B600" s="6"/>
-    </row>
-    <row r="601" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B601" s="6"/>
-    </row>
-    <row r="602" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B602" s="6"/>
-    </row>
-    <row r="603" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B603" s="6"/>
-    </row>
-    <row r="604" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B604" s="6"/>
-    </row>
-    <row r="605" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B605" s="6"/>
-    </row>
-    <row r="606" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B606" s="6"/>
-    </row>
-    <row r="607" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B607" s="6"/>
-    </row>
-    <row r="608" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B608" s="6"/>
-    </row>
-    <row r="609" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B609" s="6"/>
-    </row>
-    <row r="610" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B610" s="6"/>
-    </row>
-    <row r="611" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B611" s="6"/>
-    </row>
-    <row r="612" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B612" s="6"/>
-    </row>
-    <row r="613" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B613" s="6"/>
-    </row>
-    <row r="614" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B614" s="6"/>
-    </row>
-    <row r="615" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B615" s="6"/>
-    </row>
-    <row r="616" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B616" s="6"/>
-    </row>
-    <row r="617" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B617" s="6"/>
-    </row>
-    <row r="618" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B618" s="6"/>
-    </row>
-    <row r="619" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B619" s="6"/>
-    </row>
-    <row r="620" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B620" s="6"/>
-    </row>
-    <row r="621" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B621" s="6"/>
-    </row>
-    <row r="622" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B622" s="6"/>
-    </row>
-    <row r="623" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B623" s="6"/>
-    </row>
-    <row r="624" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B624" s="6"/>
-    </row>
-    <row r="625" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B625" s="6"/>
-    </row>
-    <row r="626" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B626" s="6"/>
-    </row>
-    <row r="627" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B627" s="6"/>
-    </row>
-    <row r="628" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B628" s="6"/>
-    </row>
-    <row r="629" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B629" s="6"/>
-    </row>
-    <row r="630" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B630" s="6"/>
-    </row>
-    <row r="631" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B631" s="6"/>
-    </row>
-    <row r="632" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B632" s="6"/>
-    </row>
-    <row r="633" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B633" s="6"/>
-    </row>
-    <row r="634" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B634" s="6"/>
-    </row>
-    <row r="635" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B635" s="6"/>
-    </row>
-    <row r="636" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B636" s="6"/>
-    </row>
-    <row r="637" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B637" s="6"/>
-    </row>
-    <row r="638" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B638" s="6"/>
-    </row>
-    <row r="639" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B639" s="6"/>
-    </row>
-    <row r="640" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B640" s="6"/>
-    </row>
-    <row r="641" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B641" s="6"/>
-    </row>
-    <row r="642" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B642" s="6"/>
-    </row>
-    <row r="643" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B643" s="6"/>
-    </row>
-    <row r="644" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B644" s="6"/>
-    </row>
-    <row r="645" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B645" s="6"/>
-    </row>
-    <row r="646" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B646" s="6"/>
-    </row>
-    <row r="647" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B647" s="6"/>
-    </row>
-    <row r="648" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B648" s="6"/>
-    </row>
-    <row r="649" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B649" s="6"/>
-    </row>
-    <row r="650" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B650" s="6"/>
-    </row>
-    <row r="651" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B651" s="6"/>
-    </row>
-    <row r="652" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B652" s="6"/>
-    </row>
-    <row r="653" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B653" s="6"/>
-    </row>
-    <row r="654" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B654" s="6"/>
-    </row>
-    <row r="655" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B655" s="6"/>
-    </row>
-    <row r="656" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B656" s="6"/>
-    </row>
-    <row r="657" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B657" s="6"/>
-    </row>
-    <row r="658" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B658" s="6"/>
-    </row>
-    <row r="659" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B659" s="6"/>
-    </row>
-    <row r="660" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B660" s="6"/>
-    </row>
-    <row r="661" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B661" s="6"/>
-    </row>
-    <row r="662" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B662" s="6"/>
-    </row>
-    <row r="663" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B663" s="6"/>
-    </row>
-    <row r="664" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B664" s="6"/>
-    </row>
-    <row r="665" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B665" s="6"/>
-    </row>
-    <row r="666" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B666" s="6"/>
-    </row>
-    <row r="667" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B667" s="6"/>
-    </row>
-    <row r="668" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B668" s="6"/>
-    </row>
-    <row r="669" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B669" s="6"/>
-    </row>
-    <row r="670" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B670" s="6"/>
-    </row>
-    <row r="671" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B671" s="6"/>
-    </row>
-    <row r="672" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B672" s="6"/>
-    </row>
-    <row r="673" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B673" s="6"/>
-    </row>
-    <row r="674" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B674" s="6"/>
-    </row>
-    <row r="675" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B675" s="6"/>
-    </row>
-    <row r="676" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B676" s="6"/>
-    </row>
-    <row r="677" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B677" s="6"/>
-    </row>
-    <row r="678" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B678" s="6"/>
-    </row>
-    <row r="679" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B679" s="6"/>
-    </row>
-    <row r="680" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B680" s="6"/>
-    </row>
-    <row r="681" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B681" s="6"/>
-    </row>
-    <row r="682" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B682" s="6"/>
-    </row>
-    <row r="683" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B683" s="6"/>
-    </row>
-    <row r="684" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B684" s="6"/>
-    </row>
-    <row r="685" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B685" s="6"/>
-    </row>
-    <row r="686" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B686" s="6"/>
-    </row>
-    <row r="687" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B687" s="6"/>
-    </row>
-    <row r="688" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B688" s="6"/>
-    </row>
-    <row r="689" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B689" s="6"/>
-    </row>
-    <row r="690" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B690" s="6"/>
-    </row>
-    <row r="691" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B691" s="6"/>
-    </row>
-    <row r="692" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B692" s="6"/>
-    </row>
-    <row r="693" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B693" s="6"/>
-    </row>
-    <row r="694" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B694" s="6"/>
-    </row>
-    <row r="695" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B695" s="6"/>
-    </row>
-    <row r="696" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B696" s="6"/>
-    </row>
-    <row r="697" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B697" s="6"/>
-    </row>
-    <row r="698" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B698" s="6"/>
-    </row>
-    <row r="699" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B699" s="6"/>
-    </row>
-    <row r="700" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B700" s="6"/>
-    </row>
-    <row r="701" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B701" s="6"/>
-    </row>
-    <row r="702" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B702" s="6"/>
-    </row>
-    <row r="703" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B703" s="6"/>
-    </row>
-    <row r="704" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B704" s="6"/>
-    </row>
-    <row r="705" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B705" s="6"/>
-    </row>
-    <row r="706" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B706" s="6"/>
-    </row>
-    <row r="707" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B707" s="6"/>
-    </row>
-    <row r="708" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B708" s="6"/>
-    </row>
-    <row r="709" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B709" s="6"/>
-    </row>
-    <row r="710" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B710" s="6"/>
-    </row>
-    <row r="711" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B711" s="6"/>
-    </row>
-    <row r="712" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B712" s="6"/>
-    </row>
-    <row r="713" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B713" s="6"/>
-    </row>
-    <row r="714" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B714" s="6"/>
-    </row>
-    <row r="715" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B715" s="6"/>
-    </row>
-    <row r="716" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B716" s="6"/>
-    </row>
-    <row r="717" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B717" s="6"/>
-    </row>
-    <row r="718" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B718" s="6"/>
-    </row>
-    <row r="719" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B719" s="6"/>
-    </row>
-    <row r="720" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B720" s="6"/>
-    </row>
-    <row r="721" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B721" s="6"/>
-    </row>
-    <row r="722" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B722" s="6"/>
-    </row>
-    <row r="723" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B723" s="6"/>
-    </row>
-    <row r="724" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B724" s="6"/>
-    </row>
-    <row r="725" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B725" s="6"/>
-    </row>
-    <row r="726" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B726" s="6"/>
-    </row>
-    <row r="727" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B727" s="6"/>
-    </row>
-    <row r="728" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B728" s="6"/>
-    </row>
-    <row r="729" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B729" s="6"/>
-    </row>
-    <row r="730" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B730" s="6"/>
-    </row>
-    <row r="731" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B731" s="6"/>
-    </row>
-    <row r="732" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B732" s="6"/>
-    </row>
-    <row r="733" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B733" s="6"/>
-    </row>
-    <row r="734" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B734" s="6"/>
-    </row>
-    <row r="735" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B735" s="6"/>
-    </row>
-    <row r="736" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B736" s="6"/>
-    </row>
-    <row r="737" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B737" s="6"/>
-    </row>
-    <row r="738" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B738" s="6"/>
-    </row>
-    <row r="739" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B739" s="6"/>
-    </row>
-    <row r="740" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B740" s="6"/>
-    </row>
-    <row r="741" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B741" s="6"/>
-    </row>
-    <row r="742" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B742" s="6"/>
-    </row>
-    <row r="743" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B743" s="6"/>
-    </row>
-    <row r="744" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B744" s="6"/>
-    </row>
-    <row r="745" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B745" s="6"/>
-    </row>
-    <row r="746" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B746" s="6"/>
-    </row>
-    <row r="747" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B747" s="6"/>
-    </row>
-    <row r="748" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B748" s="6"/>
-    </row>
-    <row r="749" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B749" s="6"/>
-    </row>
-    <row r="750" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B750" s="6"/>
-    </row>
-    <row r="751" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B751" s="6"/>
-    </row>
-    <row r="752" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B752" s="6"/>
-    </row>
-    <row r="753" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B753" s="6"/>
-    </row>
-    <row r="754" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B754" s="6"/>
-    </row>
-    <row r="755" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B755" s="6"/>
-    </row>
-    <row r="756" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B756" s="6"/>
-    </row>
-    <row r="757" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B757" s="6"/>
-    </row>
-    <row r="758" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B758" s="6"/>
-    </row>
-    <row r="759" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B759" s="6"/>
-    </row>
-    <row r="760" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B760" s="6"/>
-    </row>
-    <row r="761" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B761" s="6"/>
-    </row>
-    <row r="762" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B762" s="6"/>
-    </row>
-    <row r="763" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B763" s="6"/>
-    </row>
-    <row r="764" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B764" s="6"/>
-    </row>
-    <row r="765" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B765" s="6"/>
-    </row>
-    <row r="766" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B766" s="6"/>
-    </row>
-    <row r="767" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B767" s="6"/>
-    </row>
-    <row r="768" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B768" s="6"/>
-    </row>
-    <row r="769" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B769" s="6"/>
-    </row>
-    <row r="770" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B770" s="6"/>
-    </row>
-    <row r="771" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B771" s="6"/>
-    </row>
-    <row r="772" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B772" s="6"/>
-    </row>
-    <row r="773" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B773" s="6"/>
-    </row>
-    <row r="774" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B774" s="6"/>
-    </row>
-    <row r="775" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B775" s="6"/>
-    </row>
-    <row r="776" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B776" s="6"/>
-    </row>
-    <row r="777" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B777" s="6"/>
-    </row>
-    <row r="778" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B778" s="6"/>
-    </row>
-    <row r="779" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B779" s="6"/>
-    </row>
-    <row r="780" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B780" s="6"/>
-    </row>
-    <row r="781" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B781" s="6"/>
-    </row>
-    <row r="782" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B782" s="6"/>
-    </row>
-    <row r="783" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B783" s="6"/>
-    </row>
-    <row r="784" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B784" s="6"/>
-    </row>
-    <row r="785" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B785" s="6"/>
-    </row>
-    <row r="786" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B786" s="6"/>
-    </row>
-    <row r="787" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B787" s="6"/>
-    </row>
-    <row r="788" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B788" s="6"/>
-    </row>
-    <row r="789" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B789" s="6"/>
-    </row>
-    <row r="790" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B790" s="6"/>
-    </row>
-    <row r="791" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B791" s="6"/>
-    </row>
-    <row r="792" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B792" s="6"/>
-    </row>
-    <row r="793" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B793" s="6"/>
-    </row>
-    <row r="794" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B794" s="6"/>
-    </row>
-    <row r="795" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B795" s="6"/>
-    </row>
-    <row r="796" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B796" s="6"/>
-    </row>
-    <row r="797" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B797" s="6"/>
-    </row>
-    <row r="798" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B798" s="6"/>
-    </row>
-    <row r="799" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B799" s="6"/>
-    </row>
-    <row r="800" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B800" s="6"/>
-    </row>
-    <row r="801" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B801" s="6"/>
-    </row>
-    <row r="802" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B802" s="6"/>
-    </row>
-    <row r="803" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B803" s="6"/>
-    </row>
-    <row r="804" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B804" s="6"/>
-    </row>
-    <row r="805" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B805" s="6"/>
-    </row>
-    <row r="806" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B806" s="6"/>
-    </row>
-    <row r="807" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B807" s="6"/>
-    </row>
-    <row r="808" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B808" s="6"/>
-    </row>
-    <row r="809" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B809" s="6"/>
-    </row>
-    <row r="810" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B810" s="6"/>
-    </row>
-    <row r="811" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B811" s="6"/>
-    </row>
-    <row r="812" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B812" s="6"/>
-    </row>
-    <row r="813" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B813" s="6"/>
-    </row>
-    <row r="814" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B814" s="6"/>
-    </row>
-    <row r="815" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B815" s="6"/>
-    </row>
-    <row r="816" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B816" s="6"/>
-    </row>
-    <row r="817" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B817" s="6"/>
-    </row>
-    <row r="818" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B818" s="6"/>
-    </row>
-    <row r="819" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B819" s="6"/>
-    </row>
-    <row r="820" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B820" s="6"/>
-    </row>
-    <row r="821" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B821" s="6"/>
-    </row>
-    <row r="822" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B822" s="6"/>
-    </row>
-    <row r="823" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B823" s="6"/>
-    </row>
-    <row r="824" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B824" s="6"/>
-    </row>
-    <row r="825" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B825" s="6"/>
-    </row>
-    <row r="826" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B826" s="6"/>
-    </row>
-    <row r="827" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B827" s="6"/>
-    </row>
-    <row r="828" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B828" s="6"/>
-    </row>
-    <row r="829" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B829" s="6"/>
-    </row>
-    <row r="830" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B830" s="6"/>
-    </row>
-    <row r="831" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B831" s="6"/>
-    </row>
-    <row r="832" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B832" s="6"/>
-    </row>
-    <row r="833" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B833" s="6"/>
-    </row>
-    <row r="834" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B834" s="6"/>
-    </row>
-    <row r="835" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B835" s="6"/>
-    </row>
-    <row r="836" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B836" s="6"/>
-    </row>
-    <row r="837" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B837" s="6"/>
-    </row>
-    <row r="838" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B838" s="6"/>
-    </row>
-    <row r="839" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B839" s="6"/>
-    </row>
-    <row r="840" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B840" s="6"/>
-    </row>
-    <row r="841" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B841" s="6"/>
-    </row>
-    <row r="842" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B842" s="6"/>
-    </row>
-    <row r="843" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B843" s="6"/>
-    </row>
-    <row r="844" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B844" s="6"/>
-    </row>
-    <row r="845" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B845" s="6"/>
-    </row>
-    <row r="846" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B846" s="6"/>
-    </row>
-    <row r="847" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B847" s="6"/>
-    </row>
-    <row r="848" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B848" s="6"/>
-    </row>
-    <row r="849" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B849" s="6"/>
-    </row>
-    <row r="850" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B850" s="6"/>
-    </row>
-    <row r="851" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B851" s="6"/>
-    </row>
-    <row r="852" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B852" s="6"/>
-    </row>
-    <row r="853" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B853" s="6"/>
-    </row>
-    <row r="854" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B854" s="6"/>
-    </row>
-    <row r="855" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B855" s="6"/>
-    </row>
-    <row r="856" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B856" s="6"/>
-    </row>
-    <row r="857" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B857" s="6"/>
-    </row>
-    <row r="858" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B858" s="6"/>
-    </row>
-    <row r="859" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B859" s="6"/>
-    </row>
-    <row r="860" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B860" s="6"/>
-    </row>
-    <row r="861" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B861" s="6"/>
-    </row>
-    <row r="862" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B862" s="6"/>
-    </row>
-    <row r="863" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B863" s="6"/>
-    </row>
-    <row r="864" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B864" s="6"/>
-    </row>
-    <row r="865" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B865" s="6"/>
-    </row>
-    <row r="866" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B866" s="6"/>
-    </row>
-    <row r="867" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B867" s="6"/>
-    </row>
-    <row r="868" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B868" s="6"/>
-    </row>
-    <row r="869" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B869" s="6"/>
-    </row>
-    <row r="870" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B870" s="6"/>
-    </row>
-    <row r="871" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B871" s="6"/>
-    </row>
-    <row r="872" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B872" s="6"/>
-    </row>
-    <row r="873" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B873" s="6"/>
-    </row>
-    <row r="874" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B874" s="6"/>
-    </row>
-    <row r="875" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B875" s="6"/>
-    </row>
-    <row r="876" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B876" s="6"/>
-    </row>
-    <row r="877" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B877" s="6"/>
-    </row>
-    <row r="878" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B878" s="6"/>
-    </row>
-    <row r="879" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B879" s="6"/>
-    </row>
-    <row r="880" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B880" s="6"/>
-    </row>
-    <row r="881" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B881" s="6"/>
-    </row>
-    <row r="882" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B882" s="6"/>
-    </row>
-    <row r="883" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B883" s="6"/>
-    </row>
-    <row r="884" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B884" s="6"/>
-    </row>
-    <row r="885" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B885" s="6"/>
-    </row>
-    <row r="886" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B886" s="6"/>
-    </row>
-    <row r="887" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B887" s="6"/>
-    </row>
-    <row r="888" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B888" s="6"/>
-    </row>
-    <row r="889" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B889" s="6"/>
-    </row>
-    <row r="890" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B890" s="6"/>
-    </row>
-    <row r="891" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B891" s="6"/>
-    </row>
-    <row r="892" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B892" s="6"/>
-    </row>
-    <row r="893" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B893" s="6"/>
-    </row>
-    <row r="894" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B894" s="6"/>
-    </row>
-    <row r="895" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B895" s="6"/>
-    </row>
-    <row r="896" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B896" s="6"/>
-    </row>
-    <row r="897" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B897" s="6"/>
-    </row>
-    <row r="898" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B898" s="6"/>
-    </row>
-    <row r="899" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B899" s="6"/>
-    </row>
-    <row r="900" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B900" s="6"/>
-    </row>
-    <row r="901" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B901" s="6"/>
-    </row>
-    <row r="902" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B902" s="6"/>
-    </row>
-    <row r="903" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B903" s="6"/>
-    </row>
-    <row r="904" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B904" s="6"/>
-    </row>
-    <row r="905" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B905" s="6"/>
-    </row>
-    <row r="906" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B906" s="6"/>
-    </row>
-    <row r="907" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B907" s="6"/>
-    </row>
-    <row r="908" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B908" s="6"/>
-    </row>
-    <row r="909" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B909" s="6"/>
-    </row>
-    <row r="910" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B910" s="6"/>
-    </row>
-    <row r="911" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B911" s="6"/>
-    </row>
-    <row r="912" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B912" s="6"/>
-    </row>
-    <row r="913" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B913" s="6"/>
-    </row>
-    <row r="914" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B914" s="6"/>
-    </row>
-    <row r="915" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B915" s="6"/>
-    </row>
-    <row r="916" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B916" s="6"/>
-    </row>
-    <row r="917" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B917" s="6"/>
-    </row>
-    <row r="918" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B918" s="6"/>
-    </row>
-    <row r="919" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B919" s="6"/>
-    </row>
-    <row r="920" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B920" s="6"/>
-    </row>
-    <row r="921" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B921" s="6"/>
-    </row>
-    <row r="922" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B922" s="6"/>
-    </row>
-    <row r="923" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B923" s="6"/>
-    </row>
-    <row r="924" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B924" s="6"/>
-    </row>
-    <row r="925" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B925" s="6"/>
-    </row>
-    <row r="926" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B926" s="6"/>
-    </row>
-    <row r="927" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B927" s="6"/>
-    </row>
-    <row r="928" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B928" s="6"/>
-    </row>
-    <row r="929" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B929" s="6"/>
-    </row>
-    <row r="930" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B930" s="6"/>
-    </row>
-    <row r="931" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B931" s="6"/>
-    </row>
-    <row r="932" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B932" s="6"/>
-    </row>
-    <row r="933" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B933" s="6"/>
-    </row>
-    <row r="934" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B934" s="6"/>
-    </row>
-    <row r="935" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B935" s="6"/>
-    </row>
-    <row r="936" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B936" s="6"/>
-    </row>
-    <row r="937" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B937" s="6"/>
-    </row>
-    <row r="938" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B938" s="6"/>
-    </row>
-    <row r="939" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B939" s="6"/>
-    </row>
-    <row r="940" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B940" s="6"/>
-    </row>
-    <row r="941" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B941" s="6"/>
-    </row>
-    <row r="942" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B942" s="6"/>
-    </row>
-    <row r="943" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B943" s="6"/>
-    </row>
-    <row r="944" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B944" s="6"/>
-    </row>
-    <row r="945" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B945" s="6"/>
-    </row>
-    <row r="946" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B946" s="6"/>
-    </row>
-    <row r="947" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B947" s="6"/>
-    </row>
-    <row r="948" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B948" s="6"/>
-    </row>
-    <row r="949" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B949" s="6"/>
-    </row>
-    <row r="950" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B950" s="6"/>
-    </row>
-    <row r="951" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B951" s="6"/>
-    </row>
-    <row r="952" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B952" s="6"/>
-    </row>
-    <row r="953" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B953" s="6"/>
-    </row>
-    <row r="954" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B954" s="6"/>
-    </row>
-    <row r="955" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B955" s="6"/>
-    </row>
-    <row r="956" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B956" s="6"/>
-    </row>
-    <row r="957" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B957" s="6"/>
-    </row>
-    <row r="958" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B958" s="6"/>
-    </row>
-    <row r="959" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B959" s="6"/>
-    </row>
-    <row r="960" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B960" s="6"/>
-    </row>
-    <row r="961" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B961" s="6"/>
-    </row>
-    <row r="962" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B962" s="6"/>
-    </row>
-    <row r="963" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B963" s="6"/>
-    </row>
-    <row r="964" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B964" s="6"/>
-    </row>
-    <row r="965" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B965" s="6"/>
-    </row>
-    <row r="966" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B966" s="6"/>
-    </row>
-    <row r="967" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B967" s="6"/>
-    </row>
-    <row r="968" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B968" s="6"/>
-    </row>
-    <row r="969" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B969" s="6"/>
-    </row>
-    <row r="970" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B970" s="6"/>
-    </row>
-    <row r="971" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B971" s="6"/>
-    </row>
-    <row r="972" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B972" s="6"/>
-    </row>
-    <row r="973" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B973" s="6"/>
-    </row>
-    <row r="974" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B974" s="6"/>
-    </row>
-    <row r="975" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B975" s="6"/>
-    </row>
-    <row r="976" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B976" s="6"/>
-    </row>
-    <row r="977" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B977" s="6"/>
-    </row>
-    <row r="978" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B978" s="6"/>
-    </row>
-    <row r="979" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B979" s="6"/>
-    </row>
-    <row r="980" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B980" s="6"/>
-    </row>
-    <row r="981" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B981" s="6"/>
-    </row>
-    <row r="982" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B982" s="6"/>
-    </row>
-    <row r="983" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B983" s="6"/>
-    </row>
-    <row r="984" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B984" s="6"/>
-    </row>
-    <row r="985" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B985" s="6"/>
-    </row>
-    <row r="986" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B986" s="6"/>
-    </row>
-    <row r="987" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B987" s="6"/>
-    </row>
-    <row r="988" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B988" s="6"/>
-    </row>
-    <row r="989" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B989" s="6"/>
-    </row>
-    <row r="990" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B990" s="6"/>
-    </row>
-    <row r="991" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B991" s="6"/>
-    </row>
-    <row r="992" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B992" s="6"/>
-    </row>
-    <row r="993" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B993" s="6"/>
-    </row>
-    <row r="994" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B994" s="6"/>
-    </row>
-    <row r="995" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B995" s="6"/>
-    </row>
-    <row r="996" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B996" s="6"/>
-    </row>
-    <row r="997" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B997" s="6"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="7"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="7"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="7"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="7"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="7"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="7"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="7"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="7"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="7"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="7"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="7"/>
+    </row>
+    <row r="63">
+      <c r="B63" s="7"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="7"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="7"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="7"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="7"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="7"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="7"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="7"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="7"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="7"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="7"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="7"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="7"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="7"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="7"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="7"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="7"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="7"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="7"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="7"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="7"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="7"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="7"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="7"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="7"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="7"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="7"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="7"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="7"/>
+    </row>
+    <row r="92">
+      <c r="B92" s="7"/>
+    </row>
+    <row r="93">
+      <c r="B93" s="7"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="7"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="7"/>
+    </row>
+    <row r="96">
+      <c r="B96" s="7"/>
+    </row>
+    <row r="97">
+      <c r="B97" s="7"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="7"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="7"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="7"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="7"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="7"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="7"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="7"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="7"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="7"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="7"/>
+    </row>
+    <row r="108">
+      <c r="B108" s="7"/>
+    </row>
+    <row r="109">
+      <c r="B109" s="7"/>
+    </row>
+    <row r="110">
+      <c r="B110" s="7"/>
+    </row>
+    <row r="111">
+      <c r="B111" s="7"/>
+    </row>
+    <row r="112">
+      <c r="B112" s="7"/>
+    </row>
+    <row r="113">
+      <c r="B113" s="7"/>
+    </row>
+    <row r="114">
+      <c r="B114" s="7"/>
+    </row>
+    <row r="115">
+      <c r="B115" s="7"/>
+    </row>
+    <row r="116">
+      <c r="B116" s="7"/>
+    </row>
+    <row r="117">
+      <c r="B117" s="7"/>
+    </row>
+    <row r="118">
+      <c r="B118" s="7"/>
+    </row>
+    <row r="119">
+      <c r="B119" s="7"/>
+    </row>
+    <row r="120">
+      <c r="B120" s="7"/>
+    </row>
+    <row r="121">
+      <c r="B121" s="7"/>
+    </row>
+    <row r="122">
+      <c r="B122" s="7"/>
+    </row>
+    <row r="123">
+      <c r="B123" s="7"/>
+    </row>
+    <row r="124">
+      <c r="B124" s="7"/>
+    </row>
+    <row r="125">
+      <c r="B125" s="7"/>
+    </row>
+    <row r="126">
+      <c r="B126" s="7"/>
+    </row>
+    <row r="127">
+      <c r="B127" s="7"/>
+    </row>
+    <row r="128">
+      <c r="B128" s="7"/>
+    </row>
+    <row r="129">
+      <c r="B129" s="7"/>
+    </row>
+    <row r="130">
+      <c r="B130" s="7"/>
+    </row>
+    <row r="131">
+      <c r="B131" s="7"/>
+    </row>
+    <row r="132">
+      <c r="B132" s="7"/>
+    </row>
+    <row r="133">
+      <c r="B133" s="7"/>
+    </row>
+    <row r="134">
+      <c r="B134" s="7"/>
+    </row>
+    <row r="135">
+      <c r="B135" s="7"/>
+    </row>
+    <row r="136">
+      <c r="B136" s="7"/>
+    </row>
+    <row r="137">
+      <c r="B137" s="7"/>
+    </row>
+    <row r="138">
+      <c r="B138" s="7"/>
+    </row>
+    <row r="139">
+      <c r="B139" s="7"/>
+    </row>
+    <row r="140">
+      <c r="B140" s="7"/>
+    </row>
+    <row r="141">
+      <c r="B141" s="7"/>
+    </row>
+    <row r="142">
+      <c r="B142" s="7"/>
+    </row>
+    <row r="143">
+      <c r="B143" s="7"/>
+    </row>
+    <row r="144">
+      <c r="B144" s="7"/>
+    </row>
+    <row r="145">
+      <c r="B145" s="7"/>
+    </row>
+    <row r="146">
+      <c r="B146" s="7"/>
+    </row>
+    <row r="147">
+      <c r="B147" s="7"/>
+    </row>
+    <row r="148">
+      <c r="B148" s="7"/>
+    </row>
+    <row r="149">
+      <c r="B149" s="7"/>
+    </row>
+    <row r="150">
+      <c r="B150" s="7"/>
+    </row>
+    <row r="151">
+      <c r="B151" s="7"/>
+    </row>
+    <row r="152">
+      <c r="B152" s="7"/>
+    </row>
+    <row r="153">
+      <c r="B153" s="7"/>
+    </row>
+    <row r="154">
+      <c r="B154" s="7"/>
+    </row>
+    <row r="155">
+      <c r="B155" s="7"/>
+    </row>
+    <row r="156">
+      <c r="B156" s="7"/>
+    </row>
+    <row r="157">
+      <c r="B157" s="7"/>
+    </row>
+    <row r="158">
+      <c r="B158" s="7"/>
+    </row>
+    <row r="159">
+      <c r="B159" s="7"/>
+    </row>
+    <row r="160">
+      <c r="B160" s="7"/>
+    </row>
+    <row r="161">
+      <c r="B161" s="7"/>
+    </row>
+    <row r="162">
+      <c r="B162" s="7"/>
+    </row>
+    <row r="163">
+      <c r="B163" s="7"/>
+    </row>
+    <row r="164">
+      <c r="B164" s="7"/>
+    </row>
+    <row r="165">
+      <c r="B165" s="7"/>
+    </row>
+    <row r="166">
+      <c r="B166" s="7"/>
+    </row>
+    <row r="167">
+      <c r="B167" s="7"/>
+    </row>
+    <row r="168">
+      <c r="B168" s="7"/>
+    </row>
+    <row r="169">
+      <c r="B169" s="7"/>
+    </row>
+    <row r="170">
+      <c r="B170" s="7"/>
+    </row>
+    <row r="171">
+      <c r="B171" s="7"/>
+    </row>
+    <row r="172">
+      <c r="B172" s="7"/>
+    </row>
+    <row r="173">
+      <c r="B173" s="7"/>
+    </row>
+    <row r="174">
+      <c r="B174" s="7"/>
+    </row>
+    <row r="175">
+      <c r="B175" s="7"/>
+    </row>
+    <row r="176">
+      <c r="B176" s="7"/>
+    </row>
+    <row r="177">
+      <c r="B177" s="7"/>
+    </row>
+    <row r="178">
+      <c r="B178" s="7"/>
+    </row>
+    <row r="179">
+      <c r="B179" s="7"/>
+    </row>
+    <row r="180">
+      <c r="B180" s="7"/>
+    </row>
+    <row r="181">
+      <c r="B181" s="7"/>
+    </row>
+    <row r="182">
+      <c r="B182" s="7"/>
+    </row>
+    <row r="183">
+      <c r="B183" s="7"/>
+    </row>
+    <row r="184">
+      <c r="B184" s="7"/>
+    </row>
+    <row r="185">
+      <c r="B185" s="7"/>
+    </row>
+    <row r="186">
+      <c r="B186" s="7"/>
+    </row>
+    <row r="187">
+      <c r="B187" s="7"/>
+    </row>
+    <row r="188">
+      <c r="B188" s="7"/>
+    </row>
+    <row r="189">
+      <c r="B189" s="7"/>
+    </row>
+    <row r="190">
+      <c r="B190" s="7"/>
+    </row>
+    <row r="191">
+      <c r="B191" s="7"/>
+    </row>
+    <row r="192">
+      <c r="B192" s="7"/>
+    </row>
+    <row r="193">
+      <c r="B193" s="7"/>
+    </row>
+    <row r="194">
+      <c r="B194" s="7"/>
+    </row>
+    <row r="195">
+      <c r="B195" s="7"/>
+    </row>
+    <row r="196">
+      <c r="B196" s="7"/>
+    </row>
+    <row r="197">
+      <c r="B197" s="7"/>
+    </row>
+    <row r="198">
+      <c r="B198" s="7"/>
+    </row>
+    <row r="199">
+      <c r="B199" s="7"/>
+    </row>
+    <row r="200">
+      <c r="B200" s="7"/>
+    </row>
+    <row r="201">
+      <c r="B201" s="7"/>
+    </row>
+    <row r="202">
+      <c r="B202" s="7"/>
+    </row>
+    <row r="203">
+      <c r="B203" s="7"/>
+    </row>
+    <row r="204">
+      <c r="B204" s="7"/>
+    </row>
+    <row r="205">
+      <c r="B205" s="7"/>
+    </row>
+    <row r="206">
+      <c r="B206" s="7"/>
+    </row>
+    <row r="207">
+      <c r="B207" s="7"/>
+    </row>
+    <row r="208">
+      <c r="B208" s="7"/>
+    </row>
+    <row r="209">
+      <c r="B209" s="7"/>
+    </row>
+    <row r="210">
+      <c r="B210" s="7"/>
+    </row>
+    <row r="211">
+      <c r="B211" s="7"/>
+    </row>
+    <row r="212">
+      <c r="B212" s="7"/>
+    </row>
+    <row r="213">
+      <c r="B213" s="7"/>
+    </row>
+    <row r="214">
+      <c r="B214" s="7"/>
+    </row>
+    <row r="215">
+      <c r="B215" s="7"/>
+    </row>
+    <row r="216">
+      <c r="B216" s="7"/>
+    </row>
+    <row r="217">
+      <c r="B217" s="7"/>
+    </row>
+    <row r="218">
+      <c r="B218" s="7"/>
+    </row>
+    <row r="219">
+      <c r="B219" s="7"/>
+    </row>
+    <row r="220">
+      <c r="B220" s="7"/>
+    </row>
+    <row r="221">
+      <c r="B221" s="7"/>
+    </row>
+    <row r="222">
+      <c r="B222" s="7"/>
+    </row>
+    <row r="223">
+      <c r="B223" s="7"/>
+    </row>
+    <row r="224">
+      <c r="B224" s="7"/>
+    </row>
+    <row r="225">
+      <c r="B225" s="7"/>
+    </row>
+    <row r="226">
+      <c r="B226" s="7"/>
+    </row>
+    <row r="227">
+      <c r="B227" s="7"/>
+    </row>
+    <row r="228">
+      <c r="B228" s="7"/>
+    </row>
+    <row r="229">
+      <c r="B229" s="7"/>
+    </row>
+    <row r="230">
+      <c r="B230" s="7"/>
+    </row>
+    <row r="231">
+      <c r="B231" s="7"/>
+    </row>
+    <row r="232">
+      <c r="B232" s="7"/>
+    </row>
+    <row r="233">
+      <c r="B233" s="7"/>
+    </row>
+    <row r="234">
+      <c r="B234" s="7"/>
+    </row>
+    <row r="235">
+      <c r="B235" s="7"/>
+    </row>
+    <row r="236">
+      <c r="B236" s="7"/>
+    </row>
+    <row r="237">
+      <c r="B237" s="7"/>
+    </row>
+    <row r="238">
+      <c r="B238" s="7"/>
+    </row>
+    <row r="239">
+      <c r="B239" s="7"/>
+    </row>
+    <row r="240">
+      <c r="B240" s="7"/>
+    </row>
+    <row r="241">
+      <c r="B241" s="7"/>
+    </row>
+    <row r="242">
+      <c r="B242" s="7"/>
+    </row>
+    <row r="243">
+      <c r="B243" s="7"/>
+    </row>
+    <row r="244">
+      <c r="B244" s="7"/>
+    </row>
+    <row r="245">
+      <c r="B245" s="7"/>
+    </row>
+    <row r="246">
+      <c r="B246" s="7"/>
+    </row>
+    <row r="247">
+      <c r="B247" s="7"/>
+    </row>
+    <row r="248">
+      <c r="B248" s="7"/>
+    </row>
+    <row r="249">
+      <c r="B249" s="7"/>
+    </row>
+    <row r="250">
+      <c r="B250" s="7"/>
+    </row>
+    <row r="251">
+      <c r="B251" s="7"/>
+    </row>
+    <row r="252">
+      <c r="B252" s="7"/>
+    </row>
+    <row r="253">
+      <c r="B253" s="7"/>
+    </row>
+    <row r="254">
+      <c r="B254" s="7"/>
+    </row>
+    <row r="255">
+      <c r="B255" s="7"/>
+    </row>
+    <row r="256">
+      <c r="B256" s="7"/>
+    </row>
+    <row r="257">
+      <c r="B257" s="7"/>
+    </row>
+    <row r="258">
+      <c r="B258" s="7"/>
+    </row>
+    <row r="259">
+      <c r="B259" s="7"/>
+    </row>
+    <row r="260">
+      <c r="B260" s="7"/>
+    </row>
+    <row r="261">
+      <c r="B261" s="7"/>
+    </row>
+    <row r="262">
+      <c r="B262" s="7"/>
+    </row>
+    <row r="263">
+      <c r="B263" s="7"/>
+    </row>
+    <row r="264">
+      <c r="B264" s="7"/>
+    </row>
+    <row r="265">
+      <c r="B265" s="7"/>
+    </row>
+    <row r="266">
+      <c r="B266" s="7"/>
+    </row>
+    <row r="267">
+      <c r="B267" s="7"/>
+    </row>
+    <row r="268">
+      <c r="B268" s="7"/>
+    </row>
+    <row r="269">
+      <c r="B269" s="7"/>
+    </row>
+    <row r="270">
+      <c r="B270" s="7"/>
+    </row>
+    <row r="271">
+      <c r="B271" s="7"/>
+    </row>
+    <row r="272">
+      <c r="B272" s="7"/>
+    </row>
+    <row r="273">
+      <c r="B273" s="7"/>
+    </row>
+    <row r="274">
+      <c r="B274" s="7"/>
+    </row>
+    <row r="275">
+      <c r="B275" s="7"/>
+    </row>
+    <row r="276">
+      <c r="B276" s="7"/>
+    </row>
+    <row r="277">
+      <c r="B277" s="7"/>
+    </row>
+    <row r="278">
+      <c r="B278" s="7"/>
+    </row>
+    <row r="279">
+      <c r="B279" s="7"/>
+    </row>
+    <row r="280">
+      <c r="B280" s="7"/>
+    </row>
+    <row r="281">
+      <c r="B281" s="7"/>
+    </row>
+    <row r="282">
+      <c r="B282" s="7"/>
+    </row>
+    <row r="283">
+      <c r="B283" s="7"/>
+    </row>
+    <row r="284">
+      <c r="B284" s="7"/>
+    </row>
+    <row r="285">
+      <c r="B285" s="7"/>
+    </row>
+    <row r="286">
+      <c r="B286" s="7"/>
+    </row>
+    <row r="287">
+      <c r="B287" s="7"/>
+    </row>
+    <row r="288">
+      <c r="B288" s="7"/>
+    </row>
+    <row r="289">
+      <c r="B289" s="7"/>
+    </row>
+    <row r="290">
+      <c r="B290" s="7"/>
+    </row>
+    <row r="291">
+      <c r="B291" s="7"/>
+    </row>
+    <row r="292">
+      <c r="B292" s="7"/>
+    </row>
+    <row r="293">
+      <c r="B293" s="7"/>
+    </row>
+    <row r="294">
+      <c r="B294" s="7"/>
+    </row>
+    <row r="295">
+      <c r="B295" s="7"/>
+    </row>
+    <row r="296">
+      <c r="B296" s="7"/>
+    </row>
+    <row r="297">
+      <c r="B297" s="7"/>
+    </row>
+    <row r="298">
+      <c r="B298" s="7"/>
+    </row>
+    <row r="299">
+      <c r="B299" s="7"/>
+    </row>
+    <row r="300">
+      <c r="B300" s="7"/>
+    </row>
+    <row r="301">
+      <c r="B301" s="7"/>
+    </row>
+    <row r="302">
+      <c r="B302" s="7"/>
+    </row>
+    <row r="303">
+      <c r="B303" s="7"/>
+    </row>
+    <row r="304">
+      <c r="B304" s="7"/>
+    </row>
+    <row r="305">
+      <c r="B305" s="7"/>
+    </row>
+    <row r="306">
+      <c r="B306" s="7"/>
+    </row>
+    <row r="307">
+      <c r="B307" s="7"/>
+    </row>
+    <row r="308">
+      <c r="B308" s="7"/>
+    </row>
+    <row r="309">
+      <c r="B309" s="7"/>
+    </row>
+    <row r="310">
+      <c r="B310" s="7"/>
+    </row>
+    <row r="311">
+      <c r="B311" s="7"/>
+    </row>
+    <row r="312">
+      <c r="B312" s="7"/>
+    </row>
+    <row r="313">
+      <c r="B313" s="7"/>
+    </row>
+    <row r="314">
+      <c r="B314" s="7"/>
+    </row>
+    <row r="315">
+      <c r="B315" s="7"/>
+    </row>
+    <row r="316">
+      <c r="B316" s="7"/>
+    </row>
+    <row r="317">
+      <c r="B317" s="7"/>
+    </row>
+    <row r="318">
+      <c r="B318" s="7"/>
+    </row>
+    <row r="319">
+      <c r="B319" s="7"/>
+    </row>
+    <row r="320">
+      <c r="B320" s="7"/>
+    </row>
+    <row r="321">
+      <c r="B321" s="7"/>
+    </row>
+    <row r="322">
+      <c r="B322" s="7"/>
+    </row>
+    <row r="323">
+      <c r="B323" s="7"/>
+    </row>
+    <row r="324">
+      <c r="B324" s="7"/>
+    </row>
+    <row r="325">
+      <c r="B325" s="7"/>
+    </row>
+    <row r="326">
+      <c r="B326" s="7"/>
+    </row>
+    <row r="327">
+      <c r="B327" s="7"/>
+    </row>
+    <row r="328">
+      <c r="B328" s="7"/>
+    </row>
+    <row r="329">
+      <c r="B329" s="7"/>
+    </row>
+    <row r="330">
+      <c r="B330" s="7"/>
+    </row>
+    <row r="331">
+      <c r="B331" s="7"/>
+    </row>
+    <row r="332">
+      <c r="B332" s="7"/>
+    </row>
+    <row r="333">
+      <c r="B333" s="7"/>
+    </row>
+    <row r="334">
+      <c r="B334" s="7"/>
+    </row>
+    <row r="335">
+      <c r="B335" s="7"/>
+    </row>
+    <row r="336">
+      <c r="B336" s="7"/>
+    </row>
+    <row r="337">
+      <c r="B337" s="7"/>
+    </row>
+    <row r="338">
+      <c r="B338" s="7"/>
+    </row>
+    <row r="339">
+      <c r="B339" s="7"/>
+    </row>
+    <row r="340">
+      <c r="B340" s="7"/>
+    </row>
+    <row r="341">
+      <c r="B341" s="7"/>
+    </row>
+    <row r="342">
+      <c r="B342" s="7"/>
+    </row>
+    <row r="343">
+      <c r="B343" s="7"/>
+    </row>
+    <row r="344">
+      <c r="B344" s="7"/>
+    </row>
+    <row r="345">
+      <c r="B345" s="7"/>
+    </row>
+    <row r="346">
+      <c r="B346" s="7"/>
+    </row>
+    <row r="347">
+      <c r="B347" s="7"/>
+    </row>
+    <row r="348">
+      <c r="B348" s="7"/>
+    </row>
+    <row r="349">
+      <c r="B349" s="7"/>
+    </row>
+    <row r="350">
+      <c r="B350" s="7"/>
+    </row>
+    <row r="351">
+      <c r="B351" s="7"/>
+    </row>
+    <row r="352">
+      <c r="B352" s="7"/>
+    </row>
+    <row r="353">
+      <c r="B353" s="7"/>
+    </row>
+    <row r="354">
+      <c r="B354" s="7"/>
+    </row>
+    <row r="355">
+      <c r="B355" s="7"/>
+    </row>
+    <row r="356">
+      <c r="B356" s="7"/>
+    </row>
+    <row r="357">
+      <c r="B357" s="7"/>
+    </row>
+    <row r="358">
+      <c r="B358" s="7"/>
+    </row>
+    <row r="359">
+      <c r="B359" s="7"/>
+    </row>
+    <row r="360">
+      <c r="B360" s="7"/>
+    </row>
+    <row r="361">
+      <c r="B361" s="7"/>
+    </row>
+    <row r="362">
+      <c r="B362" s="7"/>
+    </row>
+    <row r="363">
+      <c r="B363" s="7"/>
+    </row>
+    <row r="364">
+      <c r="B364" s="7"/>
+    </row>
+    <row r="365">
+      <c r="B365" s="7"/>
+    </row>
+    <row r="366">
+      <c r="B366" s="7"/>
+    </row>
+    <row r="367">
+      <c r="B367" s="7"/>
+    </row>
+    <row r="368">
+      <c r="B368" s="7"/>
+    </row>
+    <row r="369">
+      <c r="B369" s="7"/>
+    </row>
+    <row r="370">
+      <c r="B370" s="7"/>
+    </row>
+    <row r="371">
+      <c r="B371" s="7"/>
+    </row>
+    <row r="372">
+      <c r="B372" s="7"/>
+    </row>
+    <row r="373">
+      <c r="B373" s="7"/>
+    </row>
+    <row r="374">
+      <c r="B374" s="7"/>
+    </row>
+    <row r="375">
+      <c r="B375" s="7"/>
+    </row>
+    <row r="376">
+      <c r="B376" s="7"/>
+    </row>
+    <row r="377">
+      <c r="B377" s="7"/>
+    </row>
+    <row r="378">
+      <c r="B378" s="7"/>
+    </row>
+    <row r="379">
+      <c r="B379" s="7"/>
+    </row>
+    <row r="380">
+      <c r="B380" s="7"/>
+    </row>
+    <row r="381">
+      <c r="B381" s="7"/>
+    </row>
+    <row r="382">
+      <c r="B382" s="7"/>
+    </row>
+    <row r="383">
+      <c r="B383" s="7"/>
+    </row>
+    <row r="384">
+      <c r="B384" s="7"/>
+    </row>
+    <row r="385">
+      <c r="B385" s="7"/>
+    </row>
+    <row r="386">
+      <c r="B386" s="7"/>
+    </row>
+    <row r="387">
+      <c r="B387" s="7"/>
+    </row>
+    <row r="388">
+      <c r="B388" s="7"/>
+    </row>
+    <row r="389">
+      <c r="B389" s="7"/>
+    </row>
+    <row r="390">
+      <c r="B390" s="7"/>
+    </row>
+    <row r="391">
+      <c r="B391" s="7"/>
+    </row>
+    <row r="392">
+      <c r="B392" s="7"/>
+    </row>
+    <row r="393">
+      <c r="B393" s="7"/>
+    </row>
+    <row r="394">
+      <c r="B394" s="7"/>
+    </row>
+    <row r="395">
+      <c r="B395" s="7"/>
+    </row>
+    <row r="396">
+      <c r="B396" s="7"/>
+    </row>
+    <row r="397">
+      <c r="B397" s="7"/>
+    </row>
+    <row r="398">
+      <c r="B398" s="7"/>
+    </row>
+    <row r="399">
+      <c r="B399" s="7"/>
+    </row>
+    <row r="400">
+      <c r="B400" s="7"/>
+    </row>
+    <row r="401">
+      <c r="B401" s="7"/>
+    </row>
+    <row r="402">
+      <c r="B402" s="7"/>
+    </row>
+    <row r="403">
+      <c r="B403" s="7"/>
+    </row>
+    <row r="404">
+      <c r="B404" s="7"/>
+    </row>
+    <row r="405">
+      <c r="B405" s="7"/>
+    </row>
+    <row r="406">
+      <c r="B406" s="7"/>
+    </row>
+    <row r="407">
+      <c r="B407" s="7"/>
+    </row>
+    <row r="408">
+      <c r="B408" s="7"/>
+    </row>
+    <row r="409">
+      <c r="B409" s="7"/>
+    </row>
+    <row r="410">
+      <c r="B410" s="7"/>
+    </row>
+    <row r="411">
+      <c r="B411" s="7"/>
+    </row>
+    <row r="412">
+      <c r="B412" s="7"/>
+    </row>
+    <row r="413">
+      <c r="B413" s="7"/>
+    </row>
+    <row r="414">
+      <c r="B414" s="7"/>
+    </row>
+    <row r="415">
+      <c r="B415" s="7"/>
+    </row>
+    <row r="416">
+      <c r="B416" s="7"/>
+    </row>
+    <row r="417">
+      <c r="B417" s="7"/>
+    </row>
+    <row r="418">
+      <c r="B418" s="7"/>
+    </row>
+    <row r="419">
+      <c r="B419" s="7"/>
+    </row>
+    <row r="420">
+      <c r="B420" s="7"/>
+    </row>
+    <row r="421">
+      <c r="B421" s="7"/>
+    </row>
+    <row r="422">
+      <c r="B422" s="7"/>
+    </row>
+    <row r="423">
+      <c r="B423" s="7"/>
+    </row>
+    <row r="424">
+      <c r="B424" s="7"/>
+    </row>
+    <row r="425">
+      <c r="B425" s="7"/>
+    </row>
+    <row r="426">
+      <c r="B426" s="7"/>
+    </row>
+    <row r="427">
+      <c r="B427" s="7"/>
+    </row>
+    <row r="428">
+      <c r="B428" s="7"/>
+    </row>
+    <row r="429">
+      <c r="B429" s="7"/>
+    </row>
+    <row r="430">
+      <c r="B430" s="7"/>
+    </row>
+    <row r="431">
+      <c r="B431" s="7"/>
+    </row>
+    <row r="432">
+      <c r="B432" s="7"/>
+    </row>
+    <row r="433">
+      <c r="B433" s="7"/>
+    </row>
+    <row r="434">
+      <c r="B434" s="7"/>
+    </row>
+    <row r="435">
+      <c r="B435" s="7"/>
+    </row>
+    <row r="436">
+      <c r="B436" s="7"/>
+    </row>
+    <row r="437">
+      <c r="B437" s="7"/>
+    </row>
+    <row r="438">
+      <c r="B438" s="7"/>
+    </row>
+    <row r="439">
+      <c r="B439" s="7"/>
+    </row>
+    <row r="440">
+      <c r="B440" s="7"/>
+    </row>
+    <row r="441">
+      <c r="B441" s="7"/>
+    </row>
+    <row r="442">
+      <c r="B442" s="7"/>
+    </row>
+    <row r="443">
+      <c r="B443" s="7"/>
+    </row>
+    <row r="444">
+      <c r="B444" s="7"/>
+    </row>
+    <row r="445">
+      <c r="B445" s="7"/>
+    </row>
+    <row r="446">
+      <c r="B446" s="7"/>
+    </row>
+    <row r="447">
+      <c r="B447" s="7"/>
+    </row>
+    <row r="448">
+      <c r="B448" s="7"/>
+    </row>
+    <row r="449">
+      <c r="B449" s="7"/>
+    </row>
+    <row r="450">
+      <c r="B450" s="7"/>
+    </row>
+    <row r="451">
+      <c r="B451" s="7"/>
+    </row>
+    <row r="452">
+      <c r="B452" s="7"/>
+    </row>
+    <row r="453">
+      <c r="B453" s="7"/>
+    </row>
+    <row r="454">
+      <c r="B454" s="7"/>
+    </row>
+    <row r="455">
+      <c r="B455" s="7"/>
+    </row>
+    <row r="456">
+      <c r="B456" s="7"/>
+    </row>
+    <row r="457">
+      <c r="B457" s="7"/>
+    </row>
+    <row r="458">
+      <c r="B458" s="7"/>
+    </row>
+    <row r="459">
+      <c r="B459" s="7"/>
+    </row>
+    <row r="460">
+      <c r="B460" s="7"/>
+    </row>
+    <row r="461">
+      <c r="B461" s="7"/>
+    </row>
+    <row r="462">
+      <c r="B462" s="7"/>
+    </row>
+    <row r="463">
+      <c r="B463" s="7"/>
+    </row>
+    <row r="464">
+      <c r="B464" s="7"/>
+    </row>
+    <row r="465">
+      <c r="B465" s="7"/>
+    </row>
+    <row r="466">
+      <c r="B466" s="7"/>
+    </row>
+    <row r="467">
+      <c r="B467" s="7"/>
+    </row>
+    <row r="468">
+      <c r="B468" s="7"/>
+    </row>
+    <row r="469">
+      <c r="B469" s="7"/>
+    </row>
+    <row r="470">
+      <c r="B470" s="7"/>
+    </row>
+    <row r="471">
+      <c r="B471" s="7"/>
+    </row>
+    <row r="472">
+      <c r="B472" s="7"/>
+    </row>
+    <row r="473">
+      <c r="B473" s="7"/>
+    </row>
+    <row r="474">
+      <c r="B474" s="7"/>
+    </row>
+    <row r="475">
+      <c r="B475" s="7"/>
+    </row>
+    <row r="476">
+      <c r="B476" s="7"/>
+    </row>
+    <row r="477">
+      <c r="B477" s="7"/>
+    </row>
+    <row r="478">
+      <c r="B478" s="7"/>
+    </row>
+    <row r="479">
+      <c r="B479" s="7"/>
+    </row>
+    <row r="480">
+      <c r="B480" s="7"/>
+    </row>
+    <row r="481">
+      <c r="B481" s="7"/>
+    </row>
+    <row r="482">
+      <c r="B482" s="7"/>
+    </row>
+    <row r="483">
+      <c r="B483" s="7"/>
+    </row>
+    <row r="484">
+      <c r="B484" s="7"/>
+    </row>
+    <row r="485">
+      <c r="B485" s="7"/>
+    </row>
+    <row r="486">
+      <c r="B486" s="7"/>
+    </row>
+    <row r="487">
+      <c r="B487" s="7"/>
+    </row>
+    <row r="488">
+      <c r="B488" s="7"/>
+    </row>
+    <row r="489">
+      <c r="B489" s="7"/>
+    </row>
+    <row r="490">
+      <c r="B490" s="7"/>
+    </row>
+    <row r="491">
+      <c r="B491" s="7"/>
+    </row>
+    <row r="492">
+      <c r="B492" s="7"/>
+    </row>
+    <row r="493">
+      <c r="B493" s="7"/>
+    </row>
+    <row r="494">
+      <c r="B494" s="7"/>
+    </row>
+    <row r="495">
+      <c r="B495" s="7"/>
+    </row>
+    <row r="496">
+      <c r="B496" s="7"/>
+    </row>
+    <row r="497">
+      <c r="B497" s="7"/>
+    </row>
+    <row r="498">
+      <c r="B498" s="7"/>
+    </row>
+    <row r="499">
+      <c r="B499" s="7"/>
+    </row>
+    <row r="500">
+      <c r="B500" s="7"/>
+    </row>
+    <row r="501">
+      <c r="B501" s="7"/>
+    </row>
+    <row r="502">
+      <c r="B502" s="7"/>
+    </row>
+    <row r="503">
+      <c r="B503" s="7"/>
+    </row>
+    <row r="504">
+      <c r="B504" s="7"/>
+    </row>
+    <row r="505">
+      <c r="B505" s="7"/>
+    </row>
+    <row r="506">
+      <c r="B506" s="7"/>
+    </row>
+    <row r="507">
+      <c r="B507" s="7"/>
+    </row>
+    <row r="508">
+      <c r="B508" s="7"/>
+    </row>
+    <row r="509">
+      <c r="B509" s="7"/>
+    </row>
+    <row r="510">
+      <c r="B510" s="7"/>
+    </row>
+    <row r="511">
+      <c r="B511" s="7"/>
+    </row>
+    <row r="512">
+      <c r="B512" s="7"/>
+    </row>
+    <row r="513">
+      <c r="B513" s="7"/>
+    </row>
+    <row r="514">
+      <c r="B514" s="7"/>
+    </row>
+    <row r="515">
+      <c r="B515" s="7"/>
+    </row>
+    <row r="516">
+      <c r="B516" s="7"/>
+    </row>
+    <row r="517">
+      <c r="B517" s="7"/>
+    </row>
+    <row r="518">
+      <c r="B518" s="7"/>
+    </row>
+    <row r="519">
+      <c r="B519" s="7"/>
+    </row>
+    <row r="520">
+      <c r="B520" s="7"/>
+    </row>
+    <row r="521">
+      <c r="B521" s="7"/>
+    </row>
+    <row r="522">
+      <c r="B522" s="7"/>
+    </row>
+    <row r="523">
+      <c r="B523" s="7"/>
+    </row>
+    <row r="524">
+      <c r="B524" s="7"/>
+    </row>
+    <row r="525">
+      <c r="B525" s="7"/>
+    </row>
+    <row r="526">
+      <c r="B526" s="7"/>
+    </row>
+    <row r="527">
+      <c r="B527" s="7"/>
+    </row>
+    <row r="528">
+      <c r="B528" s="7"/>
+    </row>
+    <row r="529">
+      <c r="B529" s="7"/>
+    </row>
+    <row r="530">
+      <c r="B530" s="7"/>
+    </row>
+    <row r="531">
+      <c r="B531" s="7"/>
+    </row>
+    <row r="532">
+      <c r="B532" s="7"/>
+    </row>
+    <row r="533">
+      <c r="B533" s="7"/>
+    </row>
+    <row r="534">
+      <c r="B534" s="7"/>
+    </row>
+    <row r="535">
+      <c r="B535" s="7"/>
+    </row>
+    <row r="536">
+      <c r="B536" s="7"/>
+    </row>
+    <row r="537">
+      <c r="B537" s="7"/>
+    </row>
+    <row r="538">
+      <c r="B538" s="7"/>
+    </row>
+    <row r="539">
+      <c r="B539" s="7"/>
+    </row>
+    <row r="540">
+      <c r="B540" s="7"/>
+    </row>
+    <row r="541">
+      <c r="B541" s="7"/>
+    </row>
+    <row r="542">
+      <c r="B542" s="7"/>
+    </row>
+    <row r="543">
+      <c r="B543" s="7"/>
+    </row>
+    <row r="544">
+      <c r="B544" s="7"/>
+    </row>
+    <row r="545">
+      <c r="B545" s="7"/>
+    </row>
+    <row r="546">
+      <c r="B546" s="7"/>
+    </row>
+    <row r="547">
+      <c r="B547" s="7"/>
+    </row>
+    <row r="548">
+      <c r="B548" s="7"/>
+    </row>
+    <row r="549">
+      <c r="B549" s="7"/>
+    </row>
+    <row r="550">
+      <c r="B550" s="7"/>
+    </row>
+    <row r="551">
+      <c r="B551" s="7"/>
+    </row>
+    <row r="552">
+      <c r="B552" s="7"/>
+    </row>
+    <row r="553">
+      <c r="B553" s="7"/>
+    </row>
+    <row r="554">
+      <c r="B554" s="7"/>
+    </row>
+    <row r="555">
+      <c r="B555" s="7"/>
+    </row>
+    <row r="556">
+      <c r="B556" s="7"/>
+    </row>
+    <row r="557">
+      <c r="B557" s="7"/>
+    </row>
+    <row r="558">
+      <c r="B558" s="7"/>
+    </row>
+    <row r="559">
+      <c r="B559" s="7"/>
+    </row>
+    <row r="560">
+      <c r="B560" s="7"/>
+    </row>
+    <row r="561">
+      <c r="B561" s="7"/>
+    </row>
+    <row r="562">
+      <c r="B562" s="7"/>
+    </row>
+    <row r="563">
+      <c r="B563" s="7"/>
+    </row>
+    <row r="564">
+      <c r="B564" s="7"/>
+    </row>
+    <row r="565">
+      <c r="B565" s="7"/>
+    </row>
+    <row r="566">
+      <c r="B566" s="7"/>
+    </row>
+    <row r="567">
+      <c r="B567" s="7"/>
+    </row>
+    <row r="568">
+      <c r="B568" s="7"/>
+    </row>
+    <row r="569">
+      <c r="B569" s="7"/>
+    </row>
+    <row r="570">
+      <c r="B570" s="7"/>
+    </row>
+    <row r="571">
+      <c r="B571" s="7"/>
+    </row>
+    <row r="572">
+      <c r="B572" s="7"/>
+    </row>
+    <row r="573">
+      <c r="B573" s="7"/>
+    </row>
+    <row r="574">
+      <c r="B574" s="7"/>
+    </row>
+    <row r="575">
+      <c r="B575" s="7"/>
+    </row>
+    <row r="576">
+      <c r="B576" s="7"/>
+    </row>
+    <row r="577">
+      <c r="B577" s="7"/>
+    </row>
+    <row r="578">
+      <c r="B578" s="7"/>
+    </row>
+    <row r="579">
+      <c r="B579" s="7"/>
+    </row>
+    <row r="580">
+      <c r="B580" s="7"/>
+    </row>
+    <row r="581">
+      <c r="B581" s="7"/>
+    </row>
+    <row r="582">
+      <c r="B582" s="7"/>
+    </row>
+    <row r="583">
+      <c r="B583" s="7"/>
+    </row>
+    <row r="584">
+      <c r="B584" s="7"/>
+    </row>
+    <row r="585">
+      <c r="B585" s="7"/>
+    </row>
+    <row r="586">
+      <c r="B586" s="7"/>
+    </row>
+    <row r="587">
+      <c r="B587" s="7"/>
+    </row>
+    <row r="588">
+      <c r="B588" s="7"/>
+    </row>
+    <row r="589">
+      <c r="B589" s="7"/>
+    </row>
+    <row r="590">
+      <c r="B590" s="7"/>
+    </row>
+    <row r="591">
+      <c r="B591" s="7"/>
+    </row>
+    <row r="592">
+      <c r="B592" s="7"/>
+    </row>
+    <row r="593">
+      <c r="B593" s="7"/>
+    </row>
+    <row r="594">
+      <c r="B594" s="7"/>
+    </row>
+    <row r="595">
+      <c r="B595" s="7"/>
+    </row>
+    <row r="596">
+      <c r="B596" s="7"/>
+    </row>
+    <row r="597">
+      <c r="B597" s="7"/>
+    </row>
+    <row r="598">
+      <c r="B598" s="7"/>
+    </row>
+    <row r="599">
+      <c r="B599" s="7"/>
+    </row>
+    <row r="600">
+      <c r="B600" s="7"/>
+    </row>
+    <row r="601">
+      <c r="B601" s="7"/>
+    </row>
+    <row r="602">
+      <c r="B602" s="7"/>
+    </row>
+    <row r="603">
+      <c r="B603" s="7"/>
+    </row>
+    <row r="604">
+      <c r="B604" s="7"/>
+    </row>
+    <row r="605">
+      <c r="B605" s="7"/>
+    </row>
+    <row r="606">
+      <c r="B606" s="7"/>
+    </row>
+    <row r="607">
+      <c r="B607" s="7"/>
+    </row>
+    <row r="608">
+      <c r="B608" s="7"/>
+    </row>
+    <row r="609">
+      <c r="B609" s="7"/>
+    </row>
+    <row r="610">
+      <c r="B610" s="7"/>
+    </row>
+    <row r="611">
+      <c r="B611" s="7"/>
+    </row>
+    <row r="612">
+      <c r="B612" s="7"/>
+    </row>
+    <row r="613">
+      <c r="B613" s="7"/>
+    </row>
+    <row r="614">
+      <c r="B614" s="7"/>
+    </row>
+    <row r="615">
+      <c r="B615" s="7"/>
+    </row>
+    <row r="616">
+      <c r="B616" s="7"/>
+    </row>
+    <row r="617">
+      <c r="B617" s="7"/>
+    </row>
+    <row r="618">
+      <c r="B618" s="7"/>
+    </row>
+    <row r="619">
+      <c r="B619" s="7"/>
+    </row>
+    <row r="620">
+      <c r="B620" s="7"/>
+    </row>
+    <row r="621">
+      <c r="B621" s="7"/>
+    </row>
+    <row r="622">
+      <c r="B622" s="7"/>
+    </row>
+    <row r="623">
+      <c r="B623" s="7"/>
+    </row>
+    <row r="624">
+      <c r="B624" s="7"/>
+    </row>
+    <row r="625">
+      <c r="B625" s="7"/>
+    </row>
+    <row r="626">
+      <c r="B626" s="7"/>
+    </row>
+    <row r="627">
+      <c r="B627" s="7"/>
+    </row>
+    <row r="628">
+      <c r="B628" s="7"/>
+    </row>
+    <row r="629">
+      <c r="B629" s="7"/>
+    </row>
+    <row r="630">
+      <c r="B630" s="7"/>
+    </row>
+    <row r="631">
+      <c r="B631" s="7"/>
+    </row>
+    <row r="632">
+      <c r="B632" s="7"/>
+    </row>
+    <row r="633">
+      <c r="B633" s="7"/>
+    </row>
+    <row r="634">
+      <c r="B634" s="7"/>
+    </row>
+    <row r="635">
+      <c r="B635" s="7"/>
+    </row>
+    <row r="636">
+      <c r="B636" s="7"/>
+    </row>
+    <row r="637">
+      <c r="B637" s="7"/>
+    </row>
+    <row r="638">
+      <c r="B638" s="7"/>
+    </row>
+    <row r="639">
+      <c r="B639" s="7"/>
+    </row>
+    <row r="640">
+      <c r="B640" s="7"/>
+    </row>
+    <row r="641">
+      <c r="B641" s="7"/>
+    </row>
+    <row r="642">
+      <c r="B642" s="7"/>
+    </row>
+    <row r="643">
+      <c r="B643" s="7"/>
+    </row>
+    <row r="644">
+      <c r="B644" s="7"/>
+    </row>
+    <row r="645">
+      <c r="B645" s="7"/>
+    </row>
+    <row r="646">
+      <c r="B646" s="7"/>
+    </row>
+    <row r="647">
+      <c r="B647" s="7"/>
+    </row>
+    <row r="648">
+      <c r="B648" s="7"/>
+    </row>
+    <row r="649">
+      <c r="B649" s="7"/>
+    </row>
+    <row r="650">
+      <c r="B650" s="7"/>
+    </row>
+    <row r="651">
+      <c r="B651" s="7"/>
+    </row>
+    <row r="652">
+      <c r="B652" s="7"/>
+    </row>
+    <row r="653">
+      <c r="B653" s="7"/>
+    </row>
+    <row r="654">
+      <c r="B654" s="7"/>
+    </row>
+    <row r="655">
+      <c r="B655" s="7"/>
+    </row>
+    <row r="656">
+      <c r="B656" s="7"/>
+    </row>
+    <row r="657">
+      <c r="B657" s="7"/>
+    </row>
+    <row r="658">
+      <c r="B658" s="7"/>
+    </row>
+    <row r="659">
+      <c r="B659" s="7"/>
+    </row>
+    <row r="660">
+      <c r="B660" s="7"/>
+    </row>
+    <row r="661">
+      <c r="B661" s="7"/>
+    </row>
+    <row r="662">
+      <c r="B662" s="7"/>
+    </row>
+    <row r="663">
+      <c r="B663" s="7"/>
+    </row>
+    <row r="664">
+      <c r="B664" s="7"/>
+    </row>
+    <row r="665">
+      <c r="B665" s="7"/>
+    </row>
+    <row r="666">
+      <c r="B666" s="7"/>
+    </row>
+    <row r="667">
+      <c r="B667" s="7"/>
+    </row>
+    <row r="668">
+      <c r="B668" s="7"/>
+    </row>
+    <row r="669">
+      <c r="B669" s="7"/>
+    </row>
+    <row r="670">
+      <c r="B670" s="7"/>
+    </row>
+    <row r="671">
+      <c r="B671" s="7"/>
+    </row>
+    <row r="672">
+      <c r="B672" s="7"/>
+    </row>
+    <row r="673">
+      <c r="B673" s="7"/>
+    </row>
+    <row r="674">
+      <c r="B674" s="7"/>
+    </row>
+    <row r="675">
+      <c r="B675" s="7"/>
+    </row>
+    <row r="676">
+      <c r="B676" s="7"/>
+    </row>
+    <row r="677">
+      <c r="B677" s="7"/>
+    </row>
+    <row r="678">
+      <c r="B678" s="7"/>
+    </row>
+    <row r="679">
+      <c r="B679" s="7"/>
+    </row>
+    <row r="680">
+      <c r="B680" s="7"/>
+    </row>
+    <row r="681">
+      <c r="B681" s="7"/>
+    </row>
+    <row r="682">
+      <c r="B682" s="7"/>
+    </row>
+    <row r="683">
+      <c r="B683" s="7"/>
+    </row>
+    <row r="684">
+      <c r="B684" s="7"/>
+    </row>
+    <row r="685">
+      <c r="B685" s="7"/>
+    </row>
+    <row r="686">
+      <c r="B686" s="7"/>
+    </row>
+    <row r="687">
+      <c r="B687" s="7"/>
+    </row>
+    <row r="688">
+      <c r="B688" s="7"/>
+    </row>
+    <row r="689">
+      <c r="B689" s="7"/>
+    </row>
+    <row r="690">
+      <c r="B690" s="7"/>
+    </row>
+    <row r="691">
+      <c r="B691" s="7"/>
+    </row>
+    <row r="692">
+      <c r="B692" s="7"/>
+    </row>
+    <row r="693">
+      <c r="B693" s="7"/>
+    </row>
+    <row r="694">
+      <c r="B694" s="7"/>
+    </row>
+    <row r="695">
+      <c r="B695" s="7"/>
+    </row>
+    <row r="696">
+      <c r="B696" s="7"/>
+    </row>
+    <row r="697">
+      <c r="B697" s="7"/>
+    </row>
+    <row r="698">
+      <c r="B698" s="7"/>
+    </row>
+    <row r="699">
+      <c r="B699" s="7"/>
+    </row>
+    <row r="700">
+      <c r="B700" s="7"/>
+    </row>
+    <row r="701">
+      <c r="B701" s="7"/>
+    </row>
+    <row r="702">
+      <c r="B702" s="7"/>
+    </row>
+    <row r="703">
+      <c r="B703" s="7"/>
+    </row>
+    <row r="704">
+      <c r="B704" s="7"/>
+    </row>
+    <row r="705">
+      <c r="B705" s="7"/>
+    </row>
+    <row r="706">
+      <c r="B706" s="7"/>
+    </row>
+    <row r="707">
+      <c r="B707" s="7"/>
+    </row>
+    <row r="708">
+      <c r="B708" s="7"/>
+    </row>
+    <row r="709">
+      <c r="B709" s="7"/>
+    </row>
+    <row r="710">
+      <c r="B710" s="7"/>
+    </row>
+    <row r="711">
+      <c r="B711" s="7"/>
+    </row>
+    <row r="712">
+      <c r="B712" s="7"/>
+    </row>
+    <row r="713">
+      <c r="B713" s="7"/>
+    </row>
+    <row r="714">
+      <c r="B714" s="7"/>
+    </row>
+    <row r="715">
+      <c r="B715" s="7"/>
+    </row>
+    <row r="716">
+      <c r="B716" s="7"/>
+    </row>
+    <row r="717">
+      <c r="B717" s="7"/>
+    </row>
+    <row r="718">
+      <c r="B718" s="7"/>
+    </row>
+    <row r="719">
+      <c r="B719" s="7"/>
+    </row>
+    <row r="720">
+      <c r="B720" s="7"/>
+    </row>
+    <row r="721">
+      <c r="B721" s="7"/>
+    </row>
+    <row r="722">
+      <c r="B722" s="7"/>
+    </row>
+    <row r="723">
+      <c r="B723" s="7"/>
+    </row>
+    <row r="724">
+      <c r="B724" s="7"/>
+    </row>
+    <row r="725">
+      <c r="B725" s="7"/>
+    </row>
+    <row r="726">
+      <c r="B726" s="7"/>
+    </row>
+    <row r="727">
+      <c r="B727" s="7"/>
+    </row>
+    <row r="728">
+      <c r="B728" s="7"/>
+    </row>
+    <row r="729">
+      <c r="B729" s="7"/>
+    </row>
+    <row r="730">
+      <c r="B730" s="7"/>
+    </row>
+    <row r="731">
+      <c r="B731" s="7"/>
+    </row>
+    <row r="732">
+      <c r="B732" s="7"/>
+    </row>
+    <row r="733">
+      <c r="B733" s="7"/>
+    </row>
+    <row r="734">
+      <c r="B734" s="7"/>
+    </row>
+    <row r="735">
+      <c r="B735" s="7"/>
+    </row>
+    <row r="736">
+      <c r="B736" s="7"/>
+    </row>
+    <row r="737">
+      <c r="B737" s="7"/>
+    </row>
+    <row r="738">
+      <c r="B738" s="7"/>
+    </row>
+    <row r="739">
+      <c r="B739" s="7"/>
+    </row>
+    <row r="740">
+      <c r="B740" s="7"/>
+    </row>
+    <row r="741">
+      <c r="B741" s="7"/>
+    </row>
+    <row r="742">
+      <c r="B742" s="7"/>
+    </row>
+    <row r="743">
+      <c r="B743" s="7"/>
+    </row>
+    <row r="744">
+      <c r="B744" s="7"/>
+    </row>
+    <row r="745">
+      <c r="B745" s="7"/>
+    </row>
+    <row r="746">
+      <c r="B746" s="7"/>
+    </row>
+    <row r="747">
+      <c r="B747" s="7"/>
+    </row>
+    <row r="748">
+      <c r="B748" s="7"/>
+    </row>
+    <row r="749">
+      <c r="B749" s="7"/>
+    </row>
+    <row r="750">
+      <c r="B750" s="7"/>
+    </row>
+    <row r="751">
+      <c r="B751" s="7"/>
+    </row>
+    <row r="752">
+      <c r="B752" s="7"/>
+    </row>
+    <row r="753">
+      <c r="B753" s="7"/>
+    </row>
+    <row r="754">
+      <c r="B754" s="7"/>
+    </row>
+    <row r="755">
+      <c r="B755" s="7"/>
+    </row>
+    <row r="756">
+      <c r="B756" s="7"/>
+    </row>
+    <row r="757">
+      <c r="B757" s="7"/>
+    </row>
+    <row r="758">
+      <c r="B758" s="7"/>
+    </row>
+    <row r="759">
+      <c r="B759" s="7"/>
+    </row>
+    <row r="760">
+      <c r="B760" s="7"/>
+    </row>
+    <row r="761">
+      <c r="B761" s="7"/>
+    </row>
+    <row r="762">
+      <c r="B762" s="7"/>
+    </row>
+    <row r="763">
+      <c r="B763" s="7"/>
+    </row>
+    <row r="764">
+      <c r="B764" s="7"/>
+    </row>
+    <row r="765">
+      <c r="B765" s="7"/>
+    </row>
+    <row r="766">
+      <c r="B766" s="7"/>
+    </row>
+    <row r="767">
+      <c r="B767" s="7"/>
+    </row>
+    <row r="768">
+      <c r="B768" s="7"/>
+    </row>
+    <row r="769">
+      <c r="B769" s="7"/>
+    </row>
+    <row r="770">
+      <c r="B770" s="7"/>
+    </row>
+    <row r="771">
+      <c r="B771" s="7"/>
+    </row>
+    <row r="772">
+      <c r="B772" s="7"/>
+    </row>
+    <row r="773">
+      <c r="B773" s="7"/>
+    </row>
+    <row r="774">
+      <c r="B774" s="7"/>
+    </row>
+    <row r="775">
+      <c r="B775" s="7"/>
+    </row>
+    <row r="776">
+      <c r="B776" s="7"/>
+    </row>
+    <row r="777">
+      <c r="B777" s="7"/>
+    </row>
+    <row r="778">
+      <c r="B778" s="7"/>
+    </row>
+    <row r="779">
+      <c r="B779" s="7"/>
+    </row>
+    <row r="780">
+      <c r="B780" s="7"/>
+    </row>
+    <row r="781">
+      <c r="B781" s="7"/>
+    </row>
+    <row r="782">
+      <c r="B782" s="7"/>
+    </row>
+    <row r="783">
+      <c r="B783" s="7"/>
+    </row>
+    <row r="784">
+      <c r="B784" s="7"/>
+    </row>
+    <row r="785">
+      <c r="B785" s="7"/>
+    </row>
+    <row r="786">
+      <c r="B786" s="7"/>
+    </row>
+    <row r="787">
+      <c r="B787" s="7"/>
+    </row>
+    <row r="788">
+      <c r="B788" s="7"/>
+    </row>
+    <row r="789">
+      <c r="B789" s="7"/>
+    </row>
+    <row r="790">
+      <c r="B790" s="7"/>
+    </row>
+    <row r="791">
+      <c r="B791" s="7"/>
+    </row>
+    <row r="792">
+      <c r="B792" s="7"/>
+    </row>
+    <row r="793">
+      <c r="B793" s="7"/>
+    </row>
+    <row r="794">
+      <c r="B794" s="7"/>
+    </row>
+    <row r="795">
+      <c r="B795" s="7"/>
+    </row>
+    <row r="796">
+      <c r="B796" s="7"/>
+    </row>
+    <row r="797">
+      <c r="B797" s="7"/>
+    </row>
+    <row r="798">
+      <c r="B798" s="7"/>
+    </row>
+    <row r="799">
+      <c r="B799" s="7"/>
+    </row>
+    <row r="800">
+      <c r="B800" s="7"/>
+    </row>
+    <row r="801">
+      <c r="B801" s="7"/>
+    </row>
+    <row r="802">
+      <c r="B802" s="7"/>
+    </row>
+    <row r="803">
+      <c r="B803" s="7"/>
+    </row>
+    <row r="804">
+      <c r="B804" s="7"/>
+    </row>
+    <row r="805">
+      <c r="B805" s="7"/>
+    </row>
+    <row r="806">
+      <c r="B806" s="7"/>
+    </row>
+    <row r="807">
+      <c r="B807" s="7"/>
+    </row>
+    <row r="808">
+      <c r="B808" s="7"/>
+    </row>
+    <row r="809">
+      <c r="B809" s="7"/>
+    </row>
+    <row r="810">
+      <c r="B810" s="7"/>
+    </row>
+    <row r="811">
+      <c r="B811" s="7"/>
+    </row>
+    <row r="812">
+      <c r="B812" s="7"/>
+    </row>
+    <row r="813">
+      <c r="B813" s="7"/>
+    </row>
+    <row r="814">
+      <c r="B814" s="7"/>
+    </row>
+    <row r="815">
+      <c r="B815" s="7"/>
+    </row>
+    <row r="816">
+      <c r="B816" s="7"/>
+    </row>
+    <row r="817">
+      <c r="B817" s="7"/>
+    </row>
+    <row r="818">
+      <c r="B818" s="7"/>
+    </row>
+    <row r="819">
+      <c r="B819" s="7"/>
+    </row>
+    <row r="820">
+      <c r="B820" s="7"/>
+    </row>
+    <row r="821">
+      <c r="B821" s="7"/>
+    </row>
+    <row r="822">
+      <c r="B822" s="7"/>
+    </row>
+    <row r="823">
+      <c r="B823" s="7"/>
+    </row>
+    <row r="824">
+      <c r="B824" s="7"/>
+    </row>
+    <row r="825">
+      <c r="B825" s="7"/>
+    </row>
+    <row r="826">
+      <c r="B826" s="7"/>
+    </row>
+    <row r="827">
+      <c r="B827" s="7"/>
+    </row>
+    <row r="828">
+      <c r="B828" s="7"/>
+    </row>
+    <row r="829">
+      <c r="B829" s="7"/>
+    </row>
+    <row r="830">
+      <c r="B830" s="7"/>
+    </row>
+    <row r="831">
+      <c r="B831" s="7"/>
+    </row>
+    <row r="832">
+      <c r="B832" s="7"/>
+    </row>
+    <row r="833">
+      <c r="B833" s="7"/>
+    </row>
+    <row r="834">
+      <c r="B834" s="7"/>
+    </row>
+    <row r="835">
+      <c r="B835" s="7"/>
+    </row>
+    <row r="836">
+      <c r="B836" s="7"/>
+    </row>
+    <row r="837">
+      <c r="B837" s="7"/>
+    </row>
+    <row r="838">
+      <c r="B838" s="7"/>
+    </row>
+    <row r="839">
+      <c r="B839" s="7"/>
+    </row>
+    <row r="840">
+      <c r="B840" s="7"/>
+    </row>
+    <row r="841">
+      <c r="B841" s="7"/>
+    </row>
+    <row r="842">
+      <c r="B842" s="7"/>
+    </row>
+    <row r="843">
+      <c r="B843" s="7"/>
+    </row>
+    <row r="844">
+      <c r="B844" s="7"/>
+    </row>
+    <row r="845">
+      <c r="B845" s="7"/>
+    </row>
+    <row r="846">
+      <c r="B846" s="7"/>
+    </row>
+    <row r="847">
+      <c r="B847" s="7"/>
+    </row>
+    <row r="848">
+      <c r="B848" s="7"/>
+    </row>
+    <row r="849">
+      <c r="B849" s="7"/>
+    </row>
+    <row r="850">
+      <c r="B850" s="7"/>
+    </row>
+    <row r="851">
+      <c r="B851" s="7"/>
+    </row>
+    <row r="852">
+      <c r="B852" s="7"/>
+    </row>
+    <row r="853">
+      <c r="B853" s="7"/>
+    </row>
+    <row r="854">
+      <c r="B854" s="7"/>
+    </row>
+    <row r="855">
+      <c r="B855" s="7"/>
+    </row>
+    <row r="856">
+      <c r="B856" s="7"/>
+    </row>
+    <row r="857">
+      <c r="B857" s="7"/>
+    </row>
+    <row r="858">
+      <c r="B858" s="7"/>
+    </row>
+    <row r="859">
+      <c r="B859" s="7"/>
+    </row>
+    <row r="860">
+      <c r="B860" s="7"/>
+    </row>
+    <row r="861">
+      <c r="B861" s="7"/>
+    </row>
+    <row r="862">
+      <c r="B862" s="7"/>
+    </row>
+    <row r="863">
+      <c r="B863" s="7"/>
+    </row>
+    <row r="864">
+      <c r="B864" s="7"/>
+    </row>
+    <row r="865">
+      <c r="B865" s="7"/>
+    </row>
+    <row r="866">
+      <c r="B866" s="7"/>
+    </row>
+    <row r="867">
+      <c r="B867" s="7"/>
+    </row>
+    <row r="868">
+      <c r="B868" s="7"/>
+    </row>
+    <row r="869">
+      <c r="B869" s="7"/>
+    </row>
+    <row r="870">
+      <c r="B870" s="7"/>
+    </row>
+    <row r="871">
+      <c r="B871" s="7"/>
+    </row>
+    <row r="872">
+      <c r="B872" s="7"/>
+    </row>
+    <row r="873">
+      <c r="B873" s="7"/>
+    </row>
+    <row r="874">
+      <c r="B874" s="7"/>
+    </row>
+    <row r="875">
+      <c r="B875" s="7"/>
+    </row>
+    <row r="876">
+      <c r="B876" s="7"/>
+    </row>
+    <row r="877">
+      <c r="B877" s="7"/>
+    </row>
+    <row r="878">
+      <c r="B878" s="7"/>
+    </row>
+    <row r="879">
+      <c r="B879" s="7"/>
+    </row>
+    <row r="880">
+      <c r="B880" s="7"/>
+    </row>
+    <row r="881">
+      <c r="B881" s="7"/>
+    </row>
+    <row r="882">
+      <c r="B882" s="7"/>
+    </row>
+    <row r="883">
+      <c r="B883" s="7"/>
+    </row>
+    <row r="884">
+      <c r="B884" s="7"/>
+    </row>
+    <row r="885">
+      <c r="B885" s="7"/>
+    </row>
+    <row r="886">
+      <c r="B886" s="7"/>
+    </row>
+    <row r="887">
+      <c r="B887" s="7"/>
+    </row>
+    <row r="888">
+      <c r="B888" s="7"/>
+    </row>
+    <row r="889">
+      <c r="B889" s="7"/>
+    </row>
+    <row r="890">
+      <c r="B890" s="7"/>
+    </row>
+    <row r="891">
+      <c r="B891" s="7"/>
+    </row>
+    <row r="892">
+      <c r="B892" s="7"/>
+    </row>
+    <row r="893">
+      <c r="B893" s="7"/>
+    </row>
+    <row r="894">
+      <c r="B894" s="7"/>
+    </row>
+    <row r="895">
+      <c r="B895" s="7"/>
+    </row>
+    <row r="896">
+      <c r="B896" s="7"/>
+    </row>
+    <row r="897">
+      <c r="B897" s="7"/>
+    </row>
+    <row r="898">
+      <c r="B898" s="7"/>
+    </row>
+    <row r="899">
+      <c r="B899" s="7"/>
+    </row>
+    <row r="900">
+      <c r="B900" s="7"/>
+    </row>
+    <row r="901">
+      <c r="B901" s="7"/>
+    </row>
+    <row r="902">
+      <c r="B902" s="7"/>
+    </row>
+    <row r="903">
+      <c r="B903" s="7"/>
+    </row>
+    <row r="904">
+      <c r="B904" s="7"/>
+    </row>
+    <row r="905">
+      <c r="B905" s="7"/>
+    </row>
+    <row r="906">
+      <c r="B906" s="7"/>
+    </row>
+    <row r="907">
+      <c r="B907" s="7"/>
+    </row>
+    <row r="908">
+      <c r="B908" s="7"/>
+    </row>
+    <row r="909">
+      <c r="B909" s="7"/>
+    </row>
+    <row r="910">
+      <c r="B910" s="7"/>
+    </row>
+    <row r="911">
+      <c r="B911" s="7"/>
+    </row>
+    <row r="912">
+      <c r="B912" s="7"/>
+    </row>
+    <row r="913">
+      <c r="B913" s="7"/>
+    </row>
+    <row r="914">
+      <c r="B914" s="7"/>
+    </row>
+    <row r="915">
+      <c r="B915" s="7"/>
+    </row>
+    <row r="916">
+      <c r="B916" s="7"/>
+    </row>
+    <row r="917">
+      <c r="B917" s="7"/>
+    </row>
+    <row r="918">
+      <c r="B918" s="7"/>
+    </row>
+    <row r="919">
+      <c r="B919" s="7"/>
+    </row>
+    <row r="920">
+      <c r="B920" s="7"/>
+    </row>
+    <row r="921">
+      <c r="B921" s="7"/>
+    </row>
+    <row r="922">
+      <c r="B922" s="7"/>
+    </row>
+    <row r="923">
+      <c r="B923" s="7"/>
+    </row>
+    <row r="924">
+      <c r="B924" s="7"/>
+    </row>
+    <row r="925">
+      <c r="B925" s="7"/>
+    </row>
+    <row r="926">
+      <c r="B926" s="7"/>
+    </row>
+    <row r="927">
+      <c r="B927" s="7"/>
+    </row>
+    <row r="928">
+      <c r="B928" s="7"/>
+    </row>
+    <row r="929">
+      <c r="B929" s="7"/>
+    </row>
+    <row r="930">
+      <c r="B930" s="7"/>
+    </row>
+    <row r="931">
+      <c r="B931" s="7"/>
+    </row>
+    <row r="932">
+      <c r="B932" s="7"/>
+    </row>
+    <row r="933">
+      <c r="B933" s="7"/>
+    </row>
+    <row r="934">
+      <c r="B934" s="7"/>
+    </row>
+    <row r="935">
+      <c r="B935" s="7"/>
+    </row>
+    <row r="936">
+      <c r="B936" s="7"/>
+    </row>
+    <row r="937">
+      <c r="B937" s="7"/>
+    </row>
+    <row r="938">
+      <c r="B938" s="7"/>
+    </row>
+    <row r="939">
+      <c r="B939" s="7"/>
+    </row>
+    <row r="940">
+      <c r="B940" s="7"/>
+    </row>
+    <row r="941">
+      <c r="B941" s="7"/>
+    </row>
+    <row r="942">
+      <c r="B942" s="7"/>
+    </row>
+    <row r="943">
+      <c r="B943" s="7"/>
+    </row>
+    <row r="944">
+      <c r="B944" s="7"/>
+    </row>
+    <row r="945">
+      <c r="B945" s="7"/>
+    </row>
+    <row r="946">
+      <c r="B946" s="7"/>
+    </row>
+    <row r="947">
+      <c r="B947" s="7"/>
+    </row>
+    <row r="948">
+      <c r="B948" s="7"/>
+    </row>
+    <row r="949">
+      <c r="B949" s="7"/>
+    </row>
+    <row r="950">
+      <c r="B950" s="7"/>
+    </row>
+    <row r="951">
+      <c r="B951" s="7"/>
+    </row>
+    <row r="952">
+      <c r="B952" s="7"/>
+    </row>
+    <row r="953">
+      <c r="B953" s="7"/>
+    </row>
+    <row r="954">
+      <c r="B954" s="7"/>
+    </row>
+    <row r="955">
+      <c r="B955" s="7"/>
+    </row>
+    <row r="956">
+      <c r="B956" s="7"/>
+    </row>
+    <row r="957">
+      <c r="B957" s="7"/>
+    </row>
+    <row r="958">
+      <c r="B958" s="7"/>
+    </row>
+    <row r="959">
+      <c r="B959" s="7"/>
+    </row>
+    <row r="960">
+      <c r="B960" s="7"/>
+    </row>
+    <row r="961">
+      <c r="B961" s="7"/>
+    </row>
+    <row r="962">
+      <c r="B962" s="7"/>
+    </row>
+    <row r="963">
+      <c r="B963" s="7"/>
+    </row>
+    <row r="964">
+      <c r="B964" s="7"/>
+    </row>
+    <row r="965">
+      <c r="B965" s="7"/>
+    </row>
+    <row r="966">
+      <c r="B966" s="7"/>
+    </row>
+    <row r="967">
+      <c r="B967" s="7"/>
+    </row>
+    <row r="968">
+      <c r="B968" s="7"/>
+    </row>
+    <row r="969">
+      <c r="B969" s="7"/>
+    </row>
+    <row r="970">
+      <c r="B970" s="7"/>
+    </row>
+    <row r="971">
+      <c r="B971" s="7"/>
+    </row>
+    <row r="972">
+      <c r="B972" s="7"/>
+    </row>
+    <row r="973">
+      <c r="B973" s="7"/>
+    </row>
+    <row r="974">
+      <c r="B974" s="7"/>
+    </row>
+    <row r="975">
+      <c r="B975" s="7"/>
+    </row>
+    <row r="976">
+      <c r="B976" s="7"/>
+    </row>
+    <row r="977">
+      <c r="B977" s="7"/>
+    </row>
+    <row r="978">
+      <c r="B978" s="7"/>
+    </row>
+    <row r="979">
+      <c r="B979" s="7"/>
+    </row>
+    <row r="980">
+      <c r="B980" s="7"/>
+    </row>
+    <row r="981">
+      <c r="B981" s="7"/>
+    </row>
+    <row r="982">
+      <c r="B982" s="7"/>
+    </row>
+    <row r="983">
+      <c r="B983" s="7"/>
+    </row>
+    <row r="984">
+      <c r="B984" s="7"/>
+    </row>
+    <row r="985">
+      <c r="B985" s="7"/>
+    </row>
+    <row r="986">
+      <c r="B986" s="7"/>
+    </row>
+    <row r="987">
+      <c r="B987" s="7"/>
+    </row>
+    <row r="988">
+      <c r="B988" s="7"/>
+    </row>
+    <row r="989">
+      <c r="B989" s="7"/>
+    </row>
+    <row r="990">
+      <c r="B990" s="7"/>
+    </row>
+    <row r="991">
+      <c r="B991" s="7"/>
+    </row>
+    <row r="992">
+      <c r="B992" s="7"/>
+    </row>
+    <row r="993">
+      <c r="B993" s="7"/>
+    </row>
+    <row r="994">
+      <c r="B994" s="7"/>
+    </row>
+    <row r="995">
+      <c r="B995" s="7"/>
+    </row>
+    <row r="996">
+      <c r="B996" s="7"/>
+    </row>
+    <row r="997">
+      <c r="B997" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>